--- a/testes/PH/J5_Log_excel.xlsx
+++ b/testes/PH/J5_Log_excel.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,14 +8,21 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ACEW\Documents\Android\androidconcurrency\testes\PH\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{EA0BE47B-B98A-4EF0-A584-DE3DC755D4B1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F90716C7-B4A2-43DB-954F-0E7FEDB1FD3C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160"/>
+    <workbookView xWindow="-1005" yWindow="-120" windowWidth="15375" windowHeight="7875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="J5_Log_agreggated" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="181029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -67,8 +74,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="18" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -199,6 +206,14 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -545,11 +560,12 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Ênfase1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -595,77 +611,7 @@
     <cellStyle name="Título 4" xfId="5" builtinId="19" customBuiltin="1"/>
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="14">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="4">
     <dxf>
       <fill>
         <patternFill>
@@ -1003,11 +949,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L152"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:L159"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A99" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="O135" sqref="O135"/>
+    <sheetView tabSelected="1" topLeftCell="C135" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="J159" sqref="J159"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="18.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1068,782 +1014,782 @@
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C7">
-        <v>558.6</v>
+        <v>592.79999999999995</v>
       </c>
       <c r="D7">
-        <v>542.20000000000005</v>
+        <v>591.6</v>
       </c>
       <c r="E7">
-        <v>543.79999999999995</v>
+        <v>599.20000000000005</v>
       </c>
       <c r="F7">
-        <v>263.60000000000002</v>
+        <v>4257.8</v>
       </c>
       <c r="I7">
-        <v>28.2</v>
+        <v>50.6</v>
       </c>
       <c r="J7">
-        <v>11.4</v>
+        <v>15</v>
       </c>
       <c r="K7">
         <v>5</v>
       </c>
       <c r="L7">
-        <v>77691.8</v>
+        <v>3642237.4</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C8">
-        <v>552.79999999999995</v>
+        <v>601.79999999999995</v>
       </c>
       <c r="D8">
-        <v>547.6</v>
+        <v>604.6</v>
       </c>
       <c r="E8">
-        <v>540.6</v>
+        <v>596.4</v>
       </c>
       <c r="F8">
-        <v>264.2</v>
+        <v>4312.3999999999996</v>
       </c>
       <c r="I8">
-        <v>11.8</v>
+        <v>33.4</v>
       </c>
       <c r="J8">
-        <v>6.6</v>
+        <v>19.8</v>
       </c>
       <c r="K8">
-        <v>3.4</v>
+        <v>11.4</v>
       </c>
       <c r="L8">
-        <v>75545.8</v>
+        <v>3880921.4</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C9">
-        <v>563.79999999999995</v>
+        <v>528</v>
       </c>
       <c r="D9">
-        <v>554</v>
+        <v>608.20000000000005</v>
       </c>
       <c r="E9">
-        <v>541.4</v>
+        <v>602.4</v>
       </c>
       <c r="F9">
-        <v>265.2</v>
+        <v>4308.6000000000004</v>
       </c>
       <c r="I9">
-        <v>11</v>
+        <v>10.8</v>
       </c>
       <c r="J9">
-        <v>3.6</v>
+        <v>1.8</v>
       </c>
       <c r="K9">
-        <v>13</v>
+        <v>8.1999999999999993</v>
       </c>
       <c r="L9">
-        <v>74631</v>
+        <v>3859267.8</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C10">
-        <v>567.79999999999995</v>
+        <v>593.79999999999995</v>
       </c>
       <c r="D10">
-        <v>553.79999999999995</v>
+        <v>601.4</v>
       </c>
       <c r="E10">
-        <v>546.20000000000005</v>
+        <v>591.20000000000005</v>
       </c>
       <c r="F10">
-        <v>320.8</v>
+        <v>4319.6000000000004</v>
       </c>
       <c r="I10">
-        <v>33</v>
+        <v>8.6</v>
       </c>
       <c r="J10">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="K10">
-        <v>9</v>
+        <v>6.2</v>
       </c>
       <c r="L10">
-        <v>66607.8</v>
+        <v>4016385.4</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C11">
-        <v>555.20000000000005</v>
+        <v>597</v>
       </c>
       <c r="D11">
-        <v>547.4</v>
+        <v>608.20000000000005</v>
       </c>
       <c r="E11">
-        <v>536.6</v>
+        <v>593.4</v>
       </c>
       <c r="F11">
-        <v>292.39999999999998</v>
+        <v>4286</v>
       </c>
       <c r="I11">
-        <v>22.2</v>
+        <v>14.8</v>
       </c>
       <c r="J11">
-        <v>13.8</v>
+        <v>22.6</v>
       </c>
       <c r="K11">
-        <v>8.6</v>
+        <v>40.200000000000003</v>
       </c>
       <c r="L11">
-        <v>70761.399999999994</v>
+        <v>3919569.6</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C12">
-        <v>535.4</v>
+        <v>606.20000000000005</v>
       </c>
       <c r="D12">
-        <v>546.4</v>
+        <v>598.79999999999995</v>
       </c>
       <c r="E12">
-        <v>546.20000000000005</v>
+        <v>593.6</v>
       </c>
       <c r="F12">
-        <v>307.8</v>
+        <v>4281</v>
       </c>
       <c r="I12">
-        <v>21.4</v>
+        <v>23.8</v>
       </c>
       <c r="J12">
-        <v>15.8</v>
+        <v>3.8</v>
       </c>
       <c r="K12">
-        <v>5.4</v>
+        <v>1.8</v>
       </c>
       <c r="L12">
-        <v>61297.4</v>
+        <v>3747173.2</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C13">
-        <v>411.2</v>
+        <v>601.20000000000005</v>
       </c>
       <c r="D13">
-        <v>549.4</v>
+        <v>607</v>
       </c>
       <c r="E13">
-        <v>551.79999999999995</v>
+        <v>593.20000000000005</v>
       </c>
       <c r="F13">
-        <v>322.8</v>
+        <v>4263.8</v>
       </c>
       <c r="I13">
-        <v>200.6</v>
+        <v>65</v>
       </c>
       <c r="J13">
-        <v>13</v>
+        <v>21.2</v>
       </c>
       <c r="K13">
-        <v>2.2000000000000002</v>
+        <v>17</v>
       </c>
       <c r="L13">
-        <v>54596.6</v>
+        <v>3816304.2</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C14">
-        <v>554</v>
+        <v>594</v>
       </c>
       <c r="D14">
-        <v>551.20000000000005</v>
+        <v>603.6</v>
       </c>
       <c r="E14">
-        <v>554.4</v>
+        <v>600.6</v>
       </c>
       <c r="F14">
-        <v>258.2</v>
+        <v>4094.6</v>
       </c>
       <c r="I14">
-        <v>12.8</v>
+        <v>16</v>
       </c>
       <c r="J14">
-        <v>8.6</v>
+        <v>19.8</v>
       </c>
       <c r="K14">
-        <v>25.8</v>
+        <v>12.2</v>
       </c>
       <c r="L14">
-        <v>78660.600000000006</v>
+        <v>3459665</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C15">
-        <v>544.6</v>
+        <v>596.20000000000005</v>
       </c>
       <c r="D15">
-        <v>556.20000000000005</v>
+        <v>606.20000000000005</v>
       </c>
       <c r="E15">
-        <v>539.79999999999995</v>
+        <v>593.4</v>
       </c>
       <c r="F15">
-        <v>274.39999999999998</v>
+        <v>4249.6000000000004</v>
       </c>
       <c r="I15">
-        <v>2.2000000000000002</v>
+        <v>20.6</v>
       </c>
       <c r="J15">
-        <v>13.8</v>
+        <v>37.4</v>
       </c>
       <c r="K15">
-        <v>5.4</v>
+        <v>40.200000000000003</v>
       </c>
       <c r="L15">
-        <v>77286.2</v>
+        <v>3676758.2</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C16">
-        <v>560.79999999999995</v>
+        <v>601.79999999999995</v>
       </c>
       <c r="D16">
-        <v>540.79999999999995</v>
+        <v>599.6</v>
       </c>
       <c r="E16">
-        <v>487.6</v>
+        <v>601.6</v>
       </c>
       <c r="F16">
-        <v>265</v>
+        <v>4167.6000000000004</v>
       </c>
       <c r="I16">
-        <v>25.4</v>
+        <v>10.199999999999999</v>
       </c>
       <c r="J16">
-        <v>16.2</v>
+        <v>12.2</v>
       </c>
       <c r="K16">
-        <v>125</v>
+        <v>7</v>
       </c>
       <c r="L16">
-        <v>74125.600000000006</v>
+        <v>3566393</v>
       </c>
     </row>
     <row r="17" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C17">
-        <v>554.4</v>
+        <v>607.6</v>
       </c>
       <c r="D17">
-        <v>568.4</v>
+        <v>597.79999999999995</v>
       </c>
       <c r="E17">
-        <v>544.79999999999995</v>
+        <v>604.4</v>
       </c>
       <c r="F17">
-        <v>297</v>
+        <v>4312.8</v>
       </c>
       <c r="I17">
-        <v>17.8</v>
+        <v>44.2</v>
       </c>
       <c r="J17">
-        <v>3.4</v>
+        <v>19</v>
       </c>
       <c r="K17">
-        <v>17.399999999999999</v>
+        <v>48.6</v>
       </c>
       <c r="L17">
-        <v>67836.800000000003</v>
+        <v>4050647.4</v>
       </c>
     </row>
     <row r="18" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C18">
-        <v>554</v>
+        <v>600.6</v>
       </c>
       <c r="D18">
-        <v>554.79999999999995</v>
+        <v>594.20000000000005</v>
       </c>
       <c r="E18">
-        <v>551.4</v>
+        <v>599.20000000000005</v>
       </c>
       <c r="F18">
-        <v>261.39999999999998</v>
+        <v>4314.3999999999996</v>
       </c>
       <c r="I18">
-        <v>23.2</v>
+        <v>33</v>
       </c>
       <c r="J18">
-        <v>3</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="K18">
-        <v>0.2</v>
+        <v>10.199999999999999</v>
       </c>
       <c r="L18">
-        <v>74582.2</v>
+        <v>3949314.6</v>
       </c>
     </row>
     <row r="19" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C19">
-        <v>552.79999999999995</v>
+        <v>599.79999999999995</v>
       </c>
       <c r="D19">
-        <v>543.79999999999995</v>
+        <v>594.4</v>
       </c>
       <c r="E19">
-        <v>543.6</v>
+        <v>595.20000000000005</v>
       </c>
       <c r="F19">
-        <v>286.39999999999998</v>
+        <v>4362.8</v>
       </c>
       <c r="I19">
-        <v>3.8</v>
+        <v>7.8</v>
       </c>
       <c r="J19">
-        <v>11.8</v>
+        <v>22.6</v>
       </c>
       <c r="K19">
-        <v>5.8</v>
+        <v>12.2</v>
       </c>
       <c r="L19">
-        <v>66351</v>
+        <v>4097361</v>
       </c>
     </row>
     <row r="20" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C20">
-        <v>546.4</v>
+        <v>602.6</v>
       </c>
       <c r="D20">
-        <v>543.79999999999995</v>
+        <v>597.6</v>
       </c>
       <c r="E20">
-        <v>554.6</v>
+        <v>593.6</v>
       </c>
       <c r="F20">
-        <v>295.39999999999998</v>
+        <v>4484</v>
       </c>
       <c r="I20">
-        <v>8.1999999999999993</v>
+        <v>9.4</v>
       </c>
       <c r="J20">
-        <v>11.8</v>
+        <v>3.4</v>
       </c>
       <c r="K20">
-        <v>8.1999999999999993</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="L20">
-        <v>66107.8</v>
+        <v>4370296.8</v>
       </c>
     </row>
     <row r="21" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C21">
-        <v>560.20000000000005</v>
+        <v>601.4</v>
       </c>
       <c r="D21">
-        <v>556.6</v>
+        <v>597.4</v>
       </c>
       <c r="E21">
-        <v>551.4</v>
+        <v>593</v>
       </c>
       <c r="F21">
-        <v>255.8</v>
+        <v>4306</v>
       </c>
       <c r="I21">
-        <v>15.4</v>
+        <v>10.6</v>
       </c>
       <c r="J21">
-        <v>16.2</v>
+        <v>59.8</v>
       </c>
       <c r="K21">
-        <v>32.200000000000003</v>
+        <v>34</v>
       </c>
       <c r="L21">
-        <v>81176.600000000006</v>
+        <v>3807322.8</v>
       </c>
     </row>
     <row r="22" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C22">
-        <v>566</v>
+        <v>598.4</v>
       </c>
       <c r="D22">
-        <v>544</v>
+        <v>608</v>
       </c>
       <c r="E22">
-        <v>548</v>
+        <v>606.79999999999995</v>
       </c>
       <c r="F22">
-        <v>255.2</v>
+        <v>4246</v>
       </c>
       <c r="I22">
-        <v>7.6</v>
+        <v>57.4</v>
       </c>
       <c r="J22">
-        <v>4.4000000000000004</v>
+        <v>5.2</v>
       </c>
       <c r="K22">
-        <v>34.799999999999997</v>
+        <v>24.2</v>
       </c>
       <c r="L22">
-        <v>80285</v>
+        <v>3904196.8</v>
       </c>
     </row>
     <row r="23" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C23">
-        <v>565.6</v>
+        <v>595.79999999999995</v>
       </c>
       <c r="D23">
-        <v>554</v>
+        <v>598</v>
       </c>
       <c r="E23">
-        <v>551.20000000000005</v>
+        <v>597.4</v>
       </c>
       <c r="F23">
-        <v>263.8</v>
+        <v>4275.2</v>
       </c>
       <c r="I23">
-        <v>11</v>
+        <v>43.8</v>
       </c>
       <c r="J23">
-        <v>4.4000000000000004</v>
+        <v>3.6</v>
       </c>
       <c r="K23">
-        <v>8.1999999999999993</v>
+        <v>13</v>
       </c>
       <c r="L23">
-        <v>83977.4</v>
+        <v>3898807</v>
       </c>
     </row>
     <row r="24" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C24">
-        <v>555</v>
+        <v>605.20000000000005</v>
       </c>
       <c r="D24">
-        <v>562</v>
+        <v>600.79999999999995</v>
       </c>
       <c r="E24">
-        <v>550.6</v>
+        <v>589.79999999999995</v>
       </c>
       <c r="F24">
-        <v>289</v>
+        <v>4426</v>
       </c>
       <c r="I24">
-        <v>10</v>
+        <v>53.4</v>
       </c>
       <c r="J24">
-        <v>17.2</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="K24">
-        <v>5.8</v>
+        <v>18.2</v>
       </c>
       <c r="L24">
-        <v>74759.600000000006</v>
+        <v>3988837.6</v>
       </c>
     </row>
     <row r="25" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C25">
-        <v>555</v>
+        <v>609.20000000000005</v>
       </c>
       <c r="D25">
-        <v>525.20000000000005</v>
+        <v>596.20000000000005</v>
       </c>
       <c r="E25">
-        <v>544</v>
+        <v>593.4</v>
       </c>
       <c r="F25">
-        <v>303.2</v>
+        <v>4268.8</v>
       </c>
       <c r="I25">
-        <v>9.1999999999999993</v>
+        <v>25.4</v>
       </c>
       <c r="J25">
-        <v>24.2</v>
+        <v>28.2</v>
       </c>
       <c r="K25">
-        <v>1.6</v>
+        <v>3.4</v>
       </c>
       <c r="L25">
-        <v>63579</v>
+        <v>3656721</v>
       </c>
     </row>
     <row r="26" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C26">
-        <v>555.20000000000005</v>
+        <v>600</v>
       </c>
       <c r="D26">
-        <v>540.6</v>
+        <v>605.79999999999995</v>
       </c>
       <c r="E26">
-        <v>543.4</v>
+        <v>598.4</v>
       </c>
       <c r="F26">
-        <v>262.8</v>
+        <v>4158</v>
       </c>
       <c r="I26">
-        <v>11.8</v>
+        <v>36.4</v>
       </c>
       <c r="J26">
-        <v>13.8</v>
+        <v>17.8</v>
       </c>
       <c r="K26">
-        <v>12.6</v>
+        <v>56.2</v>
       </c>
       <c r="L26">
-        <v>77878.600000000006</v>
+        <v>3547893.6</v>
       </c>
     </row>
     <row r="27" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C27">
-        <v>557</v>
+        <v>602</v>
       </c>
       <c r="D27">
-        <v>555.6</v>
+        <v>595.4</v>
       </c>
       <c r="E27">
-        <v>540</v>
+        <v>606.20000000000005</v>
       </c>
       <c r="F27">
-        <v>278.39999999999998</v>
+        <v>4375</v>
       </c>
       <c r="I27">
-        <v>2</v>
+        <v>40.4</v>
       </c>
       <c r="J27">
-        <v>11.8</v>
+        <v>162.6</v>
       </c>
       <c r="K27">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="L27">
-        <v>72774.600000000006</v>
+        <v>4019237.6</v>
       </c>
     </row>
     <row r="28" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C28">
-        <v>560</v>
+        <v>596.6</v>
       </c>
       <c r="D28">
-        <v>558.4</v>
+        <v>606.4</v>
       </c>
       <c r="E28">
-        <v>539.79999999999995</v>
+        <v>599</v>
       </c>
       <c r="F28">
-        <v>252.4</v>
+        <v>4303.3999999999996</v>
       </c>
       <c r="I28">
-        <v>2.8</v>
+        <v>23</v>
       </c>
       <c r="J28">
-        <v>13</v>
+        <v>37.4</v>
       </c>
       <c r="K28">
-        <v>2.6</v>
+        <v>16</v>
       </c>
       <c r="L28">
-        <v>80389.399999999994</v>
+        <v>3715616.6</v>
       </c>
     </row>
     <row r="29" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C29">
-        <v>565</v>
+        <v>605.4</v>
       </c>
       <c r="D29">
-        <v>547.4</v>
+        <v>606</v>
       </c>
       <c r="E29">
-        <v>540.79999999999995</v>
+        <v>594.4</v>
       </c>
       <c r="F29">
-        <v>274.39999999999998</v>
+        <v>4396.6000000000004</v>
       </c>
       <c r="I29">
-        <v>36</v>
+        <v>17</v>
       </c>
       <c r="J29">
+        <v>8.4</v>
+      </c>
+      <c r="K29">
         <v>5</v>
       </c>
-      <c r="K29">
-        <v>6.6</v>
-      </c>
       <c r="L29">
-        <v>76202.600000000006</v>
+        <v>4100079.8</v>
       </c>
     </row>
     <row r="30" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C30">
-        <v>564</v>
+        <v>611.4</v>
       </c>
       <c r="D30">
-        <v>553.79999999999995</v>
+        <v>607.20000000000005</v>
       </c>
       <c r="E30">
-        <v>556</v>
+        <v>607.6</v>
       </c>
       <c r="F30">
-        <v>301.39999999999998</v>
+        <v>4288.6000000000004</v>
       </c>
       <c r="I30">
-        <v>3.2</v>
+        <v>4.2</v>
       </c>
       <c r="J30">
-        <v>11.4</v>
+        <v>20.6</v>
       </c>
       <c r="K30">
-        <v>36.4</v>
+        <v>27.8</v>
       </c>
       <c r="L30">
-        <v>63187</v>
+        <v>3767437.8</v>
       </c>
     </row>
     <row r="31" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C31">
-        <v>561.6</v>
+        <v>602.4</v>
       </c>
       <c r="D31">
-        <v>552.6</v>
+        <v>602.20000000000005</v>
       </c>
       <c r="E31">
-        <v>542.79999999999995</v>
+        <v>595.79999999999995</v>
       </c>
       <c r="F31">
-        <v>271.8</v>
+        <v>4522.3999999999996</v>
       </c>
       <c r="I31">
-        <v>13.8</v>
+        <v>18.2</v>
       </c>
       <c r="J31">
-        <v>16.2</v>
+        <v>11.8</v>
       </c>
       <c r="K31">
-        <v>3.8</v>
+        <v>4.2</v>
       </c>
       <c r="L31">
-        <v>74431</v>
+        <v>4271911.4000000004</v>
       </c>
     </row>
     <row r="32" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C32">
-        <v>558.20000000000005</v>
+        <v>601</v>
       </c>
       <c r="D32">
-        <v>553</v>
+        <v>600.79999999999995</v>
       </c>
       <c r="E32">
-        <v>548</v>
+        <v>602.20000000000005</v>
       </c>
       <c r="F32">
-        <v>264.2</v>
+        <v>4195</v>
       </c>
       <c r="I32">
-        <v>10.199999999999999</v>
+        <v>11.6</v>
       </c>
       <c r="J32">
-        <v>9.1999999999999993</v>
+        <v>12.2</v>
       </c>
       <c r="K32">
-        <v>26</v>
+        <v>5.4</v>
       </c>
       <c r="L32">
-        <v>80977.8</v>
+        <v>3676326.8</v>
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C33">
-        <v>567.6</v>
+        <v>604.6</v>
       </c>
       <c r="D33">
         <v>573.4</v>
       </c>
       <c r="E33">
-        <v>545.20000000000005</v>
+        <v>600.20000000000005</v>
       </c>
       <c r="F33">
-        <v>259.8</v>
+        <v>4490.3999999999996</v>
       </c>
       <c r="I33">
-        <v>9</v>
+        <v>33.4</v>
       </c>
       <c r="J33">
-        <v>16.600000000000001</v>
+        <v>8.6</v>
       </c>
       <c r="K33">
-        <v>10.6</v>
+        <v>1.4</v>
       </c>
       <c r="L33">
-        <v>78387.8</v>
+        <v>4157360.2</v>
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C34">
-        <v>556.4</v>
+        <v>605</v>
       </c>
       <c r="D34">
-        <v>560.4</v>
+        <v>596.20000000000005</v>
       </c>
       <c r="E34">
-        <v>550.6</v>
+        <v>603.20000000000005</v>
       </c>
       <c r="F34">
-        <v>311.39999999999998</v>
+        <v>4458.8</v>
       </c>
       <c r="I34">
-        <v>40.200000000000003</v>
+        <v>34</v>
       </c>
       <c r="J34">
-        <v>37</v>
+        <v>44.6</v>
       </c>
       <c r="K34">
-        <v>7</v>
+        <v>27</v>
       </c>
       <c r="L34">
-        <v>70173.8</v>
+        <v>4140442.2</v>
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C35">
-        <v>557.79999999999995</v>
+        <v>596.4</v>
       </c>
       <c r="D35">
-        <v>557</v>
+        <v>596.20000000000005</v>
       </c>
       <c r="E35">
-        <v>552.79999999999995</v>
+        <v>596.6</v>
       </c>
       <c r="F35">
-        <v>269.8</v>
+        <v>4306.6000000000004</v>
       </c>
       <c r="I35">
-        <v>3.8</v>
+        <v>13</v>
       </c>
       <c r="J35">
-        <v>0.8</v>
+        <v>22.6</v>
       </c>
       <c r="K35">
-        <v>4.5999999999999996</v>
+        <v>39.4</v>
       </c>
       <c r="L35">
-        <v>71716.600000000006</v>
+        <v>3900757.8</v>
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C36">
-        <v>511.6</v>
+        <v>600.20000000000005</v>
       </c>
       <c r="D36">
-        <v>540</v>
+        <v>600.79999999999995</v>
       </c>
       <c r="E36">
-        <v>505.6</v>
+        <v>602.79999999999995</v>
       </c>
       <c r="F36">
-        <v>289.39999999999998</v>
+        <v>4268.3999999999996</v>
       </c>
       <c r="I36">
-        <v>44.2</v>
+        <v>39.4</v>
       </c>
       <c r="J36">
-        <v>3.2</v>
+        <v>17.8</v>
       </c>
       <c r="K36">
-        <v>89.8</v>
+        <v>32.6</v>
       </c>
       <c r="L36">
-        <v>72880.2</v>
+        <v>3674511</v>
       </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.25">
@@ -1852,38 +1798,38 @@
       </c>
       <c r="C37">
         <f>AVERAGE(C7:C36)</f>
-        <v>550.93333333333328</v>
+        <v>598.61333333333334</v>
       </c>
       <c r="D37">
         <f t="shared" ref="D37:F37" si="0">AVERAGE(D7:D36)</f>
-        <v>551.12666666666678</v>
+        <v>600.13333333333333</v>
       </c>
       <c r="E37">
         <f t="shared" si="0"/>
-        <v>543.1</v>
+        <v>598.13999999999987</v>
       </c>
       <c r="F37">
         <f t="shared" si="0"/>
-        <v>279.24666666666661</v>
+        <v>4310.0066666666662</v>
       </c>
       <c r="H37" t="s">
         <v>12</v>
       </c>
       <c r="I37">
         <f>AVERAGE(I7:I36)</f>
-        <v>21.72666666666667</v>
+        <v>26.98</v>
       </c>
       <c r="J37">
         <f t="shared" ref="J37" si="1">AVERAGE(J7:J36)</f>
-        <v>11.34</v>
+        <v>22.413333333333334</v>
       </c>
       <c r="K37">
         <f t="shared" ref="K37" si="2">AVERAGE(K7:K36)</f>
-        <v>17.366666666666671</v>
+        <v>18.119999999999994</v>
       </c>
       <c r="L37">
         <f t="shared" ref="L37" si="3">AVERAGE(L7:L36)</f>
-        <v>72961.966666666689</v>
+        <v>3875991.8333333326</v>
       </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.25">
@@ -1892,38 +1838,38 @@
       </c>
       <c r="C38">
         <f>AVEDEV(C7:C36)</f>
-        <v>13.697777777777812</v>
+        <v>6.4755555555555588</v>
       </c>
       <c r="D38">
         <f t="shared" ref="D38:F38" si="4">AVEDEV(D7:D36)</f>
-        <v>7.0697777777777633</v>
+        <v>5.0044444444444443</v>
       </c>
       <c r="E38">
         <f t="shared" si="4"/>
-        <v>7.7333333333333298</v>
+        <v>4.1133333333333404</v>
       </c>
       <c r="F38">
         <f t="shared" si="4"/>
-        <v>17.735999999999983</v>
+        <v>70.341333333333196</v>
       </c>
       <c r="H38" t="s">
         <v>13</v>
       </c>
       <c r="I38">
         <f>AVEDEV(I7:I36)</f>
-        <v>17.164000000000001</v>
+        <v>14.244000000000002</v>
       </c>
       <c r="J38">
         <f t="shared" ref="J38:L38" si="5">AVEDEV(J7:J36)</f>
-        <v>5.3919999999999995</v>
+        <v>15.738666666666667</v>
       </c>
       <c r="K38">
         <f t="shared" si="5"/>
-        <v>16.564444444444444</v>
+        <v>12.605333333333334</v>
       </c>
       <c r="L38">
         <f t="shared" si="5"/>
-        <v>5375.7044444444427</v>
+        <v>176683.81777777776</v>
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.25">
@@ -1972,782 +1918,782 @@
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C45">
-        <v>246.8</v>
+        <v>209.5</v>
       </c>
       <c r="D45">
-        <v>248.8</v>
+        <v>252.7</v>
       </c>
       <c r="E45">
-        <v>243.1</v>
+        <v>244.5</v>
       </c>
       <c r="F45">
-        <v>141.19999999999999</v>
+        <v>3638.5</v>
       </c>
       <c r="I45">
-        <v>40.5</v>
+        <v>29.7</v>
       </c>
       <c r="J45">
-        <v>21.8</v>
+        <v>27.8</v>
       </c>
       <c r="K45">
-        <v>27</v>
+        <v>67</v>
       </c>
       <c r="L45">
-        <v>50507.4</v>
+        <v>1065672.8</v>
       </c>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C46">
-        <v>240.6</v>
+        <v>237.9</v>
       </c>
       <c r="D46">
-        <v>250.6</v>
+        <v>253.4</v>
       </c>
       <c r="E46">
-        <v>246</v>
+        <v>243.5</v>
       </c>
       <c r="F46">
-        <v>143.9</v>
+        <v>3695.6</v>
       </c>
       <c r="I46">
-        <v>21</v>
+        <v>38.6</v>
       </c>
       <c r="J46">
-        <v>26.6</v>
+        <v>19.5</v>
       </c>
       <c r="K46">
-        <v>26</v>
+        <v>25.7</v>
       </c>
       <c r="L46">
-        <v>54736.3</v>
+        <v>1083967.1000000001</v>
       </c>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C47">
-        <v>243</v>
+        <v>253.1</v>
       </c>
       <c r="D47">
         <v>246.3</v>
       </c>
       <c r="E47">
-        <v>253.5</v>
+        <v>245.8</v>
       </c>
       <c r="F47">
-        <v>130.80000000000001</v>
+        <v>3684.2</v>
       </c>
       <c r="I47">
-        <v>63.3</v>
+        <v>28.4</v>
       </c>
       <c r="J47">
-        <v>28.2</v>
+        <v>31.8</v>
       </c>
       <c r="K47">
-        <v>28.1</v>
+        <v>50.5</v>
       </c>
       <c r="L47">
-        <v>51643.199999999997</v>
+        <v>1084076.1000000001</v>
       </c>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C48">
-        <v>243.1</v>
+        <v>245.5</v>
       </c>
       <c r="D48">
-        <v>255.1</v>
+        <v>259.5</v>
       </c>
       <c r="E48">
-        <v>252.6</v>
+        <v>246.6</v>
       </c>
       <c r="F48">
-        <v>132</v>
+        <v>3596.2</v>
       </c>
       <c r="I48">
-        <v>73.5</v>
+        <v>11.3</v>
       </c>
       <c r="J48">
-        <v>24.4</v>
+        <v>32.4</v>
       </c>
       <c r="K48">
-        <v>52</v>
+        <v>59.9</v>
       </c>
       <c r="L48">
-        <v>49286.7</v>
+        <v>1033353.2</v>
       </c>
     </row>
     <row r="49" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C49">
-        <v>255.7</v>
+        <v>239.9</v>
       </c>
       <c r="D49">
-        <v>246.9</v>
+        <v>237.5</v>
       </c>
       <c r="E49">
-        <v>255.4</v>
+        <v>253.7</v>
       </c>
       <c r="F49">
-        <v>2614.8000000000002</v>
+        <v>3700.8</v>
       </c>
       <c r="I49">
-        <v>9.5</v>
+        <v>31.7</v>
       </c>
       <c r="J49">
-        <v>19.399999999999999</v>
+        <v>34.799999999999997</v>
       </c>
       <c r="K49">
-        <v>29.5</v>
+        <v>37.5</v>
       </c>
       <c r="L49">
-        <v>53155424.100000001</v>
+        <v>1104414.1000000001</v>
       </c>
     </row>
     <row r="50" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C50">
-        <v>253.7</v>
+        <v>231.9</v>
       </c>
       <c r="D50">
-        <v>238.8</v>
+        <v>252.5</v>
       </c>
       <c r="E50">
-        <v>255.7</v>
+        <v>253.8</v>
       </c>
       <c r="F50">
-        <v>2510.4</v>
+        <v>3613.6</v>
       </c>
       <c r="I50">
-        <v>33.299999999999997</v>
+        <v>30.4</v>
       </c>
       <c r="J50">
-        <v>32.299999999999997</v>
+        <v>18.100000000000001</v>
       </c>
       <c r="K50">
-        <v>36.4</v>
+        <v>63.1</v>
       </c>
       <c r="L50">
-        <v>45154029.700000003</v>
+        <v>1047796.8</v>
       </c>
     </row>
     <row r="51" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C51">
-        <v>254.3</v>
+        <v>244.9</v>
       </c>
       <c r="D51">
-        <v>250.5</v>
+        <v>248.2</v>
       </c>
       <c r="E51">
-        <v>254.7</v>
+        <v>245.2</v>
       </c>
       <c r="F51">
-        <v>161</v>
+        <v>3716.3</v>
       </c>
       <c r="I51">
-        <v>55.3</v>
+        <v>26.3</v>
       </c>
       <c r="J51">
-        <v>6.4</v>
+        <v>20.100000000000001</v>
       </c>
       <c r="K51">
-        <v>24</v>
+        <v>16.899999999999999</v>
       </c>
       <c r="L51">
-        <v>50482.9</v>
+        <v>1101767.5</v>
       </c>
     </row>
     <row r="52" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C52">
-        <v>254.2</v>
+        <v>239.9</v>
       </c>
       <c r="D52">
-        <v>245.8</v>
+        <v>242.5</v>
       </c>
       <c r="E52">
-        <v>256.60000000000002</v>
+        <v>237.4</v>
       </c>
       <c r="F52">
-        <v>138.80000000000001</v>
+        <v>3647.6</v>
       </c>
       <c r="I52">
-        <v>15.8</v>
+        <v>37</v>
       </c>
       <c r="J52">
-        <v>20.7</v>
+        <v>40.6</v>
       </c>
       <c r="K52">
-        <v>19.100000000000001</v>
+        <v>6.2</v>
       </c>
       <c r="L52">
-        <v>55674.1</v>
+        <v>1043919.5</v>
       </c>
     </row>
     <row r="53" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C53">
-        <v>249.1</v>
+        <v>238.8</v>
       </c>
       <c r="D53">
-        <v>244.6</v>
+        <v>256.39999999999998</v>
       </c>
       <c r="E53">
-        <v>247.4</v>
+        <v>243.1</v>
       </c>
       <c r="F53">
-        <v>118.4</v>
+        <v>3661.5</v>
       </c>
       <c r="I53">
-        <v>31.4</v>
+        <v>44.1</v>
       </c>
       <c r="J53">
-        <v>35.299999999999997</v>
+        <v>44</v>
       </c>
       <c r="K53">
-        <v>35</v>
+        <v>41.2</v>
       </c>
       <c r="L53">
-        <v>52987.3</v>
+        <v>1048551.2</v>
       </c>
     </row>
     <row r="54" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C54">
-        <v>248.5</v>
+        <v>254.1</v>
       </c>
       <c r="D54">
-        <v>241.8</v>
+        <v>250.8</v>
       </c>
       <c r="E54">
-        <v>247.6</v>
+        <v>244</v>
       </c>
       <c r="F54">
-        <v>2583.5</v>
+        <v>3683.6</v>
       </c>
       <c r="I54">
-        <v>33.700000000000003</v>
+        <v>31.4</v>
       </c>
       <c r="J54">
-        <v>76.5</v>
+        <v>41.4</v>
       </c>
       <c r="K54">
-        <v>60.2</v>
+        <v>30.2</v>
       </c>
       <c r="L54">
-        <v>53980091.299999997</v>
+        <v>1088530</v>
       </c>
     </row>
     <row r="55" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C55">
-        <v>248.3</v>
+        <v>252.8</v>
       </c>
       <c r="D55">
-        <v>253.7</v>
+        <v>260.39999999999998</v>
       </c>
       <c r="E55">
-        <v>250.2</v>
+        <v>247.5</v>
       </c>
       <c r="F55">
-        <v>2632.9</v>
+        <v>3645.7</v>
       </c>
       <c r="I55">
-        <v>45.3</v>
+        <v>44.1</v>
       </c>
       <c r="J55">
-        <v>59.7</v>
+        <v>37</v>
       </c>
       <c r="K55">
-        <v>24.5</v>
+        <v>26.2</v>
       </c>
       <c r="L55">
-        <v>61613057.899999999</v>
+        <v>1066324.3999999999</v>
       </c>
     </row>
     <row r="56" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C56">
-        <v>252.5</v>
+        <v>258.3</v>
       </c>
       <c r="D56">
-        <v>250</v>
+        <v>248.5</v>
       </c>
       <c r="E56">
-        <v>249.1</v>
+        <v>249.3</v>
       </c>
       <c r="F56">
-        <v>134</v>
+        <v>3692.5</v>
       </c>
       <c r="I56">
-        <v>39.5</v>
+        <v>33.799999999999997</v>
       </c>
       <c r="J56">
-        <v>34.5</v>
+        <v>16.8</v>
       </c>
       <c r="K56">
-        <v>51.4</v>
+        <v>26.6</v>
       </c>
       <c r="L56">
-        <v>53488</v>
+        <v>1068858.6000000001</v>
       </c>
     </row>
     <row r="57" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C57">
-        <v>261.2</v>
+        <v>254.4</v>
       </c>
       <c r="D57">
-        <v>244.5</v>
+        <v>244.2</v>
       </c>
       <c r="E57">
-        <v>245.3</v>
+        <v>254.2</v>
       </c>
       <c r="F57">
-        <v>118.6</v>
+        <v>3674.3</v>
       </c>
       <c r="I57">
-        <v>19.8</v>
+        <v>34.4</v>
       </c>
       <c r="J57">
-        <v>45.2</v>
+        <v>9.4</v>
       </c>
       <c r="K57">
-        <v>23.1</v>
+        <v>76.5</v>
       </c>
       <c r="L57">
-        <v>53574.8</v>
+        <v>1091030.8999999999</v>
       </c>
     </row>
     <row r="58" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C58">
-        <v>248.6</v>
+        <v>249.4</v>
       </c>
       <c r="D58">
-        <v>229.2</v>
+        <v>245.5</v>
       </c>
       <c r="E58">
-        <v>228.5</v>
+        <v>247.3</v>
       </c>
       <c r="F58">
-        <v>116.9</v>
+        <v>3637.6</v>
       </c>
       <c r="I58">
-        <v>30.6</v>
+        <v>25.1</v>
       </c>
       <c r="J58">
-        <v>45.2</v>
+        <v>18.2</v>
       </c>
       <c r="K58">
-        <v>56.1</v>
+        <v>53.3</v>
       </c>
       <c r="L58">
-        <v>54661.4</v>
+        <v>1027520.8</v>
       </c>
     </row>
     <row r="59" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C59">
-        <v>246.2</v>
+        <v>245.5</v>
       </c>
       <c r="D59">
-        <v>240.7</v>
+        <v>254.4</v>
       </c>
       <c r="E59">
-        <v>249.5</v>
+        <v>248.2</v>
       </c>
       <c r="F59">
-        <v>208.6</v>
+        <v>3664.2</v>
       </c>
       <c r="I59">
-        <v>65.2</v>
+        <v>39</v>
       </c>
       <c r="J59">
-        <v>29.5</v>
+        <v>30.8</v>
       </c>
       <c r="K59">
-        <v>13.9</v>
+        <v>20.9</v>
       </c>
       <c r="L59">
-        <v>61792.6</v>
+        <v>1086364.5</v>
       </c>
     </row>
     <row r="60" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C60">
-        <v>244.8</v>
+        <v>245.3</v>
       </c>
       <c r="D60">
-        <v>238.3</v>
+        <v>248.6</v>
       </c>
       <c r="E60">
-        <v>254.7</v>
+        <v>252.2</v>
       </c>
       <c r="F60">
-        <v>182.8</v>
+        <v>3706.3</v>
       </c>
       <c r="I60">
-        <v>13.8</v>
+        <v>78.900000000000006</v>
       </c>
       <c r="J60">
         <v>25.7</v>
       </c>
       <c r="K60">
-        <v>12.4</v>
+        <v>29.8</v>
       </c>
       <c r="L60">
-        <v>58980.5</v>
+        <v>1106933.7</v>
       </c>
     </row>
     <row r="61" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C61">
-        <v>248.5</v>
+        <v>251.8</v>
       </c>
       <c r="D61">
-        <v>246.8</v>
+        <v>259.5</v>
       </c>
       <c r="E61">
-        <v>248</v>
+        <v>249.5</v>
       </c>
       <c r="F61">
-        <v>153.19999999999999</v>
+        <v>3528.5</v>
       </c>
       <c r="I61">
-        <v>24.4</v>
+        <v>30.3</v>
       </c>
       <c r="J61">
-        <v>34.9</v>
+        <v>34.200000000000003</v>
       </c>
       <c r="K61">
-        <v>40</v>
+        <v>76.400000000000006</v>
       </c>
       <c r="L61">
-        <v>51800.5</v>
+        <v>959452.4</v>
       </c>
     </row>
     <row r="62" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C62">
-        <v>261</v>
+        <v>241.2</v>
       </c>
       <c r="D62">
-        <v>235.9</v>
+        <v>242.2</v>
       </c>
       <c r="E62">
-        <v>251.2</v>
+        <v>243.7</v>
       </c>
       <c r="F62">
-        <v>119.5</v>
+        <v>3648.3</v>
       </c>
       <c r="I62">
-        <v>40.200000000000003</v>
+        <v>67.099999999999994</v>
       </c>
       <c r="J62">
-        <v>47.5</v>
+        <v>55.6</v>
       </c>
       <c r="K62">
-        <v>36.9</v>
+        <v>36.700000000000003</v>
       </c>
       <c r="L62">
-        <v>51278.2</v>
+        <v>1057764.3999999999</v>
       </c>
     </row>
     <row r="63" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C63">
-        <v>246.9</v>
+        <v>259.7</v>
       </c>
       <c r="D63">
-        <v>216.5</v>
+        <v>253.1</v>
       </c>
       <c r="E63">
-        <v>251</v>
+        <v>246.1</v>
       </c>
       <c r="F63">
-        <v>2620.1999999999998</v>
+        <v>3730</v>
       </c>
       <c r="I63">
-        <v>33</v>
+        <v>23.1</v>
       </c>
       <c r="J63">
-        <v>59</v>
+        <v>26.4</v>
       </c>
       <c r="K63">
-        <v>44.5</v>
+        <v>38.1</v>
       </c>
       <c r="L63">
-        <v>57439666.700000003</v>
+        <v>1116121.1000000001</v>
       </c>
     </row>
     <row r="64" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C64">
-        <v>242.8</v>
+        <v>243.6</v>
       </c>
       <c r="D64">
-        <v>247.2</v>
+        <v>243.1</v>
       </c>
       <c r="E64">
-        <v>251.3</v>
+        <v>253.5</v>
       </c>
       <c r="F64">
-        <v>135.5</v>
+        <v>3703.1</v>
       </c>
       <c r="I64">
-        <v>41.4</v>
+        <v>27.7</v>
       </c>
       <c r="J64">
-        <v>25.8</v>
+        <v>31.9</v>
       </c>
       <c r="K64">
-        <v>36.6</v>
+        <v>32.4</v>
       </c>
       <c r="L64">
-        <v>51683.5</v>
+        <v>1102578.3</v>
       </c>
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C65">
-        <v>199.2</v>
+        <v>245.3</v>
       </c>
       <c r="D65">
-        <v>247.3</v>
+        <v>241.3</v>
       </c>
       <c r="E65">
-        <v>243.2</v>
+        <v>258.7</v>
       </c>
       <c r="F65">
-        <v>145.69999999999999</v>
+        <v>3712.5</v>
       </c>
       <c r="I65">
-        <v>64.7</v>
+        <v>38</v>
       </c>
       <c r="J65">
-        <v>75.099999999999994</v>
+        <v>34.200000000000003</v>
       </c>
       <c r="K65">
-        <v>24.7</v>
+        <v>31.1</v>
       </c>
       <c r="L65">
-        <v>48902.7</v>
+        <v>1115847.5</v>
       </c>
     </row>
     <row r="66" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C66">
-        <v>238.2</v>
+        <v>247.2</v>
       </c>
       <c r="D66">
-        <v>245.7</v>
+        <v>238.9</v>
       </c>
       <c r="E66">
-        <v>244.1</v>
+        <v>246.7</v>
       </c>
       <c r="F66">
-        <v>152.9</v>
+        <v>3760.1</v>
       </c>
       <c r="I66">
-        <v>12.7</v>
+        <v>17.600000000000001</v>
       </c>
       <c r="J66">
-        <v>42</v>
+        <v>62.8</v>
       </c>
       <c r="K66">
-        <v>16.600000000000001</v>
+        <v>33.1</v>
       </c>
       <c r="L66">
-        <v>48146.400000000001</v>
+        <v>1123607.3999999999</v>
       </c>
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C67">
-        <v>239.8</v>
+        <v>252.1</v>
       </c>
       <c r="D67">
-        <v>242.2</v>
+        <v>250.5</v>
       </c>
       <c r="E67">
-        <v>249.9</v>
+        <v>252.8</v>
       </c>
       <c r="F67">
-        <v>125</v>
+        <v>3793.8</v>
       </c>
       <c r="I67">
-        <v>15.4</v>
+        <v>50.3</v>
       </c>
       <c r="J67">
-        <v>102</v>
+        <v>53.5</v>
       </c>
       <c r="K67">
-        <v>46.4</v>
+        <v>43.6</v>
       </c>
       <c r="L67">
-        <v>53323.5</v>
+        <v>1131779.3999999999</v>
       </c>
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C68">
-        <v>249.3</v>
+        <v>236.7</v>
       </c>
       <c r="D68">
-        <v>252.2</v>
+        <v>243.8</v>
       </c>
       <c r="E68">
-        <v>248.5</v>
+        <v>241.7</v>
       </c>
       <c r="F68">
-        <v>131</v>
+        <v>3739.7</v>
       </c>
       <c r="I68">
-        <v>14.4</v>
+        <v>47.7</v>
       </c>
       <c r="J68">
-        <v>32.5</v>
+        <v>55.4</v>
       </c>
       <c r="K68">
-        <v>22.4</v>
+        <v>50.7</v>
       </c>
       <c r="L68">
-        <v>50532.2</v>
+        <v>1121906</v>
       </c>
     </row>
     <row r="69" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C69">
-        <v>254.4</v>
+        <v>248.8</v>
       </c>
       <c r="D69">
-        <v>243.7</v>
+        <v>242.9</v>
       </c>
       <c r="E69">
-        <v>254.3</v>
+        <v>246</v>
       </c>
       <c r="F69">
-        <v>118.6</v>
+        <v>3699.6</v>
       </c>
       <c r="I69">
-        <v>20.8</v>
+        <v>36</v>
       </c>
       <c r="J69">
-        <v>42</v>
+        <v>45.5</v>
       </c>
       <c r="K69">
-        <v>49.3</v>
+        <v>38.9</v>
       </c>
       <c r="L69">
-        <v>55435.1</v>
+        <v>1112832.2</v>
       </c>
     </row>
     <row r="70" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C70">
-        <v>237.5</v>
+        <v>243.6</v>
       </c>
       <c r="D70">
-        <v>248.2</v>
+        <v>236.8</v>
       </c>
       <c r="E70">
-        <v>245.3</v>
+        <v>259.8</v>
       </c>
       <c r="F70">
-        <v>179.6</v>
+        <v>3707.1</v>
       </c>
       <c r="I70">
-        <v>21.3</v>
+        <v>15</v>
       </c>
       <c r="J70">
-        <v>20.100000000000001</v>
+        <v>8.1</v>
       </c>
       <c r="K70">
-        <v>16.7</v>
+        <v>44</v>
       </c>
       <c r="L70">
-        <v>42829.3</v>
+        <v>1089940.3999999999</v>
       </c>
     </row>
     <row r="71" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C71">
-        <v>243.4</v>
+        <v>239</v>
       </c>
       <c r="D71">
-        <v>253.7</v>
+        <v>253.1</v>
       </c>
       <c r="E71">
-        <v>243.5</v>
+        <v>253.1</v>
       </c>
       <c r="F71">
-        <v>145.30000000000001</v>
+        <v>3685.9</v>
       </c>
       <c r="I71">
-        <v>19.5</v>
+        <v>24.9</v>
       </c>
       <c r="J71">
-        <v>17.100000000000001</v>
+        <v>25.4</v>
       </c>
       <c r="K71">
-        <v>49.2</v>
+        <v>69.2</v>
       </c>
       <c r="L71">
-        <v>50654</v>
+        <v>1097814.8</v>
       </c>
     </row>
     <row r="72" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C72">
-        <v>234.5</v>
+        <v>241.5</v>
       </c>
       <c r="D72">
-        <v>251.5</v>
+        <v>255.7</v>
       </c>
       <c r="E72">
-        <v>251.4</v>
+        <v>243.9</v>
       </c>
       <c r="F72">
-        <v>2571.3000000000002</v>
+        <v>3711.5</v>
       </c>
       <c r="I72">
-        <v>11</v>
+        <v>36.1</v>
       </c>
       <c r="J72">
-        <v>57.2</v>
+        <v>22.4</v>
       </c>
       <c r="K72">
-        <v>51.7</v>
+        <v>22.6</v>
       </c>
       <c r="L72">
-        <v>49193238.600000001</v>
+        <v>1108403.5</v>
       </c>
     </row>
     <row r="73" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C73">
-        <v>247.7</v>
+        <v>240.3</v>
       </c>
       <c r="D73">
-        <v>253.1</v>
+        <v>249.5</v>
       </c>
       <c r="E73">
-        <v>241.9</v>
+        <v>248</v>
       </c>
       <c r="F73">
-        <v>125.5</v>
+        <v>3413.3</v>
       </c>
       <c r="I73">
-        <v>16.2</v>
+        <v>26.2</v>
       </c>
       <c r="J73">
-        <v>41.9</v>
+        <v>33</v>
       </c>
       <c r="K73">
-        <v>50.8</v>
+        <v>23.6</v>
       </c>
       <c r="L73">
-        <v>49937.7</v>
+        <v>910804.6</v>
       </c>
     </row>
     <row r="74" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C74">
-        <v>234</v>
+        <v>240.8</v>
       </c>
       <c r="D74">
-        <v>250.5</v>
+        <v>249.1</v>
       </c>
       <c r="E74">
-        <v>247.4</v>
+        <v>254.3</v>
       </c>
       <c r="F74">
-        <v>116.8</v>
+        <v>3384</v>
       </c>
       <c r="I74">
-        <v>25.1</v>
+        <v>28.7</v>
       </c>
       <c r="J74">
-        <v>33.5</v>
+        <v>52.8</v>
       </c>
       <c r="K74">
-        <v>69.3</v>
+        <v>25.3</v>
       </c>
       <c r="L74">
-        <v>51425.599999999999</v>
+        <v>898288.9</v>
       </c>
     </row>
     <row r="75" spans="1:12" x14ac:dyDescent="0.25">
@@ -2756,38 +2702,38 @@
       </c>
       <c r="C75">
         <f>AVERAGE(C45:C74)</f>
-        <v>245.59333333333331</v>
+        <v>244.42666666666673</v>
       </c>
       <c r="D75">
         <f t="shared" ref="D75" si="6">AVERAGE(D45:D74)</f>
-        <v>245.33666666666662</v>
+        <v>248.69666666666669</v>
       </c>
       <c r="E75">
         <f t="shared" ref="E75" si="7">AVERAGE(E45:E74)</f>
-        <v>248.69666666666663</v>
+        <v>248.46999999999997</v>
       </c>
       <c r="F75">
         <f t="shared" ref="F75" si="8">AVERAGE(F45:F74)</f>
-        <v>630.29000000000008</v>
+        <v>3662.53</v>
       </c>
       <c r="H75" t="s">
         <v>12</v>
       </c>
       <c r="I75">
         <f>AVERAGE(I45:I74)</f>
-        <v>31.720000000000002</v>
+        <v>34.43</v>
       </c>
       <c r="J75">
         <f t="shared" ref="J75" si="9">AVERAGE(J45:J74)</f>
-        <v>38.733333333333334</v>
+        <v>32.986666666666657</v>
       </c>
       <c r="K75">
         <f t="shared" ref="K75" si="10">AVERAGE(K45:K74)</f>
-        <v>35.793333333333337</v>
+        <v>39.906666666666659</v>
       </c>
       <c r="L75">
         <f t="shared" ref="L75" si="11">AVERAGE(L45:L74)</f>
-        <v>10726309.073333334</v>
+        <v>1069874.0699999998</v>
       </c>
     </row>
     <row r="76" spans="1:12" x14ac:dyDescent="0.25">
@@ -2796,38 +2742,38 @@
       </c>
       <c r="C76">
         <f>AVEDEV(C45:C74)</f>
-        <v>7.0813333333333377</v>
+        <v>6.4915555555555517</v>
       </c>
       <c r="D76">
         <f t="shared" ref="D76:F76" si="12">AVEDEV(D45:D74)</f>
-        <v>5.5002222222222352</v>
+        <v>5.343333333333331</v>
       </c>
       <c r="E76">
         <f t="shared" si="12"/>
-        <v>4.1302222222222245</v>
+        <v>4.2173333333333289</v>
       </c>
       <c r="F76">
         <f t="shared" si="12"/>
-        <v>783.42400000000043</v>
+        <v>58.201999999999956</v>
       </c>
       <c r="H76" t="s">
         <v>13</v>
       </c>
       <c r="I76">
         <f>AVEDEV(I45:I74)</f>
-        <v>14.436000000000002</v>
+        <v>9.58266666666667</v>
       </c>
       <c r="J76">
         <f t="shared" ref="J76:L76" si="13">AVEDEV(J45:J74)</f>
-        <v>15.233333333333336</v>
+        <v>10.865777777777774</v>
       </c>
       <c r="K76">
         <f t="shared" si="13"/>
-        <v>12.926666666666666</v>
+        <v>14.434666666666669</v>
       </c>
       <c r="L76">
         <f t="shared" si="13"/>
-        <v>17078510.257333335</v>
+        <v>40678.749333333362</v>
       </c>
     </row>
     <row r="78" spans="1:12" x14ac:dyDescent="0.25">
@@ -2876,782 +2822,782 @@
     </row>
     <row r="83" spans="2:12" x14ac:dyDescent="0.25">
       <c r="C83">
-        <v>49.1</v>
+        <v>46.9</v>
       </c>
       <c r="D83">
-        <v>45.3</v>
+        <v>46.8</v>
       </c>
       <c r="E83">
-        <v>46.5</v>
+        <v>42.1</v>
       </c>
       <c r="F83">
-        <v>537.79999999999995</v>
+        <v>967.4</v>
       </c>
       <c r="I83">
-        <v>68.400000000000006</v>
+        <v>113.4</v>
       </c>
       <c r="J83">
-        <v>82.4</v>
+        <v>98.7</v>
       </c>
       <c r="K83">
-        <v>25.9</v>
+        <v>31.3</v>
       </c>
       <c r="L83">
-        <v>9787113.5999999996</v>
+        <v>28778.9</v>
       </c>
     </row>
     <row r="84" spans="2:12" x14ac:dyDescent="0.25">
       <c r="C84">
-        <v>48.3</v>
+        <v>46.4</v>
       </c>
       <c r="D84">
-        <v>49.3</v>
+        <v>47.6</v>
       </c>
       <c r="E84">
-        <v>43.3</v>
+        <v>42.9</v>
       </c>
       <c r="F84">
-        <v>58.8</v>
+        <v>959.2</v>
       </c>
       <c r="I84">
-        <v>126.1</v>
+        <v>61.7</v>
       </c>
       <c r="J84">
-        <v>224.5</v>
+        <v>168.9</v>
       </c>
       <c r="K84">
-        <v>20.3</v>
+        <v>28.3</v>
       </c>
       <c r="L84">
-        <v>13997.4</v>
+        <v>25858.7</v>
       </c>
     </row>
     <row r="85" spans="2:12" x14ac:dyDescent="0.25">
       <c r="C85">
-        <v>45.3</v>
+        <v>51.9</v>
       </c>
       <c r="D85">
-        <v>47.2</v>
+        <v>46</v>
       </c>
       <c r="E85">
-        <v>41.4</v>
+        <v>43.6</v>
       </c>
       <c r="F85">
-        <v>44.7</v>
+        <v>979.7</v>
       </c>
       <c r="I85">
-        <v>86.7</v>
+        <v>539.6</v>
       </c>
       <c r="J85">
-        <v>125.4</v>
+        <v>99</v>
       </c>
       <c r="K85">
-        <v>24.5</v>
+        <v>37.299999999999997</v>
       </c>
       <c r="L85">
-        <v>13291.4</v>
+        <v>25927.8</v>
       </c>
     </row>
     <row r="86" spans="2:12" x14ac:dyDescent="0.25">
       <c r="C86">
-        <v>47.1</v>
+        <v>47.2</v>
       </c>
       <c r="D86">
-        <v>46.7</v>
+        <v>46.4</v>
       </c>
       <c r="E86">
-        <v>40.6</v>
+        <v>40.9</v>
       </c>
       <c r="F86">
-        <v>49</v>
+        <v>984.2</v>
       </c>
       <c r="I86">
-        <v>162</v>
+        <v>150.1</v>
       </c>
       <c r="J86">
-        <v>105.4</v>
+        <v>89.9</v>
       </c>
       <c r="K86">
-        <v>18.7</v>
+        <v>91.3</v>
       </c>
       <c r="L86">
-        <v>13192.3</v>
+        <v>22904.6</v>
       </c>
     </row>
     <row r="87" spans="2:12" x14ac:dyDescent="0.25">
       <c r="C87">
-        <v>46</v>
+        <v>45.2</v>
       </c>
       <c r="D87">
-        <v>48.6</v>
+        <v>48.7</v>
       </c>
       <c r="E87">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F87">
-        <v>42.5</v>
+        <v>957.6</v>
       </c>
       <c r="I87">
-        <v>76.400000000000006</v>
+        <v>125.2</v>
       </c>
       <c r="J87">
-        <v>108.3</v>
+        <v>55.2</v>
       </c>
       <c r="K87">
-        <v>23</v>
+        <v>25.7</v>
       </c>
       <c r="L87">
-        <v>14571</v>
+        <v>23002.2</v>
       </c>
     </row>
     <row r="88" spans="2:12" x14ac:dyDescent="0.25">
       <c r="C88">
-        <v>48.1</v>
+        <v>48.5</v>
       </c>
       <c r="D88">
-        <v>44.9</v>
+        <v>45.6</v>
       </c>
       <c r="E88">
-        <v>42.7</v>
+        <v>41.9</v>
       </c>
       <c r="F88">
-        <v>29.7</v>
+        <v>947</v>
       </c>
       <c r="I88">
-        <v>142.30000000000001</v>
+        <v>309.8</v>
       </c>
       <c r="J88">
-        <v>62.5</v>
+        <v>91.5</v>
       </c>
       <c r="K88">
-        <v>27.8</v>
+        <v>20.100000000000001</v>
       </c>
       <c r="L88">
-        <v>15086.9</v>
+        <v>38682.6</v>
       </c>
     </row>
     <row r="89" spans="2:12" x14ac:dyDescent="0.25">
       <c r="C89">
-        <v>48</v>
+        <v>47.6</v>
       </c>
       <c r="D89">
-        <v>46.8</v>
+        <v>48.8</v>
       </c>
       <c r="E89">
-        <v>43.4</v>
+        <v>41.4</v>
       </c>
       <c r="F89">
-        <v>62.1</v>
+        <v>943</v>
       </c>
       <c r="I89">
-        <v>146.5</v>
+        <v>94.4</v>
       </c>
       <c r="J89">
-        <v>61.5</v>
+        <v>130.9</v>
       </c>
       <c r="K89">
-        <v>20.2</v>
+        <v>23.6</v>
       </c>
       <c r="L89">
-        <v>26172</v>
+        <v>32357.200000000001</v>
       </c>
     </row>
     <row r="90" spans="2:12" x14ac:dyDescent="0.25">
       <c r="C90">
-        <v>45.1</v>
+        <v>49</v>
       </c>
       <c r="D90">
-        <v>48.2</v>
+        <v>46.7</v>
       </c>
       <c r="E90">
-        <v>42.4</v>
+        <v>40</v>
       </c>
       <c r="F90">
-        <v>32</v>
+        <v>909.3</v>
       </c>
       <c r="I90">
-        <v>153.30000000000001</v>
+        <v>112.3</v>
       </c>
       <c r="J90">
-        <v>142</v>
+        <v>84</v>
       </c>
       <c r="K90">
-        <v>22.5</v>
+        <v>19.3</v>
       </c>
       <c r="L90">
-        <v>13314</v>
+        <v>24811.8</v>
       </c>
     </row>
     <row r="91" spans="2:12" x14ac:dyDescent="0.25">
       <c r="C91">
-        <v>45.7</v>
+        <v>45.2</v>
       </c>
       <c r="D91">
-        <v>49.6</v>
+        <v>47.1</v>
       </c>
       <c r="E91">
-        <v>40.5</v>
+        <v>43.3</v>
       </c>
       <c r="F91">
-        <v>57.3</v>
+        <v>929.3</v>
       </c>
       <c r="I91">
-        <v>50.7</v>
+        <v>85.9</v>
       </c>
       <c r="J91">
-        <v>370.2</v>
+        <v>93.3</v>
       </c>
       <c r="K91">
-        <v>23.5</v>
+        <v>36.200000000000003</v>
       </c>
       <c r="L91">
-        <v>12897.2</v>
+        <v>27570.7</v>
       </c>
     </row>
     <row r="92" spans="2:12" x14ac:dyDescent="0.25">
       <c r="C92">
-        <v>49.3</v>
+        <v>47.4</v>
       </c>
       <c r="D92">
-        <v>47.5</v>
+        <v>48.3</v>
       </c>
       <c r="E92">
-        <v>41.1</v>
+        <v>42.4</v>
       </c>
       <c r="F92">
-        <v>37.6</v>
+        <v>956.4</v>
       </c>
       <c r="I92">
-        <v>362.8</v>
+        <v>75.7</v>
       </c>
       <c r="J92">
-        <v>88.5</v>
+        <v>79.400000000000006</v>
       </c>
       <c r="K92">
-        <v>19.899999999999999</v>
+        <v>28.5</v>
       </c>
       <c r="L92">
-        <v>14200</v>
+        <v>29770.2</v>
       </c>
     </row>
     <row r="93" spans="2:12" x14ac:dyDescent="0.25">
       <c r="C93">
-        <v>47.3</v>
+        <v>48.3</v>
       </c>
       <c r="D93">
-        <v>47.6</v>
+        <v>47.2</v>
       </c>
       <c r="E93">
-        <v>42.6</v>
+        <v>40.799999999999997</v>
       </c>
       <c r="F93">
-        <v>41.9</v>
+        <v>967.3</v>
       </c>
       <c r="I93">
-        <v>121.5</v>
+        <v>115.7</v>
       </c>
       <c r="J93">
-        <v>81.3</v>
+        <v>119.7</v>
       </c>
       <c r="K93">
-        <v>42.2</v>
+        <v>18.5</v>
       </c>
       <c r="L93">
-        <v>13875</v>
+        <v>29070.3</v>
       </c>
     </row>
     <row r="94" spans="2:12" x14ac:dyDescent="0.25">
       <c r="C94">
-        <v>46.3</v>
+        <v>45.4</v>
       </c>
       <c r="D94">
-        <v>46.5</v>
+        <v>48.7</v>
       </c>
       <c r="E94">
-        <v>42.7</v>
+        <v>40.4</v>
       </c>
       <c r="F94">
-        <v>45.6</v>
+        <v>962.3</v>
       </c>
       <c r="I94">
-        <v>97.2</v>
+        <v>65.5</v>
       </c>
       <c r="J94">
-        <v>77</v>
+        <v>155.6</v>
       </c>
       <c r="K94">
-        <v>21.8</v>
+        <v>28</v>
       </c>
       <c r="L94">
-        <v>15240.6</v>
+        <v>31687.200000000001</v>
       </c>
     </row>
     <row r="95" spans="2:12" x14ac:dyDescent="0.25">
       <c r="C95">
-        <v>46.3</v>
+        <v>45.9</v>
       </c>
       <c r="D95">
-        <v>50.4</v>
+        <v>46.7</v>
       </c>
       <c r="E95">
-        <v>42.7</v>
+        <v>42.9</v>
       </c>
       <c r="F95">
-        <v>39.9</v>
+        <v>980.5</v>
       </c>
       <c r="I95">
-        <v>115.1</v>
+        <v>203.2</v>
       </c>
       <c r="J95">
-        <v>253.2</v>
+        <v>139.1</v>
       </c>
       <c r="K95">
-        <v>88.2</v>
+        <v>29.2</v>
       </c>
       <c r="L95">
-        <v>13140.8</v>
+        <v>27582.799999999999</v>
       </c>
     </row>
     <row r="96" spans="2:12" x14ac:dyDescent="0.25">
       <c r="C96">
+        <v>46.6</v>
+      </c>
+      <c r="D96">
         <v>47.2</v>
       </c>
-      <c r="D96">
-        <v>44.8</v>
-      </c>
       <c r="E96">
-        <v>42</v>
+        <v>41.9</v>
       </c>
       <c r="F96">
-        <v>56.9</v>
+        <v>949.1</v>
       </c>
       <c r="I96">
-        <v>230.1</v>
+        <v>173.6</v>
       </c>
       <c r="J96">
-        <v>172.8</v>
+        <v>144.5</v>
       </c>
       <c r="K96">
-        <v>17.7</v>
+        <v>25.6</v>
       </c>
       <c r="L96">
-        <v>15151.6</v>
+        <v>29362.1</v>
       </c>
     </row>
     <row r="97" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C97">
-        <v>48.8</v>
+        <v>48.7</v>
       </c>
       <c r="D97">
-        <v>48.6</v>
+        <v>44.9</v>
       </c>
       <c r="E97">
-        <v>43.9</v>
+        <v>41.3</v>
       </c>
       <c r="F97">
-        <v>36.799999999999997</v>
+        <v>952.8</v>
       </c>
       <c r="I97">
-        <v>117.7</v>
+        <v>131.69999999999999</v>
       </c>
       <c r="J97">
-        <v>59.2</v>
+        <v>135.6</v>
       </c>
       <c r="K97">
-        <v>30.3</v>
+        <v>146.80000000000001</v>
       </c>
       <c r="L97">
-        <v>14014.3</v>
+        <v>27222</v>
       </c>
     </row>
     <row r="98" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C98">
-        <v>48.3</v>
+        <v>45.6</v>
       </c>
       <c r="D98">
-        <v>46.4</v>
+        <v>47.3</v>
       </c>
       <c r="E98">
-        <v>44</v>
+        <v>42.4</v>
       </c>
       <c r="F98">
-        <v>32.299999999999997</v>
+        <v>974.5</v>
       </c>
       <c r="I98">
-        <v>95.3</v>
+        <v>60</v>
       </c>
       <c r="J98">
-        <v>75.2</v>
+        <v>93</v>
       </c>
       <c r="K98">
-        <v>25.3</v>
+        <v>28.9</v>
       </c>
       <c r="L98">
-        <v>14712.8</v>
+        <v>34519.300000000003</v>
       </c>
     </row>
     <row r="99" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C99">
-        <v>45.8</v>
+        <v>46.2</v>
       </c>
       <c r="D99">
-        <v>48.9</v>
+        <v>47.2</v>
       </c>
       <c r="E99">
-        <v>43.7</v>
+        <v>41.7</v>
       </c>
       <c r="F99">
-        <v>29.1</v>
+        <v>941</v>
       </c>
       <c r="I99">
-        <v>108</v>
+        <v>94.7</v>
       </c>
       <c r="J99">
-        <v>1000</v>
+        <v>74.8</v>
       </c>
       <c r="K99">
-        <v>20.2</v>
+        <v>38.4</v>
       </c>
       <c r="L99">
-        <v>12813.7</v>
+        <v>35909.300000000003</v>
       </c>
     </row>
     <row r="100" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C100">
-        <v>46.5</v>
+        <v>48.5</v>
       </c>
       <c r="D100">
-        <v>48.7</v>
+        <v>44.6</v>
       </c>
       <c r="E100">
-        <v>40.799999999999997</v>
+        <v>41.4</v>
       </c>
       <c r="F100">
-        <v>158</v>
+        <v>930.8</v>
       </c>
       <c r="I100">
-        <v>56.8</v>
+        <v>75.5</v>
       </c>
       <c r="J100">
-        <v>148.6</v>
+        <v>86.7</v>
       </c>
       <c r="K100">
-        <v>17.5</v>
+        <v>22.2</v>
       </c>
       <c r="L100">
-        <v>538965.6</v>
+        <v>21907.7</v>
       </c>
     </row>
     <row r="101" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C101">
-        <v>48.6</v>
+        <v>46.4</v>
       </c>
       <c r="D101">
-        <v>46.9</v>
+        <v>48.9</v>
       </c>
       <c r="E101">
-        <v>37.4</v>
+        <v>42.5</v>
       </c>
       <c r="F101">
-        <v>71.7</v>
+        <v>936.7</v>
       </c>
       <c r="I101">
-        <v>136.69999999999999</v>
+        <v>124.1</v>
       </c>
       <c r="J101">
-        <v>101.4</v>
+        <v>101.5</v>
       </c>
       <c r="K101">
-        <v>23.1</v>
+        <v>47.1</v>
       </c>
       <c r="L101">
-        <v>15542.4</v>
+        <v>23221.8</v>
       </c>
     </row>
     <row r="102" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C102">
-        <v>46.7</v>
+        <v>47.5</v>
       </c>
       <c r="D102">
-        <v>48.4</v>
+        <v>50</v>
       </c>
       <c r="E102">
-        <v>41.7</v>
+        <v>43.1</v>
       </c>
       <c r="F102">
-        <v>23.4</v>
+        <v>917</v>
       </c>
       <c r="I102">
-        <v>40.5</v>
+        <v>183.1</v>
       </c>
       <c r="J102">
-        <v>165.3</v>
+        <v>190.2</v>
       </c>
       <c r="K102">
-        <v>30.7</v>
+        <v>22.8</v>
       </c>
       <c r="L102">
-        <v>11657.1</v>
+        <v>24472.6</v>
       </c>
     </row>
     <row r="103" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C103">
-        <v>47.5</v>
+        <v>48.3</v>
       </c>
       <c r="D103">
-        <v>48.6</v>
+        <v>46.4</v>
       </c>
       <c r="E103">
-        <v>42.4</v>
+        <v>41.4</v>
       </c>
       <c r="F103">
-        <v>47.7</v>
+        <v>891.7</v>
       </c>
       <c r="I103">
-        <v>1278.5999999999999</v>
+        <v>295.39999999999998</v>
       </c>
       <c r="J103">
-        <v>116.9</v>
+        <v>113.7</v>
       </c>
       <c r="K103">
-        <v>23.8</v>
+        <v>28.4</v>
       </c>
       <c r="L103">
-        <v>14283.1</v>
+        <v>23121.200000000001</v>
       </c>
     </row>
     <row r="104" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C104">
-        <v>50.2</v>
+        <v>45.5</v>
       </c>
       <c r="D104">
-        <v>45.8</v>
+        <v>47.4</v>
       </c>
       <c r="E104">
-        <v>41.3</v>
+        <v>42.2</v>
       </c>
       <c r="F104">
-        <v>39.4</v>
+        <v>917.2</v>
       </c>
       <c r="I104">
-        <v>90.9</v>
+        <v>71</v>
       </c>
       <c r="J104">
-        <v>76.400000000000006</v>
+        <v>86.8</v>
       </c>
       <c r="K104">
-        <v>27.6</v>
+        <v>37.799999999999997</v>
       </c>
       <c r="L104">
-        <v>13695</v>
+        <v>18529.8</v>
       </c>
     </row>
     <row r="105" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C105">
-        <v>49</v>
+        <v>46.2</v>
       </c>
       <c r="D105">
-        <v>50</v>
+        <v>48.7</v>
       </c>
       <c r="E105">
-        <v>45.3</v>
+        <v>42.4</v>
       </c>
       <c r="F105">
-        <v>42.8</v>
+        <v>991.4</v>
       </c>
       <c r="I105">
-        <v>81.599999999999994</v>
+        <v>200.8</v>
       </c>
       <c r="J105">
-        <v>379.2</v>
+        <v>166.2</v>
       </c>
       <c r="K105">
-        <v>27.3</v>
+        <v>27.7</v>
       </c>
       <c r="L105">
-        <v>14436.5</v>
+        <v>34674.400000000001</v>
       </c>
     </row>
     <row r="106" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C106">
-        <v>45.8</v>
+        <v>44.8</v>
       </c>
       <c r="D106">
-        <v>48</v>
+        <v>46.4</v>
       </c>
       <c r="E106">
-        <v>42</v>
+        <v>42.2</v>
       </c>
       <c r="F106">
-        <v>51.5</v>
+        <v>956</v>
       </c>
       <c r="I106">
-        <v>97.2</v>
+        <v>76.599999999999994</v>
       </c>
       <c r="J106">
-        <v>1552.2</v>
+        <v>103.6</v>
       </c>
       <c r="K106">
-        <v>29.1</v>
+        <v>35.9</v>
       </c>
       <c r="L106">
-        <v>13871</v>
+        <v>23814.5</v>
       </c>
     </row>
     <row r="107" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C107">
-        <v>49.5</v>
+        <v>49.3</v>
       </c>
       <c r="D107">
-        <v>48.3</v>
+        <v>45</v>
       </c>
       <c r="E107">
-        <v>42.7</v>
+        <v>40.299999999999997</v>
       </c>
       <c r="F107">
-        <v>58.5</v>
+        <v>947.6</v>
       </c>
       <c r="I107">
-        <v>95.3</v>
+        <v>58.2</v>
       </c>
       <c r="J107">
-        <v>177.6</v>
+        <v>262.60000000000002</v>
       </c>
       <c r="K107">
-        <v>25.3</v>
+        <v>23.1</v>
       </c>
       <c r="L107">
-        <v>15221</v>
+        <v>25296.7</v>
       </c>
     </row>
     <row r="108" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C108">
-        <v>46.3</v>
+        <v>50.4</v>
       </c>
       <c r="D108">
-        <v>48</v>
+        <v>47.6</v>
       </c>
       <c r="E108">
-        <v>41.5</v>
+        <v>41.9</v>
       </c>
       <c r="F108">
-        <v>34.4</v>
+        <v>957.8</v>
       </c>
       <c r="I108">
-        <v>109.7</v>
+        <v>212.6</v>
       </c>
       <c r="J108">
-        <v>87.3</v>
+        <v>130.80000000000001</v>
       </c>
       <c r="K108">
-        <v>22.2</v>
+        <v>26.1</v>
       </c>
       <c r="L108">
-        <v>12991.7</v>
+        <v>28769.3</v>
       </c>
     </row>
     <row r="109" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C109">
-        <v>49.4</v>
+        <v>45.5</v>
       </c>
       <c r="D109">
-        <v>49.1</v>
+        <v>49.6</v>
       </c>
       <c r="E109">
-        <v>42.6</v>
+        <v>43.6</v>
       </c>
       <c r="F109">
-        <v>35.5</v>
+        <v>925.6</v>
       </c>
       <c r="I109">
-        <v>163.5</v>
+        <v>53.2</v>
       </c>
       <c r="J109">
-        <v>174.2</v>
+        <v>126.5</v>
       </c>
       <c r="K109">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="L109">
-        <v>13210.8</v>
+        <v>28101.599999999999</v>
       </c>
     </row>
     <row r="110" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C110">
-        <v>48.1</v>
+        <v>49.3</v>
       </c>
       <c r="D110">
-        <v>48.2</v>
+        <v>46.4</v>
       </c>
       <c r="E110">
-        <v>42.9</v>
+        <v>41</v>
       </c>
       <c r="F110">
-        <v>59.5</v>
+        <v>942.9</v>
       </c>
       <c r="I110">
-        <v>114.3</v>
+        <v>121.2</v>
       </c>
       <c r="J110">
-        <v>186.8</v>
+        <v>129.80000000000001</v>
       </c>
       <c r="K110">
-        <v>17.399999999999999</v>
+        <v>35.6</v>
       </c>
       <c r="L110">
-        <v>17636.400000000001</v>
+        <v>29140.400000000001</v>
       </c>
     </row>
     <row r="111" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C111">
-        <v>48.1</v>
+        <v>46.7</v>
       </c>
       <c r="D111">
-        <v>47</v>
+        <v>49.3</v>
       </c>
       <c r="E111">
-        <v>44.6</v>
+        <v>40.5</v>
       </c>
       <c r="F111">
-        <v>54.4</v>
+        <v>936.4</v>
       </c>
       <c r="I111">
-        <v>156.30000000000001</v>
+        <v>120.5</v>
       </c>
       <c r="J111">
-        <v>104.9</v>
+        <v>382.6</v>
       </c>
       <c r="K111">
-        <v>23.4</v>
+        <v>25.1</v>
       </c>
       <c r="L111">
-        <v>15798.7</v>
+        <v>30797.9</v>
       </c>
     </row>
     <row r="112" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C112">
-        <v>48.5</v>
+        <v>46.1</v>
       </c>
       <c r="D112">
-        <v>48.6</v>
+        <v>47.3</v>
       </c>
       <c r="E112">
-        <v>44.9</v>
+        <v>42.1</v>
       </c>
       <c r="F112">
-        <v>81.599999999999994</v>
+        <v>934.6</v>
       </c>
       <c r="I112">
-        <v>131.5</v>
+        <v>179.9</v>
       </c>
       <c r="J112">
-        <v>621</v>
+        <v>124.6</v>
       </c>
       <c r="K112">
-        <v>28.4</v>
+        <v>30.2</v>
       </c>
       <c r="L112">
-        <v>15886.2</v>
+        <v>25804.799999999999</v>
       </c>
     </row>
     <row r="113" spans="1:12" x14ac:dyDescent="0.25">
@@ -3660,38 +3606,38 @@
       </c>
       <c r="C113">
         <f>AVERAGE(C83:C112)</f>
-        <v>47.539999999999985</v>
+        <v>47.216666666666661</v>
       </c>
       <c r="D113">
         <f t="shared" ref="D113" si="14">AVERAGE(D83:D112)</f>
-        <v>47.763333333333328</v>
+        <v>47.293333333333337</v>
       </c>
       <c r="E113">
         <f t="shared" ref="E113" si="15">AVERAGE(E83:E112)</f>
-        <v>42.553333333333327</v>
+        <v>41.883333333333333</v>
       </c>
       <c r="F113">
         <f t="shared" ref="F113" si="16">AVERAGE(F83:F112)</f>
-        <v>66.413333333333341</v>
+        <v>948.20999999999992</v>
       </c>
       <c r="H113" t="s">
         <v>12</v>
       </c>
       <c r="I113">
         <f>AVERAGE(I83:I112)</f>
-        <v>160.43333333333334</v>
+        <v>142.81999999999996</v>
       </c>
       <c r="J113">
         <f t="shared" ref="J113" si="17">AVERAGE(J83:J112)</f>
-        <v>232.70666666666665</v>
+        <v>128.62333333333331</v>
       </c>
       <c r="K113">
         <f t="shared" ref="K113" si="18">AVERAGE(K83:K112)</f>
-        <v>26.226666666666667</v>
+        <v>34.833333333333336</v>
       </c>
       <c r="L113">
         <f t="shared" ref="L113" si="19">AVERAGE(L83:L112)</f>
-        <v>357866.0033333333</v>
+        <v>27755.68</v>
       </c>
     </row>
     <row r="114" spans="1:12" x14ac:dyDescent="0.25">
@@ -3700,38 +3646,38 @@
       </c>
       <c r="C114">
         <f>AVEDEV(C83:C112)</f>
-        <v>1.2133333333333336</v>
+        <v>1.3922222222222207</v>
       </c>
       <c r="D114">
         <f t="shared" ref="D114:F114" si="20">AVEDEV(D83:D112)</f>
-        <v>1.1682222222222234</v>
+        <v>1.0728888888888888</v>
       </c>
       <c r="E114">
         <f t="shared" si="20"/>
-        <v>1.2062222222222234</v>
+        <v>0.76666666666666716</v>
       </c>
       <c r="F114">
         <f t="shared" si="20"/>
-        <v>38.896444444444455</v>
+        <v>18.20333333333333</v>
       </c>
       <c r="H114" t="s">
         <v>13</v>
       </c>
       <c r="I114">
         <f>AVEDEV(I83:I112)</f>
-        <v>92.988888888888866</v>
+        <v>67.993333333333311</v>
       </c>
       <c r="J114">
         <f t="shared" ref="J114:L114" si="21">AVEDEV(J83:J112)</f>
-        <v>185.30400000000003</v>
+        <v>39.554666666666662</v>
       </c>
       <c r="K114">
         <f t="shared" si="21"/>
-        <v>6.3706666666666667</v>
+        <v>12.860000000000001</v>
       </c>
       <c r="L114">
         <f t="shared" si="21"/>
-        <v>640689.81288888899</v>
+        <v>3536.0786666666672</v>
       </c>
     </row>
     <row r="116" spans="1:12" x14ac:dyDescent="0.25">
@@ -3780,782 +3726,782 @@
     </row>
     <row r="121" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C121">
-        <v>18.899999999999999</v>
+        <v>23.8</v>
       </c>
       <c r="D121">
-        <v>22.7</v>
+        <v>24.2</v>
       </c>
       <c r="E121">
-        <v>17.600000000000001</v>
+        <v>18.3</v>
       </c>
       <c r="F121">
-        <v>34.1</v>
+        <v>469.2</v>
       </c>
       <c r="I121">
-        <v>33.6</v>
+        <v>253</v>
       </c>
       <c r="J121">
-        <v>102</v>
+        <v>96.5</v>
       </c>
       <c r="K121">
-        <v>13.9</v>
+        <v>21.3</v>
       </c>
       <c r="L121">
-        <v>6100.4</v>
+        <v>29741.5</v>
       </c>
     </row>
     <row r="122" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C122">
-        <v>23.6</v>
+        <v>21.2</v>
       </c>
       <c r="D122">
-        <v>22.6</v>
+        <v>19.600000000000001</v>
       </c>
       <c r="E122">
-        <v>16.2</v>
+        <v>17.399999999999999</v>
       </c>
       <c r="F122">
-        <v>23</v>
+        <v>496</v>
       </c>
       <c r="I122">
-        <v>23</v>
+        <v>98.5</v>
       </c>
       <c r="J122">
-        <v>18</v>
+        <v>23.1</v>
       </c>
       <c r="K122">
-        <v>180.9</v>
+        <v>18.7</v>
       </c>
       <c r="L122">
-        <v>5375.2</v>
+        <v>44525.4</v>
       </c>
     </row>
     <row r="123" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C123">
-        <v>26.7</v>
+        <v>22.6</v>
       </c>
       <c r="D123">
-        <v>22</v>
+        <v>31.6</v>
       </c>
       <c r="E123">
-        <v>17.8</v>
+        <v>18</v>
       </c>
       <c r="F123">
-        <v>33.6</v>
+        <v>501.5</v>
       </c>
       <c r="I123">
-        <v>321.5</v>
+        <v>21.7</v>
       </c>
       <c r="J123">
-        <v>132.69999999999999</v>
+        <v>722.6</v>
       </c>
       <c r="K123">
-        <v>207.8</v>
+        <v>765.4</v>
       </c>
       <c r="L123">
-        <v>6406.4</v>
+        <v>49223.8</v>
       </c>
     </row>
     <row r="124" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C124">
-        <v>24.3</v>
+        <v>23</v>
       </c>
       <c r="D124">
-        <v>20.100000000000001</v>
+        <v>28.1</v>
       </c>
       <c r="E124">
-        <v>17.5</v>
+        <v>15.5</v>
       </c>
       <c r="F124">
-        <v>24.2</v>
+        <v>508.5</v>
       </c>
       <c r="I124">
-        <v>252.1</v>
+        <v>19.8</v>
       </c>
       <c r="J124">
-        <v>26.8</v>
+        <v>289.2</v>
       </c>
       <c r="K124">
-        <v>42.7</v>
+        <v>290</v>
       </c>
       <c r="L124">
-        <v>8573.4</v>
+        <v>60583</v>
       </c>
     </row>
     <row r="125" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C125">
-        <v>22.9</v>
+        <v>28.2</v>
       </c>
       <c r="D125">
-        <v>21.2</v>
+        <v>29</v>
       </c>
       <c r="E125">
-        <v>16.899999999999999</v>
+        <v>18.100000000000001</v>
       </c>
       <c r="F125">
-        <v>43.3</v>
+        <v>515.4</v>
       </c>
       <c r="I125">
-        <v>255.8</v>
+        <v>188.9</v>
       </c>
       <c r="J125">
-        <v>17.8</v>
+        <v>290.39999999999998</v>
       </c>
       <c r="K125">
-        <v>26.6</v>
+        <v>342.3</v>
       </c>
       <c r="L125">
-        <v>5901.7</v>
+        <v>55383.6</v>
       </c>
     </row>
     <row r="126" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C126">
-        <v>21.8</v>
+        <v>23</v>
       </c>
       <c r="D126">
-        <v>21.6</v>
+        <v>23.8</v>
       </c>
       <c r="E126">
-        <v>15.9</v>
+        <v>17</v>
       </c>
       <c r="F126">
-        <v>204.7</v>
+        <v>520.79999999999995</v>
       </c>
       <c r="I126">
-        <v>72.3</v>
+        <v>25.7</v>
       </c>
       <c r="J126">
-        <v>26.4</v>
+        <v>16.399999999999999</v>
       </c>
       <c r="K126">
-        <v>13.2</v>
+        <v>792.3</v>
       </c>
       <c r="L126">
-        <v>2655647</v>
+        <v>44332.3</v>
       </c>
     </row>
     <row r="127" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C127">
-        <v>24.9</v>
+        <v>23.3</v>
       </c>
       <c r="D127">
-        <v>19.399999999999999</v>
+        <v>23.4</v>
       </c>
       <c r="E127">
-        <v>17</v>
+        <v>17.2</v>
       </c>
       <c r="F127">
-        <v>36.4</v>
+        <v>486.6</v>
       </c>
       <c r="I127">
-        <v>30.7</v>
+        <v>34.1</v>
       </c>
       <c r="J127">
-        <v>137.30000000000001</v>
+        <v>22.2</v>
       </c>
       <c r="K127">
-        <v>21.6</v>
+        <v>561.5</v>
       </c>
       <c r="L127">
-        <v>5579.7</v>
+        <v>43663.3</v>
       </c>
     </row>
     <row r="128" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C128">
-        <v>33.1</v>
+        <v>27.3</v>
       </c>
       <c r="D128">
-        <v>20.9</v>
+        <v>23.3</v>
       </c>
       <c r="E128">
-        <v>17.399999999999999</v>
+        <v>19.2</v>
       </c>
       <c r="F128">
-        <v>28.7</v>
+        <v>523.29999999999995</v>
       </c>
       <c r="I128">
-        <v>459.9</v>
+        <v>199.2</v>
       </c>
       <c r="J128">
-        <v>144.19999999999999</v>
+        <v>345.7</v>
       </c>
       <c r="K128">
-        <v>17</v>
+        <v>843.1</v>
       </c>
       <c r="L128">
-        <v>4915.5</v>
+        <v>53082.6</v>
       </c>
     </row>
     <row r="129" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C129">
-        <v>24</v>
+        <v>21.6</v>
       </c>
       <c r="D129">
-        <v>28</v>
+        <v>23.6</v>
       </c>
       <c r="E129">
-        <v>17.7</v>
+        <v>16.7</v>
       </c>
       <c r="F129">
-        <v>23.8</v>
+        <v>489.1</v>
       </c>
       <c r="I129">
-        <v>173.1</v>
+        <v>22</v>
       </c>
       <c r="J129">
-        <v>229.1</v>
+        <v>66.2</v>
       </c>
       <c r="K129">
-        <v>58.9</v>
+        <v>429.4</v>
       </c>
       <c r="L129">
-        <v>5545.6</v>
+        <v>31547.7</v>
       </c>
     </row>
     <row r="130" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C130">
-        <v>23.7</v>
+        <v>27.1</v>
       </c>
       <c r="D130">
-        <v>21.7</v>
+        <v>22.9</v>
       </c>
       <c r="E130">
-        <v>15.6</v>
+        <v>18.399999999999999</v>
       </c>
       <c r="F130">
-        <v>16.7</v>
+        <v>529.9</v>
       </c>
       <c r="I130">
-        <v>25.9</v>
+        <v>426.3</v>
       </c>
       <c r="J130">
-        <v>40.5</v>
+        <v>123.9</v>
       </c>
       <c r="K130">
-        <v>19.8</v>
+        <v>19.2</v>
       </c>
       <c r="L130">
-        <v>4375.8999999999996</v>
+        <v>56276.4</v>
       </c>
     </row>
     <row r="131" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C131">
-        <v>31.6</v>
+        <v>23.8</v>
       </c>
       <c r="D131">
-        <v>21.9</v>
+        <v>22.9</v>
       </c>
       <c r="E131">
-        <v>16.5</v>
+        <v>16.600000000000001</v>
       </c>
       <c r="F131">
-        <v>44.8</v>
+        <v>498</v>
       </c>
       <c r="I131">
-        <v>774</v>
+        <v>164.1</v>
       </c>
       <c r="J131">
-        <v>306.3</v>
+        <v>25</v>
       </c>
       <c r="K131">
-        <v>529.6</v>
+        <v>576.29999999999995</v>
       </c>
       <c r="L131">
-        <v>8066.2</v>
+        <v>36934</v>
       </c>
     </row>
     <row r="132" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C132">
-        <v>23.5</v>
+        <v>24.2</v>
       </c>
       <c r="D132">
-        <v>23.3</v>
+        <v>19.3</v>
       </c>
       <c r="E132">
-        <v>18.100000000000001</v>
+        <v>17.899999999999999</v>
       </c>
       <c r="F132">
-        <v>25.6</v>
+        <v>501.4</v>
       </c>
       <c r="I132">
-        <v>276.7</v>
+        <v>139.9</v>
       </c>
       <c r="J132">
-        <v>57.1</v>
+        <v>44.4</v>
       </c>
       <c r="K132">
-        <v>156.19999999999999</v>
+        <v>306.10000000000002</v>
       </c>
       <c r="L132">
-        <v>5431.8</v>
+        <v>39525.1</v>
       </c>
     </row>
     <row r="133" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C133">
-        <v>28.9</v>
+        <v>23.4</v>
       </c>
       <c r="D133">
-        <v>26.3</v>
+        <v>28.5</v>
       </c>
       <c r="E133">
-        <v>22.2</v>
+        <v>17.899999999999999</v>
       </c>
       <c r="F133">
-        <v>32.1</v>
+        <v>507.1</v>
       </c>
       <c r="I133">
-        <v>344.7</v>
+        <v>28.6</v>
       </c>
       <c r="J133">
-        <v>377.2</v>
+        <v>183.9</v>
       </c>
       <c r="K133">
-        <v>248.9</v>
+        <v>257.8</v>
       </c>
       <c r="L133">
-        <v>6240.3</v>
+        <v>49753.2</v>
       </c>
     </row>
     <row r="134" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C134">
-        <v>22.5</v>
+        <v>26.5</v>
       </c>
       <c r="D134">
-        <v>28.6</v>
+        <v>24.9</v>
       </c>
       <c r="E134">
-        <v>18.2</v>
+        <v>17.8</v>
       </c>
       <c r="F134">
-        <v>34</v>
+        <v>518.5</v>
       </c>
       <c r="I134">
-        <v>176.9</v>
+        <v>268.10000000000002</v>
       </c>
       <c r="J134">
-        <v>421.8</v>
+        <v>88.1</v>
       </c>
       <c r="K134">
-        <v>92.5</v>
+        <v>681.1</v>
       </c>
       <c r="L134">
-        <v>5726.9</v>
+        <v>48212.2</v>
       </c>
     </row>
     <row r="135" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C135">
-        <v>31.6</v>
+        <v>25</v>
       </c>
       <c r="D135">
-        <v>22.6</v>
+        <v>23.6</v>
       </c>
       <c r="E135">
-        <v>17.8</v>
+        <v>13.8</v>
       </c>
       <c r="F135">
-        <v>226.7</v>
+        <v>512.5</v>
       </c>
       <c r="I135">
-        <v>540.70000000000005</v>
+        <v>543.9</v>
       </c>
       <c r="J135">
-        <v>120</v>
+        <v>94.4</v>
       </c>
       <c r="K135">
-        <v>108.6</v>
+        <v>57.9</v>
       </c>
       <c r="L135">
-        <v>4353696.9000000004</v>
+        <v>65056.4</v>
       </c>
     </row>
     <row r="136" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C136">
-        <v>23</v>
+        <v>27.9</v>
       </c>
       <c r="D136">
-        <v>28.1</v>
+        <v>22.5</v>
       </c>
       <c r="E136">
-        <v>17.399999999999999</v>
+        <v>19.399999999999999</v>
       </c>
       <c r="F136">
-        <v>21.9</v>
+        <v>535.20000000000005</v>
       </c>
       <c r="I136">
-        <v>116.4</v>
+        <v>245.2</v>
       </c>
       <c r="J136">
-        <v>394.3</v>
+        <v>207.8</v>
       </c>
       <c r="K136">
-        <v>91</v>
+        <v>1220.0999999999999</v>
       </c>
       <c r="L136">
-        <v>5320.5</v>
+        <v>60287.3</v>
       </c>
     </row>
     <row r="137" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C137">
-        <v>23.2</v>
+        <v>23.4</v>
       </c>
       <c r="D137">
-        <v>22.8</v>
+        <v>23.1</v>
       </c>
       <c r="E137">
-        <v>18</v>
+        <v>17.7</v>
       </c>
       <c r="F137">
-        <v>51.5</v>
+        <v>470.2</v>
       </c>
       <c r="I137">
-        <v>22.8</v>
+        <v>15</v>
       </c>
       <c r="J137">
-        <v>89.9</v>
+        <v>18.399999999999999</v>
       </c>
       <c r="K137">
-        <v>17.7</v>
+        <v>309.8</v>
       </c>
       <c r="L137">
-        <v>10865.2</v>
+        <v>28973.5</v>
       </c>
     </row>
     <row r="138" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C138">
-        <v>20.3</v>
+        <v>22.3</v>
       </c>
       <c r="D138">
-        <v>27.5</v>
+        <v>30</v>
       </c>
       <c r="E138">
-        <v>18.3</v>
+        <v>18.399999999999999</v>
       </c>
       <c r="F138">
-        <v>11.3</v>
+        <v>495.2</v>
       </c>
       <c r="I138">
-        <v>63</v>
+        <v>25.3</v>
       </c>
       <c r="J138">
-        <v>236.2</v>
+        <v>307.5</v>
       </c>
       <c r="K138">
-        <v>20.8</v>
+        <v>16.3</v>
       </c>
       <c r="L138">
-        <v>4381.8</v>
+        <v>31568.6</v>
       </c>
     </row>
     <row r="139" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C139">
-        <v>39.200000000000003</v>
+        <v>27</v>
       </c>
       <c r="D139">
-        <v>22</v>
+        <v>22.9</v>
       </c>
       <c r="E139">
-        <v>17.8</v>
+        <v>15.3</v>
       </c>
       <c r="F139">
-        <v>46.6</v>
+        <v>497.6</v>
       </c>
       <c r="I139">
-        <v>1849.5</v>
+        <v>245</v>
       </c>
       <c r="J139">
-        <v>132.69999999999999</v>
+        <v>92.6</v>
       </c>
       <c r="K139">
-        <v>16.399999999999999</v>
+        <v>430.7</v>
       </c>
       <c r="L139">
-        <v>8000</v>
+        <v>57679.6</v>
       </c>
     </row>
     <row r="140" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C140">
+        <v>22.4</v>
+      </c>
+      <c r="D140">
         <v>23.6</v>
       </c>
-      <c r="D140">
+      <c r="E140">
+        <v>16.399999999999999</v>
+      </c>
+      <c r="F140">
+        <v>476.8</v>
+      </c>
+      <c r="I140">
+        <v>29.3</v>
+      </c>
+      <c r="J140">
         <v>24</v>
       </c>
-      <c r="E140">
-        <v>17.600000000000001</v>
-      </c>
-      <c r="F140">
-        <v>34.299999999999997</v>
-      </c>
-      <c r="I140">
-        <v>201.6</v>
-      </c>
-      <c r="J140">
-        <v>153.80000000000001</v>
-      </c>
       <c r="K140">
-        <v>16.8</v>
+        <v>586.4</v>
       </c>
       <c r="L140">
-        <v>5799.6</v>
+        <v>33930</v>
       </c>
     </row>
     <row r="141" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C141">
-        <v>29.4</v>
+        <v>24.4</v>
       </c>
       <c r="D141">
-        <v>23.5</v>
+        <v>36.799999999999997</v>
       </c>
       <c r="E141">
-        <v>22.4</v>
+        <v>18.2</v>
       </c>
       <c r="F141">
-        <v>28.2</v>
+        <v>533.70000000000005</v>
       </c>
       <c r="I141">
-        <v>1443</v>
+        <v>27.2</v>
       </c>
       <c r="J141">
-        <v>135.19999999999999</v>
+        <v>949.8</v>
       </c>
       <c r="K141">
-        <v>193.9</v>
+        <v>20.399999999999999</v>
       </c>
       <c r="L141">
-        <v>5236.3</v>
+        <v>44473.5</v>
       </c>
     </row>
     <row r="142" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C142">
-        <v>23.5</v>
+        <v>28.5</v>
       </c>
       <c r="D142">
-        <v>23.5</v>
+        <v>23.1</v>
       </c>
       <c r="E142">
-        <v>18.5</v>
+        <v>18.399999999999999</v>
       </c>
       <c r="F142">
-        <v>28.8</v>
+        <v>500.5</v>
       </c>
       <c r="I142">
-        <v>30.3</v>
+        <v>244.1</v>
       </c>
       <c r="J142">
-        <v>20</v>
+        <v>18.8</v>
       </c>
       <c r="K142">
-        <v>22</v>
+        <v>602.5</v>
       </c>
       <c r="L142">
-        <v>6228.6</v>
+        <v>39018.5</v>
       </c>
     </row>
     <row r="143" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C143">
-        <v>23</v>
+        <v>23.3</v>
       </c>
       <c r="D143">
-        <v>29.6</v>
+        <v>21.4</v>
       </c>
       <c r="E143">
-        <v>16</v>
+        <v>17.600000000000001</v>
       </c>
       <c r="F143">
-        <v>37.9</v>
+        <v>514.79999999999995</v>
       </c>
       <c r="I143">
-        <v>24.3</v>
+        <v>221.3</v>
       </c>
       <c r="J143">
-        <v>444.9</v>
+        <v>158.80000000000001</v>
       </c>
       <c r="K143">
-        <v>324.89999999999998</v>
+        <v>436</v>
       </c>
       <c r="L143">
-        <v>7524.4</v>
+        <v>68153.600000000006</v>
       </c>
     </row>
     <row r="144" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C144">
-        <v>31</v>
+        <v>31.1</v>
       </c>
       <c r="D144">
         <v>23.5</v>
       </c>
       <c r="E144">
-        <v>14.7</v>
+        <v>23.9</v>
       </c>
       <c r="F144">
-        <v>27.9</v>
+        <v>504.4</v>
       </c>
       <c r="I144">
-        <v>580.20000000000005</v>
+        <v>883.5</v>
       </c>
       <c r="J144">
-        <v>103.9</v>
+        <v>137.80000000000001</v>
       </c>
       <c r="K144">
-        <v>591.4</v>
+        <v>1015</v>
       </c>
       <c r="L144">
-        <v>13184.5</v>
+        <v>36137.9</v>
       </c>
     </row>
     <row r="145" spans="2:12" x14ac:dyDescent="0.25">
       <c r="C145">
-        <v>24.1</v>
+        <v>24.2</v>
       </c>
       <c r="D145">
-        <v>24.3</v>
+        <v>27</v>
       </c>
       <c r="E145">
-        <v>17.5</v>
+        <v>17.399999999999999</v>
       </c>
       <c r="F145">
-        <v>32.1</v>
+        <v>506.2</v>
       </c>
       <c r="I145">
-        <v>371.2</v>
+        <v>174.5</v>
       </c>
       <c r="J145">
-        <v>437.9</v>
+        <v>220.8</v>
       </c>
       <c r="K145">
-        <v>633.4</v>
+        <v>729.9</v>
       </c>
       <c r="L145">
-        <v>5608.3</v>
+        <v>46931.6</v>
       </c>
     </row>
     <row r="146" spans="2:12" x14ac:dyDescent="0.25">
       <c r="C146">
-        <v>21.5</v>
+        <v>28.9</v>
       </c>
       <c r="D146">
-        <v>30.5</v>
+        <v>24.8</v>
       </c>
       <c r="E146">
-        <v>18.600000000000001</v>
+        <v>15.9</v>
       </c>
       <c r="F146">
-        <v>31.6</v>
+        <v>475.2</v>
       </c>
       <c r="I146">
-        <v>87.1</v>
+        <v>343.8</v>
       </c>
       <c r="J146">
-        <v>330.3</v>
+        <v>1016</v>
       </c>
       <c r="K146">
-        <v>962.1</v>
+        <v>720.6</v>
       </c>
       <c r="L146">
-        <v>6393.2</v>
+        <v>24953.200000000001</v>
       </c>
     </row>
     <row r="147" spans="2:12" x14ac:dyDescent="0.25">
       <c r="C147">
-        <v>24.8</v>
+        <v>26.6</v>
       </c>
       <c r="D147">
-        <v>23.2</v>
+        <v>22.6</v>
       </c>
       <c r="E147">
-        <v>16.7</v>
+        <v>17.8</v>
       </c>
       <c r="F147">
-        <v>63.4</v>
+        <v>512.29999999999995</v>
       </c>
       <c r="I147">
-        <v>197</v>
+        <v>1074.8</v>
       </c>
       <c r="J147">
-        <v>135</v>
+        <v>35.200000000000003</v>
       </c>
       <c r="K147">
-        <v>275</v>
+        <v>814.5</v>
       </c>
       <c r="L147">
-        <v>9104.2000000000007</v>
+        <v>52351.5</v>
       </c>
     </row>
     <row r="148" spans="2:12" x14ac:dyDescent="0.25">
       <c r="C148">
-        <v>23.4</v>
+        <v>23.1</v>
       </c>
       <c r="D148">
-        <v>28.9</v>
+        <v>27.1</v>
       </c>
       <c r="E148">
-        <v>18.100000000000001</v>
+        <v>17.100000000000001</v>
       </c>
       <c r="F148">
-        <v>45.7</v>
+        <v>484.2</v>
       </c>
       <c r="I148">
-        <v>111.7</v>
+        <v>28.8</v>
       </c>
       <c r="J148">
-        <v>630</v>
+        <v>212.8</v>
       </c>
       <c r="K148">
-        <v>425.2</v>
+        <v>316.2</v>
       </c>
       <c r="L148">
-        <v>6020.1</v>
+        <v>35671.599999999999</v>
       </c>
     </row>
     <row r="149" spans="2:12" x14ac:dyDescent="0.25">
       <c r="C149">
-        <v>21.9</v>
+        <v>21.2</v>
       </c>
       <c r="D149">
-        <v>22.9</v>
+        <v>23.2</v>
       </c>
       <c r="E149">
-        <v>17</v>
+        <v>16.600000000000001</v>
       </c>
       <c r="F149">
-        <v>27.7</v>
+        <v>483</v>
       </c>
       <c r="I149">
-        <v>103.9</v>
+        <v>125.3</v>
       </c>
       <c r="J149">
-        <v>88.7</v>
+        <v>21.8</v>
       </c>
       <c r="K149">
-        <v>437.6</v>
+        <v>85.9</v>
       </c>
       <c r="L149">
-        <v>4902.7</v>
+        <v>45509.3</v>
       </c>
     </row>
     <row r="150" spans="2:12" x14ac:dyDescent="0.25">
       <c r="C150">
-        <v>27.6</v>
+        <v>25</v>
       </c>
       <c r="D150">
-        <v>28.7</v>
+        <v>21.3</v>
       </c>
       <c r="E150">
-        <v>15.8</v>
+        <v>16.100000000000001</v>
       </c>
       <c r="F150">
-        <v>28.1</v>
+        <v>517.20000000000005</v>
       </c>
       <c r="I150">
-        <v>202.5</v>
+        <v>578.20000000000005</v>
       </c>
       <c r="J150">
-        <v>186.7</v>
+        <v>223.3</v>
       </c>
       <c r="K150">
-        <v>333.7</v>
+        <v>13.2</v>
       </c>
       <c r="L150">
-        <v>6739.4</v>
+        <v>51781.2</v>
       </c>
     </row>
     <row r="151" spans="2:12" x14ac:dyDescent="0.25">
@@ -4564,38 +4510,38 @@
       </c>
       <c r="C151">
         <f>AVERAGE(C121:C150)</f>
-        <v>25.383333333333333</v>
+        <v>24.776666666666664</v>
       </c>
       <c r="D151">
         <f t="shared" ref="D151" si="22">AVERAGE(D121:D150)</f>
-        <v>24.196666666666673</v>
+        <v>24.720000000000002</v>
       </c>
       <c r="E151">
         <f t="shared" ref="E151" si="23">AVERAGE(E121:E150)</f>
-        <v>17.559999999999999</v>
+        <v>17.533333333333328</v>
       </c>
       <c r="F151">
         <f t="shared" ref="F151" si="24">AVERAGE(F121:F150)</f>
-        <v>44.956666666666671</v>
+        <v>502.81000000000006</v>
       </c>
       <c r="H151" t="s">
         <v>12</v>
       </c>
       <c r="I151">
         <f>AVERAGE(I121:I150)</f>
-        <v>305.51333333333338</v>
+        <v>223.17000000000004</v>
       </c>
       <c r="J151">
         <f t="shared" ref="J151" si="25">AVERAGE(J121:J150)</f>
-        <v>189.22333333333333</v>
+        <v>202.58000000000004</v>
       </c>
       <c r="K151">
         <f t="shared" ref="K151" si="26">AVERAGE(K121:K150)</f>
-        <v>203.33666666666667</v>
+        <v>442.66333333333336</v>
       </c>
       <c r="L151">
         <f t="shared" ref="L151" si="27">AVERAGE(L121:L150)</f>
-        <v>239763.05666666667</v>
+        <v>45508.71333333334</v>
       </c>
     </row>
     <row r="152" spans="2:12" x14ac:dyDescent="0.25">
@@ -4604,39 +4550,42 @@
       </c>
       <c r="C152">
         <f>AVEDEV(C121:C150)</f>
-        <v>3.3766666666666665</v>
+        <v>2.118666666666666</v>
       </c>
       <c r="D152">
         <f t="shared" ref="D152:F152" si="28">AVEDEV(D121:D150)</f>
-        <v>2.5688888888888917</v>
+        <v>2.7066666666666679</v>
       </c>
       <c r="E152">
         <f t="shared" si="28"/>
-        <v>1.0200000000000005</v>
+        <v>1.097777777777778</v>
       </c>
       <c r="F152">
         <f t="shared" si="28"/>
-        <v>24.590666666666664</v>
+        <v>14.509999999999996</v>
       </c>
       <c r="H152" t="s">
         <v>13</v>
       </c>
       <c r="I152">
         <f>AVEDEV(I121:I150)</f>
-        <v>262.33866666666665</v>
+        <v>176.73533333333333</v>
       </c>
       <c r="J152">
         <f t="shared" ref="J152:L152" si="29">AVEDEV(J121:J150)</f>
-        <v>127.7177777777778</v>
+        <v>170.50133333333332</v>
       </c>
       <c r="K152">
         <f t="shared" si="29"/>
-        <v>182.19311111111114</v>
+        <v>276.93844444444443</v>
       </c>
       <c r="L152">
         <f t="shared" si="29"/>
-        <v>435321.18577777781</v>
-      </c>
+        <v>9175.6400000000012</v>
+      </c>
+    </row>
+    <row r="159" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="J159" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/testes/PH/J5_Log_excel.xlsx
+++ b/testes/PH/J5_Log_excel.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ACEW\Documents\Android\androidconcurrency\testes\PH\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B902E492-055C-4E45-9A52-44F8FF6F279F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03D5D9E3-EB2B-47F9-8DD4-2D2D183F99BE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -620,126 +620,7 @@
     <cellStyle name="Título 4" xfId="5" builtinId="19" customBuiltin="1"/>
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="20">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="3">
     <dxf>
       <fill>
         <patternFill>
@@ -1073,8 +954,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AL159"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="D94" sqref="D94"/>
+    <sheetView tabSelected="1" topLeftCell="A57" zoomScale="25" zoomScaleNormal="25" workbookViewId="0">
+      <selection activeCell="AL125" sqref="AL125"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="18.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3429,115 +3310,115 @@
         <v>11</v>
       </c>
       <c r="C37">
-        <f>AVERAGE(C7:C36)</f>
-        <v>399.25999999999993</v>
+        <f>MEDIAN(C7:C36)</f>
+        <v>399.70000000000005</v>
       </c>
       <c r="D37">
-        <f t="shared" ref="D37:F37" si="0">AVERAGE(D7:D36)</f>
-        <v>395.16666666666669</v>
+        <f t="shared" ref="D37:F37" si="0">MEDIAN(D7:D36)</f>
+        <v>396.9</v>
       </c>
       <c r="E37">
         <f t="shared" si="0"/>
-        <v>393.0866666666667</v>
+        <v>393</v>
       </c>
       <c r="F37">
         <f t="shared" si="0"/>
-        <v>590.9</v>
+        <v>591.6</v>
       </c>
       <c r="H37" t="s">
         <v>11</v>
       </c>
       <c r="I37">
-        <f>AVERAGE(I7:I36)</f>
-        <v>12.353333333333333</v>
+        <f>MEDIAN(I7:I36)</f>
+        <v>11.4</v>
       </c>
       <c r="J37">
-        <f t="shared" ref="J37" si="1">AVERAGE(J7:J36)</f>
-        <v>19.206666666666663</v>
+        <f t="shared" ref="J37:L37" si="1">MEDIAN(J7:J36)</f>
+        <v>17.100000000000001</v>
       </c>
       <c r="K37">
-        <f t="shared" ref="K37" si="2">AVERAGE(K7:K36)</f>
-        <v>14.979999999999999</v>
+        <f t="shared" si="1"/>
+        <v>10.199999999999999</v>
       </c>
       <c r="L37">
-        <f t="shared" ref="L37" si="3">AVERAGE(L7:L36)</f>
-        <v>22.526666666666667</v>
+        <f t="shared" si="1"/>
+        <v>16.600000000000001</v>
       </c>
       <c r="O37" t="s">
         <v>11</v>
       </c>
       <c r="P37">
-        <f>AVERAGE(P7:P36)</f>
-        <v>601.27333333333308</v>
+        <f>MEDIAN(P7:P36)</f>
+        <v>602.40000000000009</v>
       </c>
       <c r="Q37">
-        <f t="shared" ref="Q37:S37" si="4">AVERAGE(Q7:Q36)</f>
-        <v>590.91999999999996</v>
+        <f t="shared" ref="Q37:S37" si="2">MEDIAN(Q7:Q36)</f>
+        <v>595.29999999999995</v>
       </c>
       <c r="R37">
-        <f t="shared" si="4"/>
-        <v>592.06666666666683</v>
+        <f t="shared" si="2"/>
+        <v>591.9</v>
       </c>
       <c r="S37">
-        <f t="shared" si="4"/>
-        <v>4200.7800000000007</v>
+        <f t="shared" si="2"/>
+        <v>4217.3999999999996</v>
       </c>
       <c r="U37" t="s">
         <v>11</v>
       </c>
       <c r="V37">
-        <f>AVERAGE(V7:V36)</f>
-        <v>23.466666666666661</v>
+        <f>MEDIAN(V7:V36)</f>
+        <v>14.8</v>
       </c>
       <c r="W37">
-        <f t="shared" ref="W37:Y37" si="5">AVERAGE(W7:W36)</f>
-        <v>19.206666666666663</v>
+        <f t="shared" ref="W37:Y37" si="3">MEDIAN(W7:W36)</f>
+        <v>14.7</v>
       </c>
       <c r="X37">
-        <f t="shared" si="5"/>
-        <v>13.6</v>
+        <f t="shared" si="3"/>
+        <v>10.6</v>
       </c>
       <c r="Y37">
-        <f t="shared" si="5"/>
-        <v>3638373.4466666663</v>
+        <f t="shared" si="3"/>
+        <v>3656779.3</v>
       </c>
       <c r="AB37" t="s">
         <v>11</v>
       </c>
       <c r="AC37">
-        <f>AVERAGE(AC7:AC36)</f>
-        <v>394.59333333333336</v>
+        <f>MEDIAN(AC7:AC36)</f>
+        <v>397.2</v>
       </c>
       <c r="AD37">
-        <f t="shared" ref="AD37:AF37" si="6">AVERAGE(AD7:AD36)</f>
-        <v>388.99333333333323</v>
+        <f t="shared" ref="AD37:AF37" si="4">MEDIAN(AD7:AD36)</f>
+        <v>395</v>
       </c>
       <c r="AE37">
-        <f t="shared" si="6"/>
-        <v>392.3</v>
+        <f t="shared" si="4"/>
+        <v>392.9</v>
       </c>
       <c r="AF37">
-        <f t="shared" si="6"/>
-        <v>585.61333333333334</v>
+        <f t="shared" si="4"/>
+        <v>586.79999999999995</v>
       </c>
       <c r="AH37" t="s">
         <v>11</v>
       </c>
       <c r="AI37">
-        <f>AVERAGE(AI7:AI36)</f>
-        <v>19.079999999999995</v>
+        <f>MEDIAN(AI7:AI36)</f>
+        <v>15</v>
       </c>
       <c r="AJ37">
-        <f t="shared" ref="AJ37:AL37" si="7">AVERAGE(AJ7:AJ36)</f>
-        <v>19.899999999999995</v>
+        <f t="shared" ref="AJ37:AL37" si="5">MEDIAN(AJ7:AJ36)</f>
+        <v>7.6</v>
       </c>
       <c r="AK37">
-        <f t="shared" si="7"/>
-        <v>16.059999999999995</v>
+        <f t="shared" si="5"/>
+        <v>13.600000000000001</v>
       </c>
       <c r="AL37">
-        <f t="shared" si="7"/>
-        <v>15.986666666666668</v>
+        <f t="shared" si="5"/>
+        <v>14</v>
       </c>
     </row>
     <row r="38" spans="1:38" x14ac:dyDescent="0.25">
@@ -3549,15 +3430,15 @@
         <v>3.2960000000000056</v>
       </c>
       <c r="D38">
-        <f t="shared" ref="D38:F38" si="8">AVEDEV(D7:D36)</f>
+        <f t="shared" ref="D38:F38" si="6">AVEDEV(D7:D36)</f>
         <v>4.5755555555555514</v>
       </c>
       <c r="E38">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>2.806666666666668</v>
       </c>
       <c r="F38">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>3.0866666666666749</v>
       </c>
       <c r="H38" t="s">
@@ -3568,15 +3449,15 @@
         <v>6.73688888888889</v>
       </c>
       <c r="J38">
-        <f t="shared" ref="J38:L38" si="9">AVEDEV(J7:J36)</f>
+        <f t="shared" ref="J38:L38" si="7">AVEDEV(J7:J36)</f>
         <v>10.394666666666664</v>
       </c>
       <c r="K38">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>10.106666666666662</v>
       </c>
       <c r="L38">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>14.235555555555557</v>
       </c>
       <c r="O38" t="s">
@@ -3587,15 +3468,15 @@
         <v>2.8671111111111904</v>
       </c>
       <c r="Q38">
-        <f t="shared" ref="Q38:S38" si="10">AVEDEV(Q7:Q36)</f>
+        <f t="shared" ref="Q38:S38" si="8">AVEDEV(Q7:Q36)</f>
         <v>8.4826666666666863</v>
       </c>
       <c r="R38">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>3.3511111111111251</v>
       </c>
       <c r="S38">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>81.810666666666535</v>
       </c>
       <c r="U38" t="s">
@@ -3606,15 +3487,15 @@
         <v>15.959999999999999</v>
       </c>
       <c r="W38">
-        <f t="shared" ref="W38:Y38" si="11">AVEDEV(W7:W36)</f>
+        <f t="shared" ref="W38:Y38" si="9">AVEDEV(W7:W36)</f>
         <v>11.821777777777779</v>
       </c>
       <c r="X38">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>8.9866666666666664</v>
       </c>
       <c r="Y38">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>197046.86711111112</v>
       </c>
       <c r="AB38" t="s">
@@ -3625,15 +3506,15 @@
         <v>7.5031111111111022</v>
       </c>
       <c r="AD38">
-        <f t="shared" ref="AD38:AF38" si="12">AVEDEV(AD7:AD36)</f>
+        <f t="shared" ref="AD38:AF38" si="10">AVEDEV(AD7:AD36)</f>
         <v>11.504444444444518</v>
       </c>
       <c r="AE38">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>3.3999999999999981</v>
       </c>
       <c r="AF38">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>3.2391111111111059</v>
       </c>
       <c r="AH38" t="s">
@@ -3644,15 +3525,15 @@
         <v>11.293333333333331</v>
       </c>
       <c r="AJ38">
-        <f t="shared" ref="AJ38:AL38" si="13">AVEDEV(AJ7:AJ36)</f>
+        <f t="shared" ref="AJ38:AL38" si="11">AVEDEV(AJ7:AJ36)</f>
         <v>18.84</v>
       </c>
       <c r="AK38">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>10.334666666666665</v>
       </c>
       <c r="AL38">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>10.771555555555555</v>
       </c>
     </row>
@@ -5996,115 +5877,115 @@
         <v>11</v>
       </c>
       <c r="C75">
-        <f>AVERAGE(C45:C74)</f>
-        <v>160.48000000000002</v>
+        <f>MEDIAN(C45:C74)</f>
+        <v>161.80000000000001</v>
       </c>
       <c r="D75">
-        <f t="shared" ref="D75:F75" si="14">AVERAGE(D45:D74)</f>
-        <v>161.71</v>
+        <f t="shared" ref="D75:F75" si="12">MEDIAN(D45:D74)</f>
+        <v>161.80000000000001</v>
       </c>
       <c r="E75">
-        <f t="shared" si="14"/>
-        <v>162.83000000000001</v>
+        <f t="shared" si="12"/>
+        <v>164.55</v>
       </c>
       <c r="F75">
-        <f t="shared" si="14"/>
-        <v>234.64</v>
+        <f t="shared" si="12"/>
+        <v>237.2</v>
       </c>
       <c r="H75" t="s">
         <v>11</v>
       </c>
       <c r="I75">
-        <f>AVERAGE(I45:I74)</f>
-        <v>24.923333333333328</v>
+        <f>MEDIAN(I45:I74)</f>
+        <v>22</v>
       </c>
       <c r="J75">
-        <f t="shared" ref="J75:L75" si="15">AVERAGE(J45:J74)</f>
-        <v>21.866666666666667</v>
+        <f t="shared" ref="J75:L75" si="13">MEDIAN(J45:J74)</f>
+        <v>18.75</v>
       </c>
       <c r="K75">
-        <f t="shared" si="15"/>
-        <v>20.683333333333334</v>
+        <f t="shared" si="13"/>
+        <v>18.950000000000003</v>
       </c>
       <c r="L75">
-        <f t="shared" si="15"/>
-        <v>32.916666666666664</v>
+        <f t="shared" si="13"/>
+        <v>30.549999999999997</v>
       </c>
       <c r="O75" t="s">
         <v>11</v>
       </c>
       <c r="P75">
-        <f>AVERAGE(P45:P74)</f>
-        <v>245.00666666666666</v>
+        <f>MEDIAN(P45:P74)</f>
+        <v>245.85000000000002</v>
       </c>
       <c r="Q75">
-        <f t="shared" ref="Q75:S75" si="16">AVERAGE(Q45:Q74)</f>
-        <v>248.10999999999999</v>
+        <f t="shared" ref="Q75:S75" si="14">MEDIAN(Q45:Q74)</f>
+        <v>247.85000000000002</v>
       </c>
       <c r="R75">
-        <f t="shared" si="16"/>
-        <v>243.88666666666671</v>
+        <f t="shared" si="14"/>
+        <v>244.45</v>
       </c>
       <c r="S75">
-        <f t="shared" si="16"/>
-        <v>3324.4133333333325</v>
+        <f t="shared" si="14"/>
+        <v>3345.6000000000004</v>
       </c>
       <c r="U75" t="s">
         <v>11</v>
       </c>
       <c r="V75">
-        <f>AVERAGE(V45:V74)</f>
-        <v>35.283333333333331</v>
+        <f>MEDIAN(V45:V74)</f>
+        <v>36.200000000000003</v>
       </c>
       <c r="W75">
-        <f t="shared" ref="W75:Y75" si="17">AVERAGE(W45:W74)</f>
-        <v>40.096666666666664</v>
+        <f t="shared" ref="W75:Y75" si="15">MEDIAN(W45:W74)</f>
+        <v>36.900000000000006</v>
       </c>
       <c r="X75">
-        <f t="shared" si="17"/>
-        <v>35.140000000000008</v>
+        <f t="shared" si="15"/>
+        <v>34.200000000000003</v>
       </c>
       <c r="Y75">
-        <f t="shared" si="17"/>
-        <v>882096.96333333338</v>
+        <f t="shared" si="15"/>
+        <v>884531.55</v>
       </c>
       <c r="AB75" t="s">
         <v>11</v>
       </c>
       <c r="AC75">
-        <f>AVERAGE(AC45:AC74)</f>
-        <v>161.43333333333331</v>
+        <f>MEDIAN(AC45:AC74)</f>
+        <v>160.4</v>
       </c>
       <c r="AD75">
-        <f t="shared" ref="AD75:AF75" si="18">AVERAGE(AD45:AD74)</f>
-        <v>160.89999999999998</v>
+        <f t="shared" ref="AD75:AF75" si="16">MEDIAN(AD45:AD74)</f>
+        <v>161.19999999999999</v>
       </c>
       <c r="AE75">
-        <f t="shared" si="18"/>
-        <v>162.45666666666665</v>
+        <f t="shared" si="16"/>
+        <v>163.15</v>
       </c>
       <c r="AF75">
-        <f t="shared" si="18"/>
-        <v>234.16999999999993</v>
+        <f t="shared" si="16"/>
+        <v>232.25</v>
       </c>
       <c r="AH75" t="s">
         <v>11</v>
       </c>
       <c r="AI75">
-        <f>AVERAGE(AI45:AI74)</f>
-        <v>23.65666666666667</v>
+        <f>MEDIAN(AI45:AI74)</f>
+        <v>22.05</v>
       </c>
       <c r="AJ75">
-        <f t="shared" ref="AJ75:AL75" si="19">AVERAGE(AJ45:AJ74)</f>
-        <v>25.276666666666667</v>
+        <f t="shared" ref="AJ75:AL75" si="17">MEDIAN(AJ45:AJ74)</f>
+        <v>24.3</v>
       </c>
       <c r="AK75">
-        <f t="shared" si="19"/>
-        <v>22.536666666666672</v>
+        <f t="shared" si="17"/>
+        <v>19.05</v>
       </c>
       <c r="AL75">
-        <f t="shared" si="19"/>
-        <v>40.473333333333343</v>
+        <f t="shared" si="17"/>
+        <v>33.900000000000006</v>
       </c>
     </row>
     <row r="76" spans="1:38" x14ac:dyDescent="0.25">
@@ -6116,15 +5997,15 @@
         <v>4.5413333333333297</v>
       </c>
       <c r="D76">
-        <f t="shared" ref="D76:F76" si="20">AVEDEV(D45:D74)</f>
+        <f t="shared" ref="D76:F76" si="18">AVEDEV(D45:D74)</f>
         <v>4.6566666666666654</v>
       </c>
       <c r="E76">
-        <f t="shared" si="20"/>
+        <f t="shared" si="18"/>
         <v>3.9859999999999993</v>
       </c>
       <c r="F76">
-        <f t="shared" si="20"/>
+        <f t="shared" si="18"/>
         <v>8.5920000000000041</v>
       </c>
       <c r="H76" t="s">
@@ -6135,15 +6016,15 @@
         <v>11.734666666666662</v>
       </c>
       <c r="J76">
-        <f t="shared" ref="J76:L76" si="21">AVEDEV(J45:J74)</f>
+        <f t="shared" ref="J76:L76" si="19">AVEDEV(J45:J74)</f>
         <v>7.8599999999999994</v>
       </c>
       <c r="K76">
-        <f t="shared" si="21"/>
+        <f t="shared" si="19"/>
         <v>6.3544444444444448</v>
       </c>
       <c r="L76">
-        <f t="shared" si="21"/>
+        <f t="shared" si="19"/>
         <v>10.84555555555556</v>
       </c>
       <c r="O76" t="s">
@@ -6154,15 +6035,15 @@
         <v>6.759555555555556</v>
       </c>
       <c r="Q76">
-        <f t="shared" ref="Q76:S76" si="22">AVEDEV(Q45:Q74)</f>
+        <f t="shared" ref="Q76:S76" si="20">AVEDEV(Q45:Q74)</f>
         <v>6.1239999999999979</v>
       </c>
       <c r="R76">
-        <f t="shared" si="22"/>
+        <f t="shared" si="20"/>
         <v>4.8484444444444392</v>
       </c>
       <c r="S76">
-        <f t="shared" si="22"/>
+        <f t="shared" si="20"/>
         <v>123.96400000000017</v>
       </c>
       <c r="U76" t="s">
@@ -6173,15 +6054,15 @@
         <v>8.9511111111111124</v>
       </c>
       <c r="W76">
-        <f t="shared" ref="W76:Y76" si="23">AVEDEV(W45:W74)</f>
+        <f t="shared" ref="W76:Y76" si="21">AVEDEV(W45:W74)</f>
         <v>13.116000000000001</v>
       </c>
       <c r="X76">
-        <f t="shared" si="23"/>
+        <f t="shared" si="21"/>
         <v>10.342666666666666</v>
       </c>
       <c r="Y76">
-        <f t="shared" si="23"/>
+        <f t="shared" si="21"/>
         <v>68177.123333333337</v>
       </c>
       <c r="AB76" t="s">
@@ -6192,15 +6073,15 @@
         <v>4.0177777777777743</v>
       </c>
       <c r="AD76">
-        <f t="shared" ref="AD76:AF76" si="24">AVEDEV(AD45:AD74)</f>
+        <f t="shared" ref="AD76:AF76" si="22">AVEDEV(AD45:AD74)</f>
         <v>4.7866666666666706</v>
       </c>
       <c r="AE76">
-        <f t="shared" si="24"/>
+        <f t="shared" si="22"/>
         <v>3.8757777777777798</v>
       </c>
       <c r="AF76">
-        <f t="shared" si="24"/>
+        <f t="shared" si="22"/>
         <v>6.0353333333333135</v>
       </c>
       <c r="AH76" t="s">
@@ -6211,15 +6092,15 @@
         <v>8.8671111111111127</v>
       </c>
       <c r="AJ76">
-        <f t="shared" ref="AJ76:AL76" si="25">AVEDEV(AJ45:AJ74)</f>
+        <f t="shared" ref="AJ76:AL76" si="23">AVEDEV(AJ45:AJ74)</f>
         <v>7.9402222222222214</v>
       </c>
       <c r="AK76">
-        <f t="shared" si="25"/>
+        <f t="shared" si="23"/>
         <v>7.9948888888888892</v>
       </c>
       <c r="AL76">
-        <f t="shared" si="25"/>
+        <f t="shared" si="23"/>
         <v>14.669777777777778</v>
       </c>
     </row>
@@ -8563,115 +8444,115 @@
         <v>11</v>
       </c>
       <c r="C113">
-        <f>AVERAGE(C83:C112)</f>
-        <v>34.366666666666667</v>
+        <f>MEDIAN(C83:C112)</f>
+        <v>34.450000000000003</v>
       </c>
       <c r="D113">
-        <f t="shared" ref="D113:F113" si="26">AVERAGE(D83:D112)</f>
-        <v>33.826666666666668</v>
+        <f t="shared" ref="D113:F113" si="24">MEDIAN(D83:D112)</f>
+        <v>33.75</v>
       </c>
       <c r="E113">
-        <f t="shared" si="26"/>
+        <f t="shared" si="24"/>
         <v>28.25</v>
       </c>
       <c r="F113">
-        <f t="shared" si="26"/>
-        <v>48.296666666666653</v>
+        <f t="shared" si="24"/>
+        <v>47.849999999999994</v>
       </c>
       <c r="H113" t="s">
         <v>11</v>
       </c>
       <c r="I113">
-        <f>AVERAGE(I83:I112)</f>
-        <v>151.94666666666666</v>
+        <f>MEDIAN(I83:I112)</f>
+        <v>148.6</v>
       </c>
       <c r="J113">
-        <f t="shared" ref="J113:L113" si="27">AVERAGE(J83:J112)</f>
-        <v>160.69999999999996</v>
+        <f t="shared" ref="J113:L113" si="25">MEDIAN(J83:J112)</f>
+        <v>151.4</v>
       </c>
       <c r="K113">
-        <f t="shared" si="27"/>
-        <v>30.236666666666668</v>
+        <f t="shared" si="25"/>
+        <v>17.5</v>
       </c>
       <c r="L113">
-        <f t="shared" si="27"/>
-        <v>219.48000000000008</v>
+        <f t="shared" si="25"/>
+        <v>160.55000000000001</v>
       </c>
       <c r="O113" t="s">
         <v>11</v>
       </c>
       <c r="P113">
-        <f>AVERAGE(P83:P112)</f>
-        <v>47.086666666666673</v>
+        <f>MEDIAN(P83:P112)</f>
+        <v>46.9</v>
       </c>
       <c r="Q113">
-        <f t="shared" ref="Q113:S113" si="28">AVERAGE(Q83:Q112)</f>
-        <v>47.620000000000005</v>
+        <f t="shared" ref="Q113:S113" si="26">MEDIAN(Q83:Q112)</f>
+        <v>47.4</v>
       </c>
       <c r="R113">
-        <f t="shared" si="28"/>
-        <v>41.973333333333336</v>
+        <f t="shared" si="26"/>
+        <v>42.4</v>
       </c>
       <c r="S113">
-        <f t="shared" si="28"/>
-        <v>878.2266666666668</v>
+        <f t="shared" si="26"/>
+        <v>877.55</v>
       </c>
       <c r="U113" t="s">
         <v>11</v>
       </c>
       <c r="V113">
-        <f>AVERAGE(V83:V112)</f>
-        <v>189.85333333333335</v>
+        <f>MEDIAN(V83:V112)</f>
+        <v>119.80000000000001</v>
       </c>
       <c r="W113">
-        <f t="shared" ref="W113:Y113" si="29">AVERAGE(W83:W112)</f>
-        <v>374.87666666666667</v>
+        <f t="shared" ref="W113:Y113" si="27">MEDIAN(W83:W112)</f>
+        <v>124.9</v>
       </c>
       <c r="X113">
-        <f t="shared" si="29"/>
-        <v>50.070000000000007</v>
+        <f t="shared" si="27"/>
+        <v>26.450000000000003</v>
       </c>
       <c r="Y113">
-        <f t="shared" si="29"/>
-        <v>24248.910000000007</v>
+        <f t="shared" si="27"/>
+        <v>24480.65</v>
       </c>
       <c r="AB113" t="s">
         <v>11</v>
       </c>
       <c r="AC113">
-        <f>AVERAGE(AC83:AC112)</f>
-        <v>34.049999999999997</v>
+        <f>MEDIAN(AC83:AC112)</f>
+        <v>33.9</v>
       </c>
       <c r="AD113">
-        <f t="shared" ref="AD113:AF113" si="30">AVERAGE(AD83:AD112)</f>
-        <v>34.373333333333342</v>
+        <f t="shared" ref="AD113:AF113" si="28">MEDIAN(AD83:AD112)</f>
+        <v>34.25</v>
       </c>
       <c r="AE113">
-        <f t="shared" si="30"/>
-        <v>28.686666666666667</v>
+        <f t="shared" si="28"/>
+        <v>28.55</v>
       </c>
       <c r="AF113">
-        <f t="shared" si="30"/>
-        <v>46.389999999999993</v>
+        <f t="shared" si="28"/>
+        <v>46.5</v>
       </c>
       <c r="AH113" t="s">
         <v>11</v>
       </c>
       <c r="AI113">
-        <f>AVERAGE(AI83:AI112)</f>
-        <v>184.21000000000009</v>
+        <f>MEDIAN(AI83:AI112)</f>
+        <v>150.6</v>
       </c>
       <c r="AJ113">
-        <f t="shared" ref="AJ113:AL113" si="31">AVERAGE(AJ83:AJ112)</f>
-        <v>186.60333333333332</v>
+        <f t="shared" ref="AJ113:AL113" si="29">MEDIAN(AJ83:AJ112)</f>
+        <v>161.75</v>
       </c>
       <c r="AK113">
-        <f t="shared" si="31"/>
-        <v>23.42</v>
+        <f t="shared" si="29"/>
+        <v>18</v>
       </c>
       <c r="AL113">
-        <f t="shared" si="31"/>
-        <v>476.33999999999986</v>
+        <f t="shared" si="29"/>
+        <v>148.4</v>
       </c>
     </row>
     <row r="114" spans="2:38" x14ac:dyDescent="0.25">
@@ -8683,15 +8564,15 @@
         <v>0.93111111111111144</v>
       </c>
       <c r="D114">
-        <f t="shared" ref="D114:F114" si="32">AVEDEV(D83:D112)</f>
+        <f t="shared" ref="D114:F114" si="30">AVEDEV(D83:D112)</f>
         <v>1.5200000000000002</v>
       </c>
       <c r="E114">
-        <f t="shared" si="32"/>
+        <f t="shared" si="30"/>
         <v>0.88333333333333364</v>
       </c>
       <c r="F114">
-        <f t="shared" si="32"/>
+        <f t="shared" si="30"/>
         <v>1.5164444444444432</v>
       </c>
       <c r="H114" t="s">
@@ -8702,15 +8583,15 @@
         <v>47.106222222222215</v>
       </c>
       <c r="J114">
-        <f t="shared" ref="J114:L114" si="33">AVEDEV(J83:J112)</f>
+        <f t="shared" ref="J114:L114" si="31">AVEDEV(J83:J112)</f>
         <v>59.926666666666669</v>
       </c>
       <c r="K114">
-        <f t="shared" si="33"/>
+        <f t="shared" si="31"/>
         <v>24.412666666666663</v>
       </c>
       <c r="L114">
-        <f t="shared" si="33"/>
+        <f t="shared" si="31"/>
         <v>114.37200000000006</v>
       </c>
       <c r="O114" t="s">
@@ -8721,15 +8602,15 @@
         <v>1.5124444444444449</v>
       </c>
       <c r="Q114">
-        <f t="shared" ref="Q114:S114" si="34">AVEDEV(Q83:Q112)</f>
+        <f t="shared" ref="Q114:S114" si="32">AVEDEV(Q83:Q112)</f>
         <v>1.5853333333333348</v>
       </c>
       <c r="R114">
-        <f t="shared" si="34"/>
+        <f t="shared" si="32"/>
         <v>1.1084444444444446</v>
       </c>
       <c r="S114">
-        <f t="shared" si="34"/>
+        <f t="shared" si="32"/>
         <v>20.868444444444449</v>
       </c>
       <c r="U114" t="s">
@@ -8740,15 +8621,15 @@
         <v>130.34222222222223</v>
       </c>
       <c r="W114">
-        <f t="shared" ref="W114:Y114" si="35">AVEDEV(W83:W112)</f>
+        <f t="shared" ref="W114:Y114" si="33">AVEDEV(W83:W112)</f>
         <v>400.3795555555555</v>
       </c>
       <c r="X114">
-        <f t="shared" si="35"/>
+        <f t="shared" si="33"/>
         <v>42.226000000000006</v>
       </c>
       <c r="Y114">
-        <f t="shared" si="35"/>
+        <f t="shared" si="33"/>
         <v>2369.5093333333339</v>
       </c>
       <c r="AB114" t="s">
@@ -8759,15 +8640,15 @@
         <v>1.3366666666666664</v>
       </c>
       <c r="AD114">
-        <f t="shared" ref="AD114:AF114" si="36">AVEDEV(AD83:AD112)</f>
+        <f t="shared" ref="AD114:AF114" si="34">AVEDEV(AD83:AD112)</f>
         <v>0.83822222222222276</v>
       </c>
       <c r="AE114">
-        <f t="shared" si="36"/>
+        <f t="shared" si="34"/>
         <v>1.105777777777778</v>
       </c>
       <c r="AF114">
-        <f t="shared" si="36"/>
+        <f t="shared" si="34"/>
         <v>2.4926666666666688</v>
       </c>
       <c r="AH114" t="s">
@@ -8778,15 +8659,15 @@
         <v>91.506000000000029</v>
       </c>
       <c r="AJ114">
-        <f t="shared" ref="AJ114:AL114" si="37">AVEDEV(AJ83:AJ112)</f>
+        <f t="shared" ref="AJ114:AL114" si="35">AVEDEV(AJ83:AJ112)</f>
         <v>87.02511111111113</v>
       </c>
       <c r="AK114">
-        <f t="shared" si="37"/>
+        <f t="shared" si="35"/>
         <v>10.193333333333335</v>
       </c>
       <c r="AL114">
-        <f t="shared" si="37"/>
+        <f t="shared" si="35"/>
         <v>492.34133333333301</v>
       </c>
     </row>
@@ -8798,17 +8679,17 @@
     <mergeCell ref="A1:F1"/>
   </mergeCells>
   <conditionalFormatting sqref="AC7:AF36 AI7:AL36 V7:Y36 P7:S36 I7:L36 C7:F36">
-    <cfRule type="expression" dxfId="5" priority="7">
+    <cfRule type="expression" dxfId="2" priority="7">
       <formula>OR(C7&lt;C$37-C$38*2,C7&gt;C$37+2*C$38)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AC45:AF74 AI45:AL74 V45:Y74 P45:S74 I45:L74 C45:F74">
-    <cfRule type="expression" dxfId="4" priority="3">
+    <cfRule type="expression" dxfId="1" priority="3">
       <formula>OR(C45&lt;C$75-C$76*2,C45&gt;C$75+2*C$76)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AC83:AF112 AI83:AL112 V83:Y112 P83:S112 I83:L112 C83:F112">
-    <cfRule type="expression" dxfId="3" priority="2">
+    <cfRule type="expression" dxfId="0" priority="2">
       <formula>OR(C83&lt;C$113-C$114*2,C83&gt;C$113+2*C$114)</formula>
     </cfRule>
   </conditionalFormatting>

--- a/testes/PH/J5_Log_excel.xlsx
+++ b/testes/PH/J5_Log_excel.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ACEW\Documents\Android\androidconcurrency\testes\PH\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1022473-A9F4-46B9-92C4-C8F833AF9CEA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06476DD5-D647-4183-B838-BDE7C74019CF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12690" yWindow="3075" windowWidth="15375" windowHeight="7875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="J5_Log_agreggated" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="25">
   <si>
     <t>Philosophers problem</t>
   </si>
@@ -87,6 +87,21 @@
   </si>
   <si>
     <t>Median</t>
+  </si>
+  <si>
+    <t>Locks</t>
+  </si>
+  <si>
+    <t>Semáforos</t>
+  </si>
+  <si>
+    <t>Synchronized</t>
+  </si>
+  <si>
+    <t>Thread Pool</t>
+  </si>
+  <si>
+    <t>Kotlin Coroutines</t>
   </si>
 </sst>
 </file>
@@ -570,8 +585,9 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -617,42 +633,7 @@
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="44">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="6">
     <dxf>
       <fill>
         <patternFill>
@@ -695,237 +676,6 @@
         </patternFill>
       </fill>
     </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -937,6 +687,3621 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="pt-BR"/>
+              <a:t>Coeficiente</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="pt-BR" baseline="0"/>
+              <a:t> de variação</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="pt-BR"/>
+              <a:t> da quantidade de execuções - 5 filósofos*</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.11030484188282119"/>
+          <c:y val="1.4162726097548678E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>J5_Log_agreggated!$AO$19</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Semáforos</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>J5_Log_agreggated!$AP$18:$AS$18</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Threads</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Thread Pool</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>HaMeR framework</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Kotlin Coroutines</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>J5_Log_agreggated!$AP$19:$AS$19</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>8.5684155022409704E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8.9214380825565903E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.5878594249201266E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.921970514203523E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-808A-4ACD-91C9-E735FB29A252}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>J5_Log_agreggated!$AO$20</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Synchronized</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>J5_Log_agreggated!$AP$18:$AS$18</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Threads</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Thread Pool</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>HaMeR framework</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Kotlin Coroutines</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>J5_Log_agreggated!$AP$20:$AS$20</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>6.9444444444444449E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.1018747789175808E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.0134943181818172E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-808A-4ACD-91C9-E735FB29A252}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>J5_Log_agreggated!$AO$21</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Locks</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>J5_Log_agreggated!$AP$18:$AS$18</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Threads</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Thread Pool</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>HaMeR framework</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Kotlin Coroutines</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>J5_Log_agreggated!$AP$21:$AS$21</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>9.2241597169572913E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.0991779368867668E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.4946466809421835E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.7677314564158087E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-808A-4ACD-91C9-E735FB29A252}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="480119160"/>
+        <c:axId val="480109976"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="480119160"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pt-BR"/>
+                  <a:t>Mecanismos</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="pt-BR" baseline="0"/>
+                  <a:t> de concorrência</a:t>
+                </a:r>
+                <a:endParaRPr lang="pt-BR"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pt-BR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="480109976"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="480109976"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pt-BR"/>
+                  <a:t>Coeficiente</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="pt-BR" baseline="0"/>
+                  <a:t> de variação</a:t>
+                </a:r>
+                <a:endParaRPr lang="pt-BR"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pt-BR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.00E+00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="480119160"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pt-BR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="pt-BR"/>
+              <a:t>Coeficiente</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="pt-BR" baseline="0"/>
+              <a:t> de variação</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="pt-BR"/>
+              <a:t> da quantidade de execuções -     11 filósofos*</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.11030484188282119"/>
+          <c:y val="1.4162726097548678E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>J5_Log_agreggated!$AO$82</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Semáforos</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>J5_Log_agreggated!$AP$81:$AS$81</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Threads</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Thread Pool</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>HaMeR framework</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Kotlin Coroutines</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>J5_Log_agreggated!$AP$82:$AS$82</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>2.620087336244541E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.6675134963480472E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.7577561892823566E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.496798975672215E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-F07E-4A9C-8835-5058C9A7495A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>J5_Log_agreggated!$AO$83</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Synchronized</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>J5_Log_agreggated!$AP$81:$AS$81</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Threads</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Thread Pool</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>HaMeR framework</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Kotlin Coroutines</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>J5_Log_agreggated!$AP$83:$AS$83</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>2.3609115171422706E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.271779908295123E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.2324222824953058E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-F07E-4A9C-8835-5058C9A7495A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>J5_Log_agreggated!$AO$84</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Locks</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>J5_Log_agreggated!$AP$81:$AS$81</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Threads</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Thread Pool</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>HaMeR framework</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Kotlin Coroutines</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>J5_Log_agreggated!$AP$84:$AS$84</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>2.8150991682661549E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.1486146095717885E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.9054916985951473E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.3240800516462237E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-F07E-4A9C-8835-5058C9A7495A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="480119160"/>
+        <c:axId val="480109976"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="480119160"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pt-BR"/>
+                  <a:t>Mecanismos</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="pt-BR" baseline="0"/>
+                  <a:t> de concorrência</a:t>
+                </a:r>
+                <a:endParaRPr lang="pt-BR"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pt-BR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="480109976"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="480109976"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pt-BR"/>
+                  <a:t>Coeficiente</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="pt-BR" baseline="0"/>
+                  <a:t> de variação</a:t>
+                </a:r>
+                <a:endParaRPr lang="pt-BR"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pt-BR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.00E+00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="480119160"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pt-BR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="pt-BR"/>
+              <a:t>Coeficiente</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="pt-BR" baseline="0"/>
+              <a:t> de variação</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="pt-BR"/>
+              <a:t> da quantidade de execuções -     51 filósofos</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.11030484188282119"/>
+          <c:y val="1.4162726097548678E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>J5_Log_agreggated!$AO$155</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Semáforos</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>J5_Log_agreggated!$AP$154:$AS$154</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Threads</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Thread Pool</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>HaMeR framework</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Kotlin Coroutines</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>J5_Log_agreggated!$AP$155:$AS$155</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.32647058823529418</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.35435435435435442</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.15053763440860216</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.28820512820512822</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-8F63-4E43-92BC-9B991FDB8334}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>J5_Log_agreggated!$AO$156</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Synchronized</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>J5_Log_agreggated!$AP$154:$AS$154</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Threads</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Thread Pool</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>HaMeR framework</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Kotlin Coroutines</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>J5_Log_agreggated!$AP$156:$AS$156</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.23548387096774193</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.2289416846652268</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.12576312576312576</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.17855466916940399</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-8F63-4E43-92BC-9B991FDB8334}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>J5_Log_agreggated!$AO$157</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Locks</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>J5_Log_agreggated!$AP$154:$AS$154</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Threads</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Thread Pool</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>HaMeR framework</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Kotlin Coroutines</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>J5_Log_agreggated!$AP$157:$AS$157</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.34699853587115664</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.3476968796433878</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.15053763440860216</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.27074235807860264</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-8F63-4E43-92BC-9B991FDB8334}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="480119160"/>
+        <c:axId val="480109976"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="480119160"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pt-BR"/>
+                  <a:t>Mecanismos</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="pt-BR" baseline="0"/>
+                  <a:t> de concorrência</a:t>
+                </a:r>
+                <a:endParaRPr lang="pt-BR"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pt-BR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="480109976"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="480109976"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pt-BR"/>
+                  <a:t>Coeficiente</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="pt-BR" baseline="0"/>
+                  <a:t> de variação</a:t>
+                </a:r>
+                <a:endParaRPr lang="pt-BR"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pt-BR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.00E+00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="480119160"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pt-BR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="12">
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="12">
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="12">
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>40</xdr:col>
+      <xdr:colOff>632731</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>166006</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>44</xdr:col>
+      <xdr:colOff>1131794</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>33617</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{745404B9-404F-454C-986D-43760FE444D4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>40</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>88</xdr:row>
+      <xdr:rowOff>86591</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>44</xdr:col>
+      <xdr:colOff>499063</xdr:colOff>
+      <xdr:row>103</xdr:row>
+      <xdr:rowOff>144702</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4DE4B462-B173-4BBD-B832-0CFF1731A296}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>40</xdr:col>
+      <xdr:colOff>294409</xdr:colOff>
+      <xdr:row>159</xdr:row>
+      <xdr:rowOff>138545</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>44</xdr:col>
+      <xdr:colOff>793472</xdr:colOff>
+      <xdr:row>175</xdr:row>
+      <xdr:rowOff>6156</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{61E8AEDC-4A0D-46E0-9142-DF42ADB4286A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1236,10 +4601,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AL219"/>
+  <dimension ref="A1:AT219"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="10" zoomScaleNormal="10" workbookViewId="0">
-      <selection activeCell="Z112" sqref="Z112"/>
+    <sheetView tabSelected="1" topLeftCell="AD148" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="AT168" sqref="AT168"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="18.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2104,7 +5469,7 @@
         <v>2.6</v>
       </c>
     </row>
-    <row r="17" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:46" x14ac:dyDescent="0.25">
       <c r="C17">
         <v>402</v>
       </c>
@@ -2178,7 +5543,7 @@
         <v>1.9</v>
       </c>
     </row>
-    <row r="18" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:46" x14ac:dyDescent="0.25">
       <c r="C18">
         <v>398.2</v>
       </c>
@@ -2251,8 +5616,20 @@
       <c r="AL18">
         <v>4</v>
       </c>
-    </row>
-    <row r="19" spans="3:38" x14ac:dyDescent="0.25">
+      <c r="AP18" t="s">
+        <v>5</v>
+      </c>
+      <c r="AQ18" t="s">
+        <v>23</v>
+      </c>
+      <c r="AR18" t="s">
+        <v>7</v>
+      </c>
+      <c r="AS18" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="19" spans="3:46" x14ac:dyDescent="0.25">
       <c r="C19">
         <v>400.2</v>
       </c>
@@ -2325,8 +5702,27 @@
       <c r="AL19">
         <v>3.9</v>
       </c>
-    </row>
-    <row r="20" spans="3:38" x14ac:dyDescent="0.25">
+      <c r="AO19" t="s">
+        <v>21</v>
+      </c>
+      <c r="AP19" s="1">
+        <f>I37/C37</f>
+        <v>8.5684155022409704E-3</v>
+      </c>
+      <c r="AQ19" s="1">
+        <f t="shared" ref="AQ19:AS19" si="0">J37/D37</f>
+        <v>8.9214380825565903E-3</v>
+      </c>
+      <c r="AR19" s="1">
+        <f t="shared" si="0"/>
+        <v>7.5878594249201266E-3</v>
+      </c>
+      <c r="AS19" s="1">
+        <f t="shared" si="0"/>
+        <v>6.921970514203523E-3</v>
+      </c>
+    </row>
+    <row r="20" spans="3:46" x14ac:dyDescent="0.25">
       <c r="C20">
         <v>400</v>
       </c>
@@ -2399,8 +5795,27 @@
       <c r="AL20">
         <v>3.8</v>
       </c>
-    </row>
-    <row r="21" spans="3:38" x14ac:dyDescent="0.25">
+      <c r="AO20" t="s">
+        <v>22</v>
+      </c>
+      <c r="AP20" s="1">
+        <f>V37/P37</f>
+        <v>6.9444444444444449E-3</v>
+      </c>
+      <c r="AQ20" s="1">
+        <f t="shared" ref="AQ20:AS20" si="1">W37/Q37</f>
+        <v>6.1018747789175808E-3</v>
+      </c>
+      <c r="AR20" s="1">
+        <f t="shared" si="1"/>
+        <v>7.0134943181818172E-3</v>
+      </c>
+      <c r="AS20" s="1"/>
+      <c r="AT20">
+        <v>0.45691075199999998</v>
+      </c>
+    </row>
+    <row r="21" spans="3:46" x14ac:dyDescent="0.25">
       <c r="C21">
         <v>359.8</v>
       </c>
@@ -2473,8 +5888,27 @@
       <c r="AL21">
         <v>4.5999999999999996</v>
       </c>
-    </row>
-    <row r="22" spans="3:38" x14ac:dyDescent="0.25">
+      <c r="AO21" t="s">
+        <v>20</v>
+      </c>
+      <c r="AP21" s="1">
+        <f>AI37/AC37</f>
+        <v>9.2241597169572913E-3</v>
+      </c>
+      <c r="AQ21" s="1">
+        <f t="shared" ref="AQ21:AS21" si="2">AJ37/AD37</f>
+        <v>6.0991779368867668E-3</v>
+      </c>
+      <c r="AR21" s="1">
+        <f t="shared" si="2"/>
+        <v>7.4946466809421835E-3</v>
+      </c>
+      <c r="AS21" s="1">
+        <f t="shared" si="2"/>
+        <v>6.7677314564158087E-3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:46" x14ac:dyDescent="0.25">
       <c r="C22">
         <v>248</v>
       </c>
@@ -2548,7 +5982,7 @@
         <v>1.4</v>
       </c>
     </row>
-    <row r="23" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:46" x14ac:dyDescent="0.25">
       <c r="C23">
         <v>309.2</v>
       </c>
@@ -2622,7 +6056,7 @@
         <v>3.6</v>
       </c>
     </row>
-    <row r="24" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="24" spans="3:46" x14ac:dyDescent="0.25">
       <c r="C24">
         <v>307.39999999999998</v>
       </c>
@@ -2696,7 +6130,7 @@
         <v>2.2000000000000002</v>
       </c>
     </row>
-    <row r="25" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="25" spans="3:46" x14ac:dyDescent="0.25">
       <c r="C25">
         <v>383.2</v>
       </c>
@@ -2770,7 +6204,7 @@
         <v>5.2</v>
       </c>
     </row>
-    <row r="26" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="26" spans="3:46" x14ac:dyDescent="0.25">
       <c r="C26">
         <v>371</v>
       </c>
@@ -2844,7 +6278,7 @@
         <v>4.3</v>
       </c>
     </row>
-    <row r="27" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="27" spans="3:46" x14ac:dyDescent="0.25">
       <c r="C27">
         <v>380.2</v>
       </c>
@@ -2918,7 +6352,7 @@
         <v>5.9</v>
       </c>
     </row>
-    <row r="28" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="28" spans="3:46" x14ac:dyDescent="0.25">
       <c r="C28">
         <v>367.8</v>
       </c>
@@ -2992,7 +6426,7 @@
         <v>3.8</v>
       </c>
     </row>
-    <row r="29" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="29" spans="3:46" x14ac:dyDescent="0.25">
       <c r="C29">
         <v>375.8</v>
       </c>
@@ -3066,7 +6500,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="30" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="30" spans="3:46" x14ac:dyDescent="0.25">
       <c r="C30">
         <v>377</v>
       </c>
@@ -3140,7 +6574,7 @@
         <v>3.4</v>
       </c>
     </row>
-    <row r="31" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="31" spans="3:46" x14ac:dyDescent="0.25">
       <c r="C31">
         <v>372.8</v>
       </c>
@@ -3214,7 +6648,7 @@
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="32" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="32" spans="3:46" x14ac:dyDescent="0.25">
       <c r="C32">
         <v>378.4</v>
       </c>
@@ -3593,15 +7027,15 @@
         <v>379.29999999999995</v>
       </c>
       <c r="D37">
-        <f t="shared" ref="D37:F37" si="0">MEDIAN(D7:D36)</f>
+        <f t="shared" ref="D37:F37" si="3">MEDIAN(D7:D36)</f>
         <v>375.5</v>
       </c>
       <c r="E37">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>375.6</v>
       </c>
       <c r="F37">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>556.20000000000005</v>
       </c>
       <c r="H37" t="s">
@@ -3612,15 +7046,15 @@
         <v>3.25</v>
       </c>
       <c r="J37">
-        <f t="shared" ref="J37" si="1">MEDIAN(J7:J36)</f>
+        <f t="shared" ref="J37" si="4">MEDIAN(J7:J36)</f>
         <v>3.3499999999999996</v>
       </c>
       <c r="K37">
-        <f t="shared" ref="K37" si="2">MEDIAN(K7:K36)</f>
+        <f t="shared" ref="K37" si="5">MEDIAN(K7:K36)</f>
         <v>2.8499999999999996</v>
       </c>
       <c r="L37">
-        <f t="shared" ref="L37" si="3">MEDIAN(L7:L36)</f>
+        <f t="shared" ref="L37" si="6">MEDIAN(L7:L36)</f>
         <v>3.8499999999999996</v>
       </c>
       <c r="O37" t="s">
@@ -3631,15 +7065,15 @@
         <v>597.6</v>
       </c>
       <c r="Q37">
-        <f t="shared" ref="Q37" si="4">MEDIAN(Q7:Q36)</f>
+        <f t="shared" ref="Q37" si="7">MEDIAN(Q7:Q36)</f>
         <v>565.4</v>
       </c>
       <c r="R37">
-        <f t="shared" ref="R37" si="5">MEDIAN(R7:R36)</f>
+        <f t="shared" ref="R37" si="8">MEDIAN(R7:R36)</f>
         <v>563.20000000000005</v>
       </c>
       <c r="S37">
-        <f t="shared" ref="S37" si="6">MEDIAN(S7:S36)</f>
+        <f t="shared" ref="S37" si="9">MEDIAN(S7:S36)</f>
         <v>4006.8</v>
       </c>
       <c r="U37" t="s">
@@ -3650,15 +7084,15 @@
         <v>4.1500000000000004</v>
       </c>
       <c r="W37">
-        <f t="shared" ref="W37" si="7">MEDIAN(W7:W36)</f>
+        <f t="shared" ref="W37" si="10">MEDIAN(W7:W36)</f>
         <v>3.45</v>
       </c>
       <c r="X37">
-        <f t="shared" ref="X37" si="8">MEDIAN(X7:X36)</f>
+        <f t="shared" ref="X37" si="11">MEDIAN(X7:X36)</f>
         <v>3.9499999999999997</v>
       </c>
       <c r="Y37">
-        <f t="shared" ref="Y37" si="9">MEDIAN(Y7:Y36)</f>
+        <f t="shared" ref="Y37" si="12">MEDIAN(Y7:Y36)</f>
         <v>1830.75</v>
       </c>
       <c r="AB37" t="s">
@@ -3669,15 +7103,15 @@
         <v>395.70000000000005</v>
       </c>
       <c r="AD37">
-        <f t="shared" ref="AD37" si="10">MEDIAN(AD7:AD36)</f>
+        <f t="shared" ref="AD37" si="13">MEDIAN(AD7:AD36)</f>
         <v>377.1</v>
       </c>
       <c r="AE37">
-        <f t="shared" ref="AE37" si="11">MEDIAN(AE7:AE36)</f>
+        <f t="shared" ref="AE37" si="14">MEDIAN(AE7:AE36)</f>
         <v>373.6</v>
       </c>
       <c r="AF37">
-        <f t="shared" ref="AF37" si="12">MEDIAN(AF7:AF36)</f>
+        <f t="shared" ref="AF37" si="15">MEDIAN(AF7:AF36)</f>
         <v>554.1</v>
       </c>
       <c r="AH37" t="s">
@@ -3688,15 +7122,15 @@
         <v>3.6500000000000004</v>
       </c>
       <c r="AJ37">
-        <f t="shared" ref="AJ37" si="13">MEDIAN(AJ7:AJ36)</f>
+        <f t="shared" ref="AJ37" si="16">MEDIAN(AJ7:AJ36)</f>
         <v>2.2999999999999998</v>
       </c>
       <c r="AK37">
-        <f t="shared" ref="AK37" si="14">MEDIAN(AK7:AK36)</f>
+        <f t="shared" ref="AK37" si="17">MEDIAN(AK7:AK36)</f>
         <v>2.8</v>
       </c>
       <c r="AL37">
-        <f t="shared" ref="AL37" si="15">MEDIAN(AL7:AL36)</f>
+        <f t="shared" ref="AL37" si="18">MEDIAN(AL7:AL36)</f>
         <v>3.75</v>
       </c>
     </row>
@@ -3705,115 +7139,115 @@
         <v>11</v>
       </c>
       <c r="C38">
-        <f>AVEDEV(C7:C36)</f>
-        <v>21.690666666666683</v>
+        <f>STDEV(C7:C36)</f>
+        <v>34.192061322348856</v>
       </c>
       <c r="D38">
-        <f t="shared" ref="D38:F38" si="16">AVEDEV(D7:D36)</f>
-        <v>9.9466666666666672</v>
+        <f t="shared" ref="D38:F38" si="19">STDEV(D7:D36)</f>
+        <v>11.211957902168558</v>
       </c>
       <c r="E38">
-        <f t="shared" si="16"/>
-        <v>10.875555555555547</v>
+        <f t="shared" si="19"/>
+        <v>12.694058706212978</v>
       </c>
       <c r="F38">
-        <f t="shared" si="16"/>
-        <v>3.3266666666666653</v>
+        <f t="shared" si="19"/>
+        <v>3.9570394134428564</v>
       </c>
       <c r="H38" t="s">
         <v>11</v>
       </c>
       <c r="I38">
-        <f>AVEDEV(I7:I36)</f>
-        <v>2.2120000000000002</v>
+        <f>STDEV(I7:I36)</f>
+        <v>3.3951689816256723</v>
       </c>
       <c r="J38">
-        <f t="shared" ref="J38:L38" si="17">AVEDEV(J7:J36)</f>
-        <v>1.3866666666666667</v>
+        <f t="shared" ref="J38:L38" si="20">STDEV(J7:J36)</f>
+        <v>1.8262454418267833</v>
       </c>
       <c r="K38">
-        <f t="shared" si="17"/>
-        <v>0.98377777777777786</v>
+        <f t="shared" si="20"/>
+        <v>1.1345615386824419</v>
       </c>
       <c r="L38">
-        <f t="shared" si="17"/>
-        <v>1.4106666666666665</v>
+        <f t="shared" si="20"/>
+        <v>1.7609721714171838</v>
       </c>
       <c r="O38" t="s">
         <v>11</v>
       </c>
       <c r="P38">
-        <f>AVEDEV(P7:P36)</f>
-        <v>15.160444444444476</v>
+        <f>STDEV(P7:P36)</f>
+        <v>16.937897384743252</v>
       </c>
       <c r="Q38">
-        <f t="shared" ref="Q38:S38" si="18">AVEDEV(Q7:Q36)</f>
-        <v>15.768888888888876</v>
+        <f t="shared" ref="Q38:S38" si="21">STDEV(Q7:Q36)</f>
+        <v>17.528281252825696</v>
       </c>
       <c r="R38">
-        <f t="shared" si="18"/>
-        <v>15.19644444444446</v>
+        <f t="shared" si="21"/>
+        <v>22.445024536337261</v>
       </c>
       <c r="S38">
-        <f t="shared" si="18"/>
-        <v>85.317777777777863</v>
+        <f t="shared" si="21"/>
+        <v>113.18344076925663</v>
       </c>
       <c r="U38" t="s">
         <v>11</v>
       </c>
       <c r="V38">
-        <f>AVEDEV(V7:V36)</f>
-        <v>1.2075555555555553</v>
+        <f>STDEV(V7:V36)</f>
+        <v>1.4592117223263821</v>
       </c>
       <c r="W38">
-        <f t="shared" ref="W38:Y38" si="19">AVEDEV(W7:W36)</f>
-        <v>1.2775555555555553</v>
+        <f t="shared" ref="W38:Y38" si="22">STDEV(W7:W36)</f>
+        <v>1.5969115306683759</v>
       </c>
       <c r="X38">
-        <f t="shared" si="19"/>
-        <v>1.5177777777777777</v>
+        <f t="shared" si="22"/>
+        <v>2.026944929475496</v>
       </c>
       <c r="Y38">
-        <f t="shared" si="19"/>
-        <v>45.296666666666695</v>
+        <f t="shared" si="22"/>
+        <v>61.913157664215667</v>
       </c>
       <c r="AB38" t="s">
         <v>11</v>
       </c>
       <c r="AC38">
-        <f>AVEDEV(AC7:AC36)</f>
-        <v>10.621777777777748</v>
+        <f>STDEV(AC7:AC36)</f>
+        <v>12.073622812399433</v>
       </c>
       <c r="AD38">
-        <f t="shared" ref="AD38:AF38" si="20">AVEDEV(AD7:AD36)</f>
-        <v>10.022222222222188</v>
+        <f t="shared" ref="AD38:AF38" si="23">STDEV(AD7:AD36)</f>
+        <v>11.264510437755332</v>
       </c>
       <c r="AE38">
-        <f t="shared" si="20"/>
-        <v>10.622222222222229</v>
+        <f t="shared" si="23"/>
+        <v>11.976607467759045</v>
       </c>
       <c r="AF38">
-        <f t="shared" si="20"/>
-        <v>4.4559999999999871</v>
+        <f t="shared" si="23"/>
+        <v>7.8544840403574439</v>
       </c>
       <c r="AH38" t="s">
         <v>11</v>
       </c>
       <c r="AI38">
-        <f>AVEDEV(AI7:AI36)</f>
-        <v>1.4053333333333329</v>
+        <f>STDEV(AI7:AI36)</f>
+        <v>1.7677864592527113</v>
       </c>
       <c r="AJ38">
-        <f t="shared" ref="AJ38:AL38" si="21">AVEDEV(AJ7:AJ36)</f>
-        <v>1.0653333333333335</v>
+        <f t="shared" ref="AJ38:AL38" si="24">STDEV(AJ7:AJ36)</f>
+        <v>1.3050036332357928</v>
       </c>
       <c r="AK38">
-        <f t="shared" si="21"/>
-        <v>0.82333333333333347</v>
+        <f t="shared" si="24"/>
+        <v>1.0319549575842746</v>
       </c>
       <c r="AL38">
-        <f t="shared" si="21"/>
-        <v>1.1600000000000004</v>
+        <f t="shared" si="24"/>
+        <v>1.677385074947064</v>
       </c>
     </row>
     <row r="40" spans="2:38" x14ac:dyDescent="0.25">
@@ -6139,15 +9573,15 @@
         <v>375</v>
       </c>
       <c r="D72">
-        <f t="shared" ref="D72" si="22">MEDIAN(D42:D71)</f>
+        <f t="shared" ref="D72" si="25">MEDIAN(D42:D71)</f>
         <v>370.5</v>
       </c>
       <c r="E72">
-        <f t="shared" ref="E72" si="23">MEDIAN(E42:E71)</f>
+        <f t="shared" ref="E72" si="26">MEDIAN(E42:E71)</f>
         <v>371</v>
       </c>
       <c r="F72">
-        <f t="shared" ref="F72" si="24">MEDIAN(F42:F71)</f>
+        <f t="shared" ref="F72" si="27">MEDIAN(F42:F71)</f>
         <v>550.5</v>
       </c>
       <c r="H72" t="s">
@@ -6158,15 +9592,15 @@
         <v>383.5</v>
       </c>
       <c r="J72">
-        <f t="shared" ref="J72" si="25">MEDIAN(J42:J71)</f>
+        <f t="shared" ref="J72" si="28">MEDIAN(J42:J71)</f>
         <v>381.5</v>
       </c>
       <c r="K72">
-        <f t="shared" ref="K72" si="26">MEDIAN(K42:K71)</f>
+        <f t="shared" ref="K72" si="29">MEDIAN(K42:K71)</f>
         <v>379.5</v>
       </c>
       <c r="L72">
-        <f t="shared" ref="L72" si="27">MEDIAN(L42:L71)</f>
+        <f t="shared" ref="L72" si="30">MEDIAN(L42:L71)</f>
         <v>562.5</v>
       </c>
       <c r="O72" t="s">
@@ -6177,15 +9611,15 @@
         <v>591.5</v>
       </c>
       <c r="Q72">
-        <f t="shared" ref="Q72" si="28">MEDIAN(Q42:Q71)</f>
+        <f t="shared" ref="Q72" si="31">MEDIAN(Q42:Q71)</f>
         <v>562.5</v>
       </c>
       <c r="R72">
-        <f t="shared" ref="R72" si="29">MEDIAN(R42:R71)</f>
+        <f t="shared" ref="R72" si="32">MEDIAN(R42:R71)</f>
         <v>557.5</v>
       </c>
       <c r="S72">
-        <f t="shared" ref="S72" si="30">MEDIAN(S42:S71)</f>
+        <f t="shared" ref="S72" si="33">MEDIAN(S42:S71)</f>
         <v>536.5</v>
       </c>
       <c r="U72" t="s">
@@ -6196,15 +9630,15 @@
         <v>603.5</v>
       </c>
       <c r="W72">
-        <f t="shared" ref="W72" si="31">MEDIAN(W42:W71)</f>
+        <f t="shared" ref="W72" si="34">MEDIAN(W42:W71)</f>
         <v>569.5</v>
       </c>
       <c r="X72">
-        <f t="shared" ref="X72" si="32">MEDIAN(X42:X71)</f>
+        <f t="shared" ref="X72" si="35">MEDIAN(X42:X71)</f>
         <v>567</v>
       </c>
       <c r="Y72">
-        <f t="shared" ref="Y72" si="33">MEDIAN(Y42:Y71)</f>
+        <f t="shared" ref="Y72" si="36">MEDIAN(Y42:Y71)</f>
         <v>5748.5</v>
       </c>
       <c r="AB72" t="s">
@@ -6215,15 +9649,15 @@
         <v>390</v>
       </c>
       <c r="AD72">
-        <f t="shared" ref="AD72" si="34">MEDIAN(AD42:AD71)</f>
+        <f t="shared" ref="AD72" si="37">MEDIAN(AD42:AD71)</f>
         <v>373.5</v>
       </c>
       <c r="AE72">
-        <f t="shared" ref="AE72" si="35">MEDIAN(AE42:AE71)</f>
+        <f t="shared" ref="AE72" si="38">MEDIAN(AE42:AE71)</f>
         <v>370</v>
       </c>
       <c r="AF72">
-        <f t="shared" ref="AF72" si="36">MEDIAN(AF42:AF71)</f>
+        <f t="shared" ref="AF72" si="39">MEDIAN(AF42:AF71)</f>
         <v>548.5</v>
       </c>
       <c r="AH72" t="s">
@@ -6234,15 +9668,15 @@
         <v>399</v>
       </c>
       <c r="AJ72">
-        <f t="shared" ref="AJ72" si="37">MEDIAN(AJ42:AJ71)</f>
+        <f t="shared" ref="AJ72" si="40">MEDIAN(AJ42:AJ71)</f>
         <v>380.5</v>
       </c>
       <c r="AK72">
-        <f t="shared" ref="AK72" si="38">MEDIAN(AK42:AK71)</f>
+        <f t="shared" ref="AK72" si="41">MEDIAN(AK42:AK71)</f>
         <v>379</v>
       </c>
       <c r="AL72">
-        <f t="shared" ref="AL72" si="39">MEDIAN(AL42:AL71)</f>
+        <f t="shared" ref="AL72" si="42">MEDIAN(AL42:AL71)</f>
         <v>560</v>
       </c>
     </row>
@@ -6251,115 +9685,115 @@
         <v>11</v>
       </c>
       <c r="C73">
-        <f>AVEDEV(C42:C71)</f>
-        <v>24.662222222222219</v>
+        <f>STDEV(C42:C71)</f>
+        <v>39.541103304975152</v>
       </c>
       <c r="D73">
-        <f t="shared" ref="D73:F73" si="40">AVEDEV(D42:D71)</f>
-        <v>9.1022222222222204</v>
+        <f t="shared" ref="D73:F73" si="43">STDEV(D42:D71)</f>
+        <v>10.487211697844296</v>
       </c>
       <c r="E73">
-        <f t="shared" si="40"/>
-        <v>11.048888888888889</v>
+        <f t="shared" si="43"/>
+        <v>12.945331559886842</v>
       </c>
       <c r="F73">
-        <f t="shared" si="40"/>
-        <v>4.333333333333333</v>
+        <f t="shared" si="43"/>
+        <v>5.3261445804591148</v>
       </c>
       <c r="H73" t="s">
         <v>11</v>
       </c>
       <c r="I73">
-        <f>AVEDEV(I42:I71)</f>
-        <v>19.524444444444445</v>
+        <f>STDEV(I42:I71)</f>
+        <v>30.784829821300569</v>
       </c>
       <c r="J73">
-        <f t="shared" ref="J73:L73" si="41">AVEDEV(J42:J71)</f>
-        <v>10.933333333333341</v>
+        <f t="shared" ref="J73:L73" si="44">STDEV(J42:J71)</f>
+        <v>12.510960711753293</v>
       </c>
       <c r="K73">
-        <f t="shared" si="41"/>
-        <v>10.799999999999992</v>
+        <f t="shared" si="44"/>
+        <v>12.380045122752152</v>
       </c>
       <c r="L73">
-        <f t="shared" si="41"/>
-        <v>3.5466666666666695</v>
+        <f t="shared" si="44"/>
+        <v>4.4075431684339978</v>
       </c>
       <c r="O73" t="s">
         <v>11</v>
       </c>
       <c r="P73">
-        <f>AVEDEV(P42:P71)</f>
-        <v>15.620000000000012</v>
+        <f>STDEV(P42:P71)</f>
+        <v>17.234988470730315</v>
       </c>
       <c r="Q73">
-        <f t="shared" ref="Q73:S73" si="42">AVEDEV(Q42:Q71)</f>
-        <v>15.111111111111109</v>
+        <f t="shared" ref="Q73:S73" si="45">STDEV(Q42:Q71)</f>
+        <v>17.103101822594137</v>
       </c>
       <c r="R73">
-        <f t="shared" si="42"/>
-        <v>15.135555555555554</v>
+        <f t="shared" si="45"/>
+        <v>23.571875897631337</v>
       </c>
       <c r="S73">
-        <f t="shared" si="42"/>
-        <v>6.2688888888888865</v>
+        <f t="shared" si="45"/>
+        <v>7.9813719904897766</v>
       </c>
       <c r="U73" t="s">
         <v>11</v>
       </c>
       <c r="V73">
-        <f>AVEDEV(V42:V71)</f>
-        <v>16.151111111111124</v>
+        <f>STDEV(V42:V71)</f>
+        <v>17.953836077146786</v>
       </c>
       <c r="W73">
-        <f t="shared" ref="W73:Y73" si="43">AVEDEV(W42:W71)</f>
-        <v>16.844444444444434</v>
+        <f t="shared" ref="W73:Y73" si="46">STDEV(W42:W71)</f>
+        <v>18.692582584494868</v>
       </c>
       <c r="X73">
-        <f t="shared" si="43"/>
-        <v>15.666666666666659</v>
+        <f t="shared" si="46"/>
+        <v>21.577579892633661</v>
       </c>
       <c r="Y73">
-        <f t="shared" si="43"/>
-        <v>145.04888888888891</v>
+        <f t="shared" si="46"/>
+        <v>176.80218506477277</v>
       </c>
       <c r="AB73" t="s">
         <v>11</v>
       </c>
       <c r="AC73">
-        <f>AVEDEV(AC42:AC71)</f>
-        <v>9.9711111111111066</v>
+        <f>STDEV(AC42:AC71)</f>
+        <v>11.649132965614854</v>
       </c>
       <c r="AD73">
-        <f t="shared" ref="AD73:AF73" si="44">AVEDEV(AD42:AD71)</f>
-        <v>9.908888888888896</v>
+        <f t="shared" ref="AD73:AF73" si="47">STDEV(AD42:AD71)</f>
+        <v>11.372936215459909</v>
       </c>
       <c r="AE73">
-        <f t="shared" si="44"/>
-        <v>10.935555555555554</v>
+        <f t="shared" si="47"/>
+        <v>12.449853435872756</v>
       </c>
       <c r="AF73">
-        <f t="shared" si="44"/>
-        <v>5.5444444444444345</v>
+        <f t="shared" si="47"/>
+        <v>9.5306523036638637</v>
       </c>
       <c r="AH73" t="s">
         <v>11</v>
       </c>
       <c r="AI73">
-        <f>AVEDEV(AI42:AI71)</f>
-        <v>11.377777777777787</v>
+        <f>STDEV(AI42:AI71)</f>
+        <v>13.257355364640713</v>
       </c>
       <c r="AJ73">
-        <f t="shared" ref="AJ73:AL73" si="45">AVEDEV(AJ42:AJ71)</f>
-        <v>10.311111111111108</v>
+        <f t="shared" ref="AJ73:AL73" si="48">STDEV(AJ42:AJ71)</f>
+        <v>11.52129462712665</v>
       </c>
       <c r="AK73">
-        <f t="shared" si="45"/>
-        <v>10.33333333333333</v>
+        <f t="shared" si="48"/>
+        <v>11.798304963002101</v>
       </c>
       <c r="AL73">
-        <f t="shared" si="45"/>
-        <v>4.2155555555555413</v>
+        <f t="shared" si="48"/>
+        <v>6.6782370858417908</v>
       </c>
     </row>
     <row r="75" spans="1:38" x14ac:dyDescent="0.25">
@@ -6551,7 +9985,7 @@
         <v>5.9</v>
       </c>
     </row>
-    <row r="81" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="81" spans="3:46" x14ac:dyDescent="0.25">
       <c r="C81">
         <v>162</v>
       </c>
@@ -6624,8 +10058,20 @@
       <c r="AL81">
         <v>5.8</v>
       </c>
-    </row>
-    <row r="82" spans="3:38" x14ac:dyDescent="0.25">
+      <c r="AP81" t="s">
+        <v>5</v>
+      </c>
+      <c r="AQ81" t="s">
+        <v>23</v>
+      </c>
+      <c r="AR81" t="s">
+        <v>7</v>
+      </c>
+      <c r="AS81" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="82" spans="3:46" x14ac:dyDescent="0.25">
       <c r="C82">
         <v>160.30000000000001</v>
       </c>
@@ -6698,8 +10144,27 @@
       <c r="AL82">
         <v>5.8</v>
       </c>
-    </row>
-    <row r="83" spans="3:38" x14ac:dyDescent="0.25">
+      <c r="AO82" t="s">
+        <v>21</v>
+      </c>
+      <c r="AP82" s="1">
+        <f>I110/C110</f>
+        <v>2.620087336244541E-2</v>
+      </c>
+      <c r="AQ82" s="1">
+        <f t="shared" ref="AQ82:AS82" si="49">J110/D110</f>
+        <v>2.6675134963480472E-2</v>
+      </c>
+      <c r="AR82" s="1">
+        <f t="shared" si="49"/>
+        <v>2.7577561892823566E-2</v>
+      </c>
+      <c r="AS82" s="1">
+        <f t="shared" si="49"/>
+        <v>2.496798975672215E-2</v>
+      </c>
+    </row>
+    <row r="83" spans="3:46" x14ac:dyDescent="0.25">
       <c r="C83">
         <v>176.8</v>
       </c>
@@ -6772,8 +10237,27 @@
       <c r="AL83">
         <v>3.7</v>
       </c>
-    </row>
-    <row r="84" spans="3:38" x14ac:dyDescent="0.25">
+      <c r="AO83" t="s">
+        <v>22</v>
+      </c>
+      <c r="AP83" s="1">
+        <f>V110/P110</f>
+        <v>2.3609115171422706E-2</v>
+      </c>
+      <c r="AQ83" s="1">
+        <f t="shared" ref="AQ83:AS83" si="50">W110/Q110</f>
+        <v>2.271779908295123E-2</v>
+      </c>
+      <c r="AR83" s="1">
+        <f t="shared" si="50"/>
+        <v>2.2324222824953058E-2</v>
+      </c>
+      <c r="AS83" s="1"/>
+      <c r="AT83">
+        <v>0.28330132600000002</v>
+      </c>
+    </row>
+    <row r="84" spans="3:46" x14ac:dyDescent="0.25">
       <c r="C84">
         <v>166.8</v>
       </c>
@@ -6846,8 +10330,27 @@
       <c r="AL84">
         <v>6.6</v>
       </c>
-    </row>
-    <row r="85" spans="3:38" x14ac:dyDescent="0.25">
+      <c r="AO84" t="s">
+        <v>20</v>
+      </c>
+      <c r="AP84" s="1">
+        <f>AI110/AC110</f>
+        <v>2.8150991682661549E-2</v>
+      </c>
+      <c r="AQ84" s="1">
+        <f t="shared" ref="AQ84:AS84" si="51">AJ110/AD110</f>
+        <v>3.1486146095717885E-2</v>
+      </c>
+      <c r="AR84" s="1">
+        <f t="shared" si="51"/>
+        <v>2.9054916985951473E-2</v>
+      </c>
+      <c r="AS84" s="1">
+        <f t="shared" si="51"/>
+        <v>2.3240800516462237E-2</v>
+      </c>
+    </row>
+    <row r="85" spans="3:46" x14ac:dyDescent="0.25">
       <c r="C85">
         <v>154.6</v>
       </c>
@@ -6921,7 +10424,7 @@
         <v>6.5</v>
       </c>
     </row>
-    <row r="86" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="86" spans="3:46" x14ac:dyDescent="0.25">
       <c r="C86">
         <v>160.30000000000001</v>
       </c>
@@ -6995,7 +10498,7 @@
         <v>5.0999999999999996</v>
       </c>
     </row>
-    <row r="87" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="87" spans="3:46" x14ac:dyDescent="0.25">
       <c r="C87">
         <v>167.8</v>
       </c>
@@ -7069,7 +10572,7 @@
         <v>5.8</v>
       </c>
     </row>
-    <row r="88" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="88" spans="3:46" x14ac:dyDescent="0.25">
       <c r="C88">
         <v>163.5</v>
       </c>
@@ -7143,7 +10646,7 @@
         <v>5.3</v>
       </c>
     </row>
-    <row r="89" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="89" spans="3:46" x14ac:dyDescent="0.25">
       <c r="C89">
         <v>160.5</v>
       </c>
@@ -7217,7 +10720,7 @@
         <v>6.7</v>
       </c>
     </row>
-    <row r="90" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="90" spans="3:46" x14ac:dyDescent="0.25">
       <c r="C90">
         <v>156.4</v>
       </c>
@@ -7291,7 +10794,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="91" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="91" spans="3:46" x14ac:dyDescent="0.25">
       <c r="C91">
         <v>165.5</v>
       </c>
@@ -7365,7 +10868,7 @@
         <v>3.8</v>
       </c>
     </row>
-    <row r="92" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="92" spans="3:46" x14ac:dyDescent="0.25">
       <c r="C92">
         <v>164.8</v>
       </c>
@@ -7439,7 +10942,7 @@
         <v>6.5</v>
       </c>
     </row>
-    <row r="93" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="93" spans="3:46" x14ac:dyDescent="0.25">
       <c r="C93">
         <v>158.9</v>
       </c>
@@ -7513,7 +11016,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="94" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="94" spans="3:46" x14ac:dyDescent="0.25">
       <c r="C94">
         <v>161.4</v>
       </c>
@@ -7587,7 +11090,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="95" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="95" spans="3:46" x14ac:dyDescent="0.25">
       <c r="C95">
         <v>169.8</v>
       </c>
@@ -7661,7 +11164,7 @@
         <v>4.5999999999999996</v>
       </c>
     </row>
-    <row r="96" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="96" spans="3:46" x14ac:dyDescent="0.25">
       <c r="C96">
         <v>158.1</v>
       </c>
@@ -8706,15 +12209,15 @@
         <v>160.30000000000001</v>
       </c>
       <c r="D110">
-        <f t="shared" ref="D110" si="46">MEDIAN(D80:D109)</f>
+        <f t="shared" ref="D110" si="52">MEDIAN(D80:D109)</f>
         <v>157.44999999999999</v>
       </c>
       <c r="E110">
-        <f t="shared" ref="E110" si="47">MEDIAN(E80:E109)</f>
+        <f t="shared" ref="E110" si="53">MEDIAN(E80:E109)</f>
         <v>159.55000000000001</v>
       </c>
       <c r="F110">
-        <f t="shared" ref="F110" si="48">MEDIAN(F80:F109)</f>
+        <f t="shared" ref="F110" si="54">MEDIAN(F80:F109)</f>
         <v>234.3</v>
       </c>
       <c r="H110" t="s">
@@ -8725,15 +12228,15 @@
         <v>4.1999999999999993</v>
       </c>
       <c r="J110">
-        <f t="shared" ref="J110" si="49">MEDIAN(J80:J109)</f>
+        <f t="shared" ref="J110" si="55">MEDIAN(J80:J109)</f>
         <v>4.2</v>
       </c>
       <c r="K110">
-        <f t="shared" ref="K110" si="50">MEDIAN(K80:K109)</f>
+        <f t="shared" ref="K110" si="56">MEDIAN(K80:K109)</f>
         <v>4.4000000000000004</v>
       </c>
       <c r="L110">
-        <f t="shared" ref="L110" si="51">MEDIAN(L80:L109)</f>
+        <f t="shared" ref="L110" si="57">MEDIAN(L80:L109)</f>
         <v>5.85</v>
       </c>
       <c r="O110" t="s">
@@ -8744,15 +12247,15 @@
         <v>243.55</v>
       </c>
       <c r="Q110">
-        <f t="shared" ref="Q110" si="52">MEDIAN(Q80:Q109)</f>
+        <f t="shared" ref="Q110" si="58">MEDIAN(Q80:Q109)</f>
         <v>239.9</v>
       </c>
       <c r="R110">
-        <f t="shared" ref="R110" si="53">MEDIAN(R80:R109)</f>
+        <f t="shared" ref="R110" si="59">MEDIAN(R80:R109)</f>
         <v>239.64999999999998</v>
       </c>
       <c r="S110">
-        <f t="shared" ref="S110" si="54">MEDIAN(S80:S109)</f>
+        <f t="shared" ref="S110" si="60">MEDIAN(S80:S109)</f>
         <v>3306.55</v>
       </c>
       <c r="U110" t="s">
@@ -8763,15 +12266,15 @@
         <v>5.75</v>
       </c>
       <c r="W110">
-        <f t="shared" ref="W110" si="55">MEDIAN(W80:W109)</f>
+        <f t="shared" ref="W110" si="61">MEDIAN(W80:W109)</f>
         <v>5.45</v>
       </c>
       <c r="X110">
-        <f t="shared" ref="X110" si="56">MEDIAN(X80:X109)</f>
+        <f t="shared" ref="X110" si="62">MEDIAN(X80:X109)</f>
         <v>5.35</v>
       </c>
       <c r="Y110">
-        <f t="shared" ref="Y110" si="57">MEDIAN(Y80:Y109)</f>
+        <f t="shared" ref="Y110" si="63">MEDIAN(Y80:Y109)</f>
         <v>936.75</v>
       </c>
       <c r="AB110" t="s">
@@ -8782,15 +12285,15 @@
         <v>156.30000000000001</v>
       </c>
       <c r="AD110">
-        <f t="shared" ref="AD110" si="58">MEDIAN(AD80:AD109)</f>
+        <f t="shared" ref="AD110" si="64">MEDIAN(AD80:AD109)</f>
         <v>158.80000000000001</v>
       </c>
       <c r="AE110">
-        <f t="shared" ref="AE110" si="59">MEDIAN(AE80:AE109)</f>
+        <f t="shared" ref="AE110" si="65">MEDIAN(AE80:AE109)</f>
         <v>156.6</v>
       </c>
       <c r="AF110">
-        <f t="shared" ref="AF110" si="60">MEDIAN(AF80:AF109)</f>
+        <f t="shared" ref="AF110" si="66">MEDIAN(AF80:AF109)</f>
         <v>232.35</v>
       </c>
       <c r="AH110" t="s">
@@ -8801,15 +12304,15 @@
         <v>4.4000000000000004</v>
       </c>
       <c r="AJ110">
-        <f t="shared" ref="AJ110" si="61">MEDIAN(AJ80:AJ109)</f>
+        <f t="shared" ref="AJ110" si="67">MEDIAN(AJ80:AJ109)</f>
         <v>5</v>
       </c>
       <c r="AK110">
-        <f t="shared" ref="AK110" si="62">MEDIAN(AK80:AK109)</f>
+        <f t="shared" ref="AK110" si="68">MEDIAN(AK80:AK109)</f>
         <v>4.5500000000000007</v>
       </c>
       <c r="AL110">
-        <f t="shared" ref="AL110" si="63">MEDIAN(AL80:AL109)</f>
+        <f t="shared" ref="AL110" si="69">MEDIAN(AL80:AL109)</f>
         <v>5.4</v>
       </c>
     </row>
@@ -8822,15 +12325,15 @@
         <v>4.4782222222222243</v>
       </c>
       <c r="D111">
-        <f t="shared" ref="D111:F111" si="64">AVEDEV(D80:D109)</f>
+        <f t="shared" ref="D111:F111" si="70">AVEDEV(D80:D109)</f>
         <v>4.0448888888888908</v>
       </c>
       <c r="E111">
-        <f t="shared" si="64"/>
+        <f t="shared" si="70"/>
         <v>5.2439999999999989</v>
       </c>
       <c r="F111">
-        <f t="shared" si="64"/>
+        <f t="shared" si="70"/>
         <v>4.2266666666666675</v>
       </c>
       <c r="H111" t="s">
@@ -8841,15 +12344,15 @@
         <v>0.89133333333333364</v>
       </c>
       <c r="J111">
-        <f t="shared" ref="J111:L111" si="65">AVEDEV(J80:J109)</f>
+        <f t="shared" ref="J111:L111" si="71">AVEDEV(J80:J109)</f>
         <v>0.76244444444444426</v>
       </c>
       <c r="K111">
-        <f t="shared" si="65"/>
+        <f t="shared" si="71"/>
         <v>0.81466666666666687</v>
       </c>
       <c r="L111">
-        <f t="shared" si="65"/>
+        <f t="shared" si="71"/>
         <v>0.91666666666666641</v>
       </c>
       <c r="O111" t="s">
@@ -8860,15 +12363,15 @@
         <v>6.8533333333333335</v>
       </c>
       <c r="Q111">
-        <f t="shared" ref="Q111:S111" si="66">AVEDEV(Q80:Q109)</f>
+        <f t="shared" ref="Q111:S111" si="72">AVEDEV(Q80:Q109)</f>
         <v>5.2153333333333247</v>
       </c>
       <c r="R111">
-        <f t="shared" si="66"/>
+        <f t="shared" si="72"/>
         <v>6.3866666666666667</v>
       </c>
       <c r="S111">
-        <f t="shared" si="66"/>
+        <f t="shared" si="72"/>
         <v>41.76222222222227</v>
       </c>
       <c r="U111" t="s">
@@ -8879,15 +12382,15 @@
         <v>1.0962222222222213</v>
       </c>
       <c r="W111">
-        <f t="shared" ref="W111:Y111" si="67">AVEDEV(W80:W109)</f>
+        <f t="shared" ref="W111:Y111" si="73">AVEDEV(W80:W109)</f>
         <v>1.2773333333333337</v>
       </c>
       <c r="X111">
-        <f t="shared" si="67"/>
+        <f t="shared" si="73"/>
         <v>1.1606666666666667</v>
       </c>
       <c r="Y111">
-        <f t="shared" si="67"/>
+        <f t="shared" si="73"/>
         <v>15.590222222222247</v>
       </c>
       <c r="AB111" t="s">
@@ -8898,15 +12401,15 @@
         <v>5.3760000000000021</v>
       </c>
       <c r="AD111">
-        <f t="shared" ref="AD111:AF111" si="68">AVEDEV(AD80:AD109)</f>
+        <f t="shared" ref="AD111:AF111" si="74">AVEDEV(AD80:AD109)</f>
         <v>4.2866666666666653</v>
       </c>
       <c r="AE111">
-        <f t="shared" si="68"/>
+        <f t="shared" si="74"/>
         <v>3.6684444444444466</v>
       </c>
       <c r="AF111">
-        <f t="shared" si="68"/>
+        <f t="shared" si="74"/>
         <v>5.3408888888888937</v>
       </c>
       <c r="AH111" t="s">
@@ -8917,15 +12420,15 @@
         <v>0.66933333333333356</v>
       </c>
       <c r="AJ111">
-        <f t="shared" ref="AJ111:AL111" si="69">AVEDEV(AJ80:AJ109)</f>
+        <f t="shared" ref="AJ111:AL111" si="75">AVEDEV(AJ80:AJ109)</f>
         <v>0.79999999999999949</v>
       </c>
       <c r="AK111">
-        <f t="shared" si="69"/>
+        <f t="shared" si="75"/>
         <v>0.73666666666666702</v>
       </c>
       <c r="AL111">
-        <f t="shared" si="69"/>
+        <f t="shared" si="75"/>
         <v>0.75955555555555532</v>
       </c>
     </row>
@@ -11243,7 +14746,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="145" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:45" x14ac:dyDescent="0.25">
       <c r="B145" t="s">
         <v>19</v>
       </c>
@@ -11252,15 +14755,15 @@
         <v>153.5</v>
       </c>
       <c r="D145">
-        <f t="shared" ref="D145" si="70">MEDIAN(D115:D144)</f>
+        <f t="shared" ref="D145" si="76">MEDIAN(D115:D144)</f>
         <v>150</v>
       </c>
       <c r="E145">
-        <f t="shared" ref="E145" si="71">MEDIAN(E115:E144)</f>
+        <f t="shared" ref="E145" si="77">MEDIAN(E115:E144)</f>
         <v>151</v>
       </c>
       <c r="F145">
-        <f t="shared" ref="F145" si="72">MEDIAN(F115:F144)</f>
+        <f t="shared" ref="F145" si="78">MEDIAN(F115:F144)</f>
         <v>225.5</v>
       </c>
       <c r="H145" t="s">
@@ -11271,15 +14774,15 @@
         <v>168</v>
       </c>
       <c r="J145">
-        <f t="shared" ref="J145" si="73">MEDIAN(J115:J144)</f>
+        <f t="shared" ref="J145" si="79">MEDIAN(J115:J144)</f>
         <v>164.5</v>
       </c>
       <c r="K145">
-        <f t="shared" ref="K145" si="74">MEDIAN(K115:K144)</f>
+        <f t="shared" ref="K145" si="80">MEDIAN(K115:K144)</f>
         <v>167</v>
       </c>
       <c r="L145">
-        <f t="shared" ref="L145" si="75">MEDIAN(L115:L144)</f>
+        <f t="shared" ref="L145" si="81">MEDIAN(L115:L144)</f>
         <v>245</v>
       </c>
       <c r="O145" t="s">
@@ -11290,15 +14793,15 @@
         <v>231.5</v>
       </c>
       <c r="Q145">
-        <f t="shared" ref="Q145" si="76">MEDIAN(Q115:Q144)</f>
+        <f t="shared" ref="Q145" si="82">MEDIAN(Q115:Q144)</f>
         <v>232</v>
       </c>
       <c r="R145">
-        <f t="shared" ref="R145" si="77">MEDIAN(R115:R144)</f>
+        <f t="shared" ref="R145" si="83">MEDIAN(R115:R144)</f>
         <v>230</v>
       </c>
       <c r="S145">
-        <f t="shared" ref="S145" si="78">MEDIAN(S115:S144)</f>
+        <f t="shared" ref="S145" si="84">MEDIAN(S115:S144)</f>
         <v>450.5</v>
       </c>
       <c r="U145" t="s">
@@ -11309,15 +14812,15 @@
         <v>255</v>
       </c>
       <c r="W145">
-        <f t="shared" ref="W145" si="79">MEDIAN(W115:W144)</f>
+        <f t="shared" ref="W145" si="85">MEDIAN(W115:W144)</f>
         <v>251</v>
       </c>
       <c r="X145">
-        <f t="shared" ref="X145" si="80">MEDIAN(X115:X144)</f>
+        <f t="shared" ref="X145" si="86">MEDIAN(X115:X144)</f>
         <v>250.5</v>
       </c>
       <c r="Y145">
-        <f t="shared" ref="Y145" si="81">MEDIAN(Y115:Y144)</f>
+        <f t="shared" ref="Y145" si="87">MEDIAN(Y115:Y144)</f>
         <v>4215</v>
       </c>
       <c r="AB145" t="s">
@@ -11328,15 +14831,15 @@
         <v>149</v>
       </c>
       <c r="AD145">
-        <f t="shared" ref="AD145" si="82">MEDIAN(AD115:AD144)</f>
+        <f t="shared" ref="AD145" si="88">MEDIAN(AD115:AD144)</f>
         <v>149.5</v>
       </c>
       <c r="AE145">
-        <f t="shared" ref="AE145" si="83">MEDIAN(AE115:AE144)</f>
+        <f t="shared" ref="AE145" si="89">MEDIAN(AE115:AE144)</f>
         <v>149</v>
       </c>
       <c r="AF145">
-        <f t="shared" ref="AF145" si="84">MEDIAN(AF115:AF144)</f>
+        <f t="shared" ref="AF145" si="90">MEDIAN(AF115:AF144)</f>
         <v>223</v>
       </c>
       <c r="AH145" t="s">
@@ -11347,19 +14850,19 @@
         <v>166</v>
       </c>
       <c r="AJ145">
-        <f t="shared" ref="AJ145" si="85">MEDIAN(AJ115:AJ144)</f>
+        <f t="shared" ref="AJ145" si="91">MEDIAN(AJ115:AJ144)</f>
         <v>168</v>
       </c>
       <c r="AK145">
-        <f t="shared" ref="AK145" si="86">MEDIAN(AK115:AK144)</f>
+        <f t="shared" ref="AK145" si="92">MEDIAN(AK115:AK144)</f>
         <v>164</v>
       </c>
       <c r="AL145">
-        <f t="shared" ref="AL145" si="87">MEDIAN(AL115:AL144)</f>
+        <f t="shared" ref="AL145" si="93">MEDIAN(AL115:AL144)</f>
         <v>242.5</v>
       </c>
     </row>
-    <row r="146" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:45" x14ac:dyDescent="0.25">
       <c r="B146" t="s">
         <v>11</v>
       </c>
@@ -11368,15 +14871,15 @@
         <v>4.666666666666667</v>
       </c>
       <c r="D146">
-        <f t="shared" ref="D146:F146" si="88">AVEDEV(D115:D144)</f>
+        <f t="shared" ref="D146:F146" si="94">AVEDEV(D115:D144)</f>
         <v>4.1022222222222222</v>
       </c>
       <c r="E146">
-        <f t="shared" si="88"/>
+        <f t="shared" si="94"/>
         <v>5.6933333333333334</v>
       </c>
       <c r="F146">
-        <f t="shared" si="88"/>
+        <f t="shared" si="94"/>
         <v>4.4888888888888898</v>
       </c>
       <c r="H146" t="s">
@@ -11387,15 +14890,15 @@
         <v>4.408888888888888</v>
       </c>
       <c r="J146">
-        <f t="shared" ref="J146:L146" si="89">AVEDEV(J115:J144)</f>
+        <f t="shared" ref="J146:L146" si="95">AVEDEV(J115:J144)</f>
         <v>4.8</v>
       </c>
       <c r="K146">
-        <f t="shared" si="89"/>
+        <f t="shared" si="95"/>
         <v>5.1111111111111107</v>
       </c>
       <c r="L146">
-        <f t="shared" si="89"/>
+        <f t="shared" si="95"/>
         <v>4.1688888888888904</v>
       </c>
       <c r="O146" t="s">
@@ -11406,15 +14909,15 @@
         <v>7.9844444444444438</v>
       </c>
       <c r="Q146">
-        <f t="shared" ref="Q146:S146" si="90">AVEDEV(Q115:Q144)</f>
+        <f t="shared" ref="Q146:S146" si="96">AVEDEV(Q115:Q144)</f>
         <v>6.6177777777777784</v>
       </c>
       <c r="R146">
-        <f t="shared" si="90"/>
+        <f t="shared" si="96"/>
         <v>6.333333333333333</v>
       </c>
       <c r="S146">
-        <f t="shared" si="90"/>
+        <f t="shared" si="96"/>
         <v>8.1288888888888895</v>
       </c>
       <c r="U146" t="s">
@@ -11425,15 +14928,15 @@
         <v>7.4200000000000008</v>
       </c>
       <c r="W146">
-        <f t="shared" ref="W146:Y146" si="91">AVEDEV(W115:W144)</f>
+        <f t="shared" ref="W146:Y146" si="97">AVEDEV(W115:W144)</f>
         <v>6.3555555555555561</v>
       </c>
       <c r="X146">
-        <f t="shared" si="91"/>
+        <f t="shared" si="97"/>
         <v>7.1422222222222214</v>
       </c>
       <c r="Y146">
-        <f t="shared" si="91"/>
+        <f t="shared" si="97"/>
         <v>127.07333333333324</v>
       </c>
       <c r="AB146" t="s">
@@ -11444,15 +14947,15 @@
         <v>5.5666666666666664</v>
       </c>
       <c r="AD146">
-        <f t="shared" ref="AD146:AF146" si="92">AVEDEV(AD115:AD144)</f>
+        <f t="shared" ref="AD146:AF146" si="98">AVEDEV(AD115:AD144)</f>
         <v>4.7866666666666671</v>
       </c>
       <c r="AE146">
-        <f t="shared" si="92"/>
+        <f t="shared" si="98"/>
         <v>3.9400000000000017</v>
       </c>
       <c r="AF146">
-        <f t="shared" si="92"/>
+        <f t="shared" si="98"/>
         <v>5.4666666666666668</v>
       </c>
       <c r="AH146" t="s">
@@ -11463,29 +14966,29 @@
         <v>6.166666666666667</v>
       </c>
       <c r="AJ146">
-        <f t="shared" ref="AJ146:AL146" si="93">AVEDEV(AJ115:AJ144)</f>
+        <f t="shared" ref="AJ146:AL146" si="99">AVEDEV(AJ115:AJ144)</f>
         <v>4.4266666666666667</v>
       </c>
       <c r="AK146">
-        <f t="shared" si="93"/>
+        <f t="shared" si="99"/>
         <v>4.7111111111111104</v>
       </c>
       <c r="AL146">
-        <f t="shared" si="93"/>
+        <f t="shared" si="99"/>
         <v>5.884444444444445</v>
       </c>
     </row>
-    <row r="148" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="149" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="150" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>12</v>
       </c>
@@ -11496,7 +14999,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="151" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:45" x14ac:dyDescent="0.25">
       <c r="B151" t="s">
         <v>3</v>
       </c>
@@ -11516,7 +15019,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="152" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:45" x14ac:dyDescent="0.25">
       <c r="C152" t="s">
         <v>5</v>
       </c>
@@ -11590,7 +15093,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="153" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:45" x14ac:dyDescent="0.25">
       <c r="C153">
         <v>34</v>
       </c>
@@ -11664,7 +15167,7 @@
         <v>11.8</v>
       </c>
     </row>
-    <row r="154" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:45" x14ac:dyDescent="0.25">
       <c r="C154">
         <v>32.700000000000003</v>
       </c>
@@ -11737,8 +15240,20 @@
       <c r="AL154">
         <v>24.1</v>
       </c>
-    </row>
-    <row r="155" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AP154" t="s">
+        <v>5</v>
+      </c>
+      <c r="AQ154" t="s">
+        <v>23</v>
+      </c>
+      <c r="AR154" t="s">
+        <v>7</v>
+      </c>
+      <c r="AS154" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="155" spans="1:45" x14ac:dyDescent="0.25">
       <c r="C155">
         <v>35.200000000000003</v>
       </c>
@@ -11811,8 +15326,27 @@
       <c r="AL155">
         <v>11.4</v>
       </c>
-    </row>
-    <row r="156" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AO155" t="s">
+        <v>21</v>
+      </c>
+      <c r="AP155" s="1">
+        <f>I183/C183</f>
+        <v>0.32647058823529418</v>
+      </c>
+      <c r="AQ155" s="1">
+        <f t="shared" ref="AQ155:AS155" si="100">J183/D183</f>
+        <v>0.35435435435435442</v>
+      </c>
+      <c r="AR155" s="1">
+        <f t="shared" si="100"/>
+        <v>0.15053763440860216</v>
+      </c>
+      <c r="AS155" s="1">
+        <f t="shared" si="100"/>
+        <v>0.28820512820512822</v>
+      </c>
+    </row>
+    <row r="156" spans="1:45" x14ac:dyDescent="0.25">
       <c r="C156">
         <v>29.8</v>
       </c>
@@ -11885,8 +15419,27 @@
       <c r="AL156">
         <v>11.3</v>
       </c>
-    </row>
-    <row r="157" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AO156" t="s">
+        <v>22</v>
+      </c>
+      <c r="AP156" s="1">
+        <f>V183/P183</f>
+        <v>0.23548387096774193</v>
+      </c>
+      <c r="AQ156" s="1">
+        <f t="shared" ref="AQ156:AS156" si="101">W183/Q183</f>
+        <v>0.2289416846652268</v>
+      </c>
+      <c r="AR156" s="1">
+        <f t="shared" si="101"/>
+        <v>0.12576312576312576</v>
+      </c>
+      <c r="AS156" s="1">
+        <f>Y183/S183</f>
+        <v>0.17855466916940399</v>
+      </c>
+    </row>
+    <row r="157" spans="1:45" x14ac:dyDescent="0.25">
       <c r="C157">
         <v>35.6</v>
       </c>
@@ -11959,8 +15512,27 @@
       <c r="AL157">
         <v>10.7</v>
       </c>
-    </row>
-    <row r="158" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AO157" t="s">
+        <v>20</v>
+      </c>
+      <c r="AP157" s="1">
+        <f>AI183/AC183</f>
+        <v>0.34699853587115664</v>
+      </c>
+      <c r="AQ157" s="1">
+        <f t="shared" ref="AQ157:AS157" si="102">AJ183/AD183</f>
+        <v>0.3476968796433878</v>
+      </c>
+      <c r="AR157" s="1">
+        <f t="shared" si="102"/>
+        <v>0.15053763440860216</v>
+      </c>
+      <c r="AS157" s="1">
+        <f t="shared" si="102"/>
+        <v>0.27074235807860264</v>
+      </c>
+    </row>
+    <row r="158" spans="1:45" x14ac:dyDescent="0.25">
       <c r="C158">
         <v>34.299999999999997</v>
       </c>
@@ -12034,7 +15606,7 @@
         <v>10.8</v>
       </c>
     </row>
-    <row r="159" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:45" x14ac:dyDescent="0.25">
       <c r="C159">
         <v>34.9</v>
       </c>
@@ -12108,7 +15680,7 @@
         <v>7.4</v>
       </c>
     </row>
-    <row r="160" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:45" x14ac:dyDescent="0.25">
       <c r="C160">
         <v>35</v>
       </c>
@@ -13819,15 +17391,15 @@
         <v>34</v>
       </c>
       <c r="D183">
-        <f t="shared" ref="D183" si="94">MEDIAN(D153:D182)</f>
+        <f t="shared" ref="D183" si="103">MEDIAN(D153:D182)</f>
         <v>33.299999999999997</v>
       </c>
       <c r="E183">
-        <f t="shared" ref="E183" si="95">MEDIAN(E153:E182)</f>
+        <f t="shared" ref="E183" si="104">MEDIAN(E153:E182)</f>
         <v>27.9</v>
       </c>
       <c r="F183">
-        <f t="shared" ref="F183" si="96">MEDIAN(F153:F182)</f>
+        <f t="shared" ref="F183" si="105">MEDIAN(F153:F182)</f>
         <v>48.75</v>
       </c>
       <c r="H183" t="s">
@@ -13838,15 +17410,15 @@
         <v>11.100000000000001</v>
       </c>
       <c r="J183">
-        <f t="shared" ref="J183" si="97">MEDIAN(J153:J182)</f>
+        <f t="shared" ref="J183" si="106">MEDIAN(J153:J182)</f>
         <v>11.8</v>
       </c>
       <c r="K183">
-        <f t="shared" ref="K183" si="98">MEDIAN(K153:K182)</f>
+        <f t="shared" ref="K183" si="107">MEDIAN(K153:K182)</f>
         <v>4.2</v>
       </c>
       <c r="L183">
-        <f t="shared" ref="L183" si="99">MEDIAN(L153:L182)</f>
+        <f t="shared" ref="L183" si="108">MEDIAN(L153:L182)</f>
         <v>14.05</v>
       </c>
       <c r="O183" t="s">
@@ -13857,15 +17429,15 @@
         <v>46.5</v>
       </c>
       <c r="Q183">
-        <f t="shared" ref="Q183" si="100">MEDIAN(Q153:Q182)</f>
+        <f t="shared" ref="Q183" si="109">MEDIAN(Q153:Q182)</f>
         <v>46.3</v>
       </c>
       <c r="R183">
-        <f t="shared" ref="R183" si="101">MEDIAN(R153:R182)</f>
+        <f t="shared" ref="R183" si="110">MEDIAN(R153:R182)</f>
         <v>40.950000000000003</v>
       </c>
       <c r="S183">
-        <f t="shared" ref="S183" si="102">MEDIAN(S153:S182)</f>
+        <f t="shared" ref="S183" si="111">MEDIAN(S153:S182)</f>
         <v>852.40000000000009</v>
       </c>
       <c r="U183" t="s">
@@ -13876,15 +17448,15 @@
         <v>10.95</v>
       </c>
       <c r="W183">
-        <f t="shared" ref="W183" si="103">MEDIAN(W153:W182)</f>
+        <f t="shared" ref="W183" si="112">MEDIAN(W153:W182)</f>
         <v>10.6</v>
       </c>
       <c r="X183">
-        <f t="shared" ref="X183" si="104">MEDIAN(X153:X182)</f>
+        <f t="shared" ref="X183" si="113">MEDIAN(X153:X182)</f>
         <v>5.15</v>
       </c>
       <c r="Y183">
-        <f t="shared" ref="Y183" si="105">MEDIAN(Y153:Y182)</f>
+        <f t="shared" ref="Y183" si="114">MEDIAN(Y153:Y182)</f>
         <v>152.19999999999999</v>
       </c>
       <c r="AB183" t="s">
@@ -13895,15 +17467,15 @@
         <v>34.150000000000006</v>
       </c>
       <c r="AD183">
-        <f t="shared" ref="AD183" si="106">MEDIAN(AD153:AD182)</f>
+        <f t="shared" ref="AD183" si="115">MEDIAN(AD153:AD182)</f>
         <v>33.65</v>
       </c>
       <c r="AE183">
-        <f t="shared" ref="AE183" si="107">MEDIAN(AE153:AE182)</f>
+        <f t="shared" ref="AE183" si="116">MEDIAN(AE153:AE182)</f>
         <v>27.9</v>
       </c>
       <c r="AF183">
-        <f t="shared" ref="AF183" si="108">MEDIAN(AF153:AF182)</f>
+        <f t="shared" ref="AF183" si="117">MEDIAN(AF153:AF182)</f>
         <v>45.8</v>
       </c>
       <c r="AH183" t="s">
@@ -13914,15 +17486,15 @@
         <v>11.850000000000001</v>
       </c>
       <c r="AJ183">
-        <f t="shared" ref="AJ183" si="109">MEDIAN(AJ153:AJ182)</f>
+        <f t="shared" ref="AJ183" si="118">MEDIAN(AJ153:AJ182)</f>
         <v>11.7</v>
       </c>
       <c r="AK183">
-        <f t="shared" ref="AK183" si="110">MEDIAN(AK153:AK182)</f>
+        <f t="shared" ref="AK183" si="119">MEDIAN(AK153:AK182)</f>
         <v>4.2</v>
       </c>
       <c r="AL183">
-        <f t="shared" ref="AL183" si="111">MEDIAN(AL153:AL182)</f>
+        <f t="shared" ref="AL183" si="120">MEDIAN(AL153:AL182)</f>
         <v>12.4</v>
       </c>
     </row>
@@ -13935,15 +17507,15 @@
         <v>1.3813333333333333</v>
       </c>
       <c r="D184">
-        <f t="shared" ref="D184:F184" si="112">AVEDEV(D153:D182)</f>
+        <f t="shared" ref="D184:F184" si="121">AVEDEV(D153:D182)</f>
         <v>1.42888888888889</v>
       </c>
       <c r="E184">
-        <f t="shared" si="112"/>
+        <f t="shared" si="121"/>
         <v>0.7968888888888892</v>
       </c>
       <c r="F184">
-        <f t="shared" si="112"/>
+        <f t="shared" si="121"/>
         <v>1.5199999999999996</v>
       </c>
       <c r="H184" t="s">
@@ -13954,15 +17526,15 @@
         <v>2.3771111111111112</v>
       </c>
       <c r="J184">
-        <f t="shared" ref="J184:L184" si="113">AVEDEV(J153:J182)</f>
+        <f t="shared" ref="J184:L184" si="122">AVEDEV(J153:J182)</f>
         <v>3.3460000000000005</v>
       </c>
       <c r="K184">
-        <f t="shared" si="113"/>
+        <f t="shared" si="122"/>
         <v>1.0617777777777773</v>
       </c>
       <c r="L184">
-        <f t="shared" si="113"/>
+        <f t="shared" si="122"/>
         <v>3.5297777777777761</v>
       </c>
       <c r="O184" t="s">
@@ -13973,15 +17545,15 @@
         <v>1.4213333333333316</v>
       </c>
       <c r="Q184">
-        <f t="shared" ref="Q184:S184" si="114">AVEDEV(Q153:Q182)</f>
+        <f t="shared" ref="Q184:S184" si="123">AVEDEV(Q153:Q182)</f>
         <v>1.3742222222222225</v>
       </c>
       <c r="R184">
-        <f t="shared" si="114"/>
+        <f t="shared" si="123"/>
         <v>1.0884444444444434</v>
       </c>
       <c r="S184">
-        <f t="shared" si="114"/>
+        <f t="shared" si="123"/>
         <v>22.360888888888901</v>
       </c>
       <c r="U184" t="s">
@@ -13992,15 +17564,15 @@
         <v>4.6302222222222218</v>
       </c>
       <c r="W184">
-        <f t="shared" ref="W184:Y184" si="115">AVEDEV(W153:W182)</f>
+        <f t="shared" ref="W184:Y184" si="124">AVEDEV(W153:W182)</f>
         <v>3.1728888888888886</v>
       </c>
       <c r="X184">
-        <f t="shared" si="115"/>
+        <f t="shared" si="124"/>
         <v>0.78400000000000003</v>
       </c>
       <c r="Y184">
-        <f t="shared" si="115"/>
+        <f t="shared" si="124"/>
         <v>9.3493333333333322</v>
       </c>
       <c r="AB184" t="s">
@@ -14011,15 +17583,15 @@
         <v>1.0955555555555554</v>
       </c>
       <c r="AD184">
-        <f t="shared" ref="AD184:AF184" si="116">AVEDEV(AD153:AD182)</f>
+        <f t="shared" ref="AD184:AF184" si="125">AVEDEV(AD153:AD182)</f>
         <v>1.1600000000000001</v>
       </c>
       <c r="AE184">
-        <f t="shared" si="116"/>
+        <f t="shared" si="125"/>
         <v>0.95666666666666678</v>
       </c>
       <c r="AF184">
-        <f t="shared" si="116"/>
+        <f t="shared" si="125"/>
         <v>1.8333333333333321</v>
       </c>
       <c r="AH184" t="s">
@@ -14030,15 +17602,15 @@
         <v>2.7591111111111113</v>
       </c>
       <c r="AJ184">
-        <f t="shared" ref="AJ184:AL184" si="117">AVEDEV(AJ153:AJ182)</f>
+        <f t="shared" ref="AJ184:AL184" si="126">AVEDEV(AJ153:AJ182)</f>
         <v>2.0235555555555558</v>
       </c>
       <c r="AK184">
-        <f t="shared" si="117"/>
+        <f t="shared" si="126"/>
         <v>0.93911111111111134</v>
       </c>
       <c r="AL184">
-        <f t="shared" si="117"/>
+        <f t="shared" si="126"/>
         <v>8.4133333333333322</v>
       </c>
     </row>
@@ -16365,15 +19937,15 @@
         <v>20</v>
       </c>
       <c r="D218">
-        <f t="shared" ref="D218" si="118">MEDIAN(D188:D217)</f>
+        <f t="shared" ref="D218" si="127">MEDIAN(D188:D217)</f>
         <v>20</v>
       </c>
       <c r="E218">
-        <f t="shared" ref="E218" si="119">MEDIAN(E188:E217)</f>
+        <f t="shared" ref="E218" si="128">MEDIAN(E188:E217)</f>
         <v>18.5</v>
       </c>
       <c r="F218">
-        <f t="shared" ref="F218" si="120">MEDIAN(F188:F217)</f>
+        <f t="shared" ref="F218" si="129">MEDIAN(F188:F217)</f>
         <v>32</v>
       </c>
       <c r="H218" t="s">
@@ -16384,15 +19956,15 @@
         <v>70.5</v>
       </c>
       <c r="J218">
-        <f t="shared" ref="J218" si="121">MEDIAN(J188:J217)</f>
+        <f t="shared" ref="J218" si="130">MEDIAN(J188:J217)</f>
         <v>74.5</v>
       </c>
       <c r="K218">
-        <f t="shared" ref="K218" si="122">MEDIAN(K188:K217)</f>
+        <f t="shared" ref="K218" si="131">MEDIAN(K188:K217)</f>
         <v>37</v>
       </c>
       <c r="L218">
-        <f t="shared" ref="L218" si="123">MEDIAN(L188:L217)</f>
+        <f t="shared" ref="L218" si="132">MEDIAN(L188:L217)</f>
         <v>101</v>
       </c>
       <c r="O218" t="s">
@@ -16403,15 +19975,15 @@
         <v>32</v>
       </c>
       <c r="Q218">
-        <f t="shared" ref="Q218" si="124">MEDIAN(Q188:Q217)</f>
+        <f t="shared" ref="Q218" si="133">MEDIAN(Q188:Q217)</f>
         <v>30.5</v>
       </c>
       <c r="R218">
-        <f t="shared" ref="R218" si="125">MEDIAN(R188:R217)</f>
+        <f t="shared" ref="R218" si="134">MEDIAN(R188:R217)</f>
         <v>30.5</v>
       </c>
       <c r="S218">
-        <f t="shared" ref="S218" si="126">MEDIAN(S188:S217)</f>
+        <f t="shared" ref="S218" si="135">MEDIAN(S188:S217)</f>
         <v>115.5</v>
       </c>
       <c r="U218" t="s">
@@ -16422,15 +19994,15 @@
         <v>85</v>
       </c>
       <c r="W218">
-        <f t="shared" ref="W218" si="127">MEDIAN(W188:W217)</f>
+        <f t="shared" ref="W218" si="136">MEDIAN(W188:W217)</f>
         <v>83</v>
       </c>
       <c r="X218">
-        <f t="shared" ref="X218" si="128">MEDIAN(X188:X217)</f>
+        <f t="shared" ref="X218" si="137">MEDIAN(X188:X217)</f>
         <v>54</v>
       </c>
       <c r="Y218">
-        <f t="shared" ref="Y218" si="129">MEDIAN(Y188:Y217)</f>
+        <f t="shared" ref="Y218" si="138">MEDIAN(Y188:Y217)</f>
         <v>1228.5</v>
       </c>
       <c r="AB218" t="s">
@@ -16441,15 +20013,15 @@
         <v>20</v>
       </c>
       <c r="AD218">
-        <f t="shared" ref="AD218" si="130">MEDIAN(AD188:AD217)</f>
+        <f t="shared" ref="AD218" si="139">MEDIAN(AD188:AD217)</f>
         <v>21</v>
       </c>
       <c r="AE218">
-        <f t="shared" ref="AE218" si="131">MEDIAN(AE188:AE217)</f>
+        <f t="shared" ref="AE218" si="140">MEDIAN(AE188:AE217)</f>
         <v>19</v>
       </c>
       <c r="AF218">
-        <f t="shared" ref="AF218" si="132">MEDIAN(AF188:AF217)</f>
+        <f t="shared" ref="AF218" si="141">MEDIAN(AF188:AF217)</f>
         <v>30</v>
       </c>
       <c r="AH218" t="s">
@@ -16460,15 +20032,15 @@
         <v>75</v>
       </c>
       <c r="AJ218">
-        <f t="shared" ref="AJ218" si="133">MEDIAN(AJ188:AJ217)</f>
+        <f t="shared" ref="AJ218" si="142">MEDIAN(AJ188:AJ217)</f>
         <v>74</v>
       </c>
       <c r="AK218">
-        <f t="shared" ref="AK218" si="134">MEDIAN(AK188:AK217)</f>
+        <f t="shared" ref="AK218" si="143">MEDIAN(AK188:AK217)</f>
         <v>39</v>
       </c>
       <c r="AL218">
-        <f t="shared" ref="AL218" si="135">MEDIAN(AL188:AL217)</f>
+        <f t="shared" ref="AL218" si="144">MEDIAN(AL188:AL217)</f>
         <v>92.5</v>
       </c>
     </row>
@@ -16481,15 +20053,15 @@
         <v>2.0888888888888881</v>
       </c>
       <c r="D219">
-        <f t="shared" ref="D219:F219" si="136">AVEDEV(D188:D217)</f>
+        <f t="shared" ref="D219:F219" si="145">AVEDEV(D188:D217)</f>
         <v>2.5688888888888894</v>
       </c>
       <c r="E219">
-        <f t="shared" si="136"/>
+        <f t="shared" si="145"/>
         <v>1.8333333333333328</v>
       </c>
       <c r="F219">
-        <f t="shared" si="136"/>
+        <f t="shared" si="145"/>
         <v>2.6088888888888886</v>
       </c>
       <c r="H219" t="s">
@@ -16500,15 +20072,15 @@
         <v>9.3777777777777782</v>
       </c>
       <c r="J219">
-        <f t="shared" ref="J219:L219" si="137">AVEDEV(J188:J217)</f>
+        <f t="shared" ref="J219:L219" si="146">AVEDEV(J188:J217)</f>
         <v>14</v>
       </c>
       <c r="K219">
-        <f t="shared" si="137"/>
+        <f t="shared" si="146"/>
         <v>4.6444444444444457</v>
       </c>
       <c r="L219">
-        <f t="shared" si="137"/>
+        <f t="shared" si="146"/>
         <v>16.146666666666665</v>
       </c>
       <c r="O219" t="s">
@@ -16519,15 +20091,15 @@
         <v>3.9288888888888893</v>
       </c>
       <c r="Q219">
-        <f t="shared" ref="Q219:S219" si="138">AVEDEV(Q188:Q217)</f>
+        <f t="shared" ref="Q219:S219" si="147">AVEDEV(Q188:Q217)</f>
         <v>3.4666666666666663</v>
       </c>
       <c r="R219">
-        <f t="shared" si="138"/>
+        <f t="shared" si="147"/>
         <v>2.7311111111111113</v>
       </c>
       <c r="S219">
-        <f t="shared" si="138"/>
+        <f t="shared" si="147"/>
         <v>8.0311111111111106</v>
       </c>
       <c r="U219" t="s">
@@ -16538,15 +20110,15 @@
         <v>13.737777777777774</v>
       </c>
       <c r="W219">
-        <f t="shared" ref="W219:Y219" si="139">AVEDEV(W188:W217)</f>
+        <f t="shared" ref="W219:Y219" si="148">AVEDEV(W188:W217)</f>
         <v>11.666666666666666</v>
       </c>
       <c r="X219">
-        <f t="shared" si="139"/>
+        <f t="shared" si="148"/>
         <v>3.373333333333334</v>
       </c>
       <c r="Y219">
-        <f t="shared" si="139"/>
+        <f t="shared" si="148"/>
         <v>97.753333333333345</v>
       </c>
       <c r="AB219" t="s">
@@ -16557,15 +20129,15 @@
         <v>2.1222222222222222</v>
       </c>
       <c r="AD219">
-        <f t="shared" ref="AD219:AF219" si="140">AVEDEV(AD188:AD217)</f>
+        <f t="shared" ref="AD219:AF219" si="149">AVEDEV(AD188:AD217)</f>
         <v>1.2222222222222223</v>
       </c>
       <c r="AE219">
-        <f t="shared" si="140"/>
+        <f t="shared" si="149"/>
         <v>1.7199999999999998</v>
       </c>
       <c r="AF219">
-        <f t="shared" si="140"/>
+        <f t="shared" si="149"/>
         <v>6.3422222222222233</v>
       </c>
       <c r="AH219" t="s">
@@ -16576,50 +20148,51 @@
         <v>11.546666666666662</v>
       </c>
       <c r="AJ219">
-        <f t="shared" ref="AJ219:AL219" si="141">AVEDEV(AJ188:AJ217)</f>
+        <f t="shared" ref="AJ219:AL219" si="150">AVEDEV(AJ188:AJ217)</f>
         <v>8.0755555555555549</v>
       </c>
       <c r="AK219">
-        <f t="shared" si="141"/>
+        <f t="shared" si="150"/>
         <v>3.819999999999999</v>
       </c>
       <c r="AL219">
-        <f t="shared" si="141"/>
+        <f t="shared" si="150"/>
         <v>29.622222222222216</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="AC7:AF36 AI7:AL36 V7:Y36 P7:S36 I7:L36 C7:F36">
-    <cfRule type="expression" dxfId="10" priority="10">
+    <cfRule type="expression" dxfId="5" priority="10">
       <formula>OR(C7&lt;C$37-C$38*2,C7&gt;C$37+2*C$38)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P42:S71 V42:Y71 AC42:AF71 AI42:AL71 I42:L71 C42:F71">
-    <cfRule type="expression" dxfId="9" priority="6">
+    <cfRule type="expression" dxfId="4" priority="6">
       <formula>OR(C42&lt;C$72-C$73*2,C42&gt;C$72+2*C$73)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C80:F109 I80:L109 P80:S109 V80:Y109 AC80:AF109 AI80:AL109">
-    <cfRule type="expression" dxfId="8" priority="5">
+    <cfRule type="expression" dxfId="3" priority="5">
       <formula>OR(C80&lt;C$110-C$111*2,C80&gt;C$110+2*C$111)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C115:F144 I115:L144 P115:S144 V115:Y144 AC115:AF144 AI115:AL144">
-    <cfRule type="expression" dxfId="7" priority="3">
+    <cfRule type="expression" dxfId="2" priority="3">
       <formula>OR(C115&lt;C$145-C$146*2,C115&gt;C$145+2*C$146)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C153:F182 I153:L182 P153:S182 V153:Y182 AC153:AF182 AI153:AL182">
-    <cfRule type="expression" dxfId="6" priority="2">
+    <cfRule type="expression" dxfId="1" priority="2">
       <formula>OR(C153&lt;C$183-C$184*2,C153&gt;C$183+2*C$184)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C188:F217 I188:L217 P188:S217 V188:Y217 AC188:AF217 AI188:AL217">
-    <cfRule type="expression" dxfId="5" priority="1">
+    <cfRule type="expression" dxfId="0" priority="1">
       <formula>OR(C188&lt;C$218-C$219*2,C188&gt;C$218+2*C$219)</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/testes/PH/J5_Log_excel.xlsx
+++ b/testes/PH/J5_Log_excel.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ACEW\Documents\Android\androidconcurrency\testes\PH\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06476DD5-D647-4183-B838-BDE7C74019CF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7DF5157-FA57-4C55-957C-DBDE2C0FC547}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,6 +20,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="33">
   <si>
     <t>Philosophers problem</t>
   </si>
@@ -102,6 +103,30 @@
   </si>
   <si>
     <t>Kotlin Coroutines</t>
+  </si>
+  <si>
+    <t>threads</t>
+  </si>
+  <si>
+    <t>thread pool</t>
+  </si>
+  <si>
+    <t>hamer</t>
+  </si>
+  <si>
+    <t>kotlin</t>
+  </si>
+  <si>
+    <t>coeff variação semáforo</t>
+  </si>
+  <si>
+    <t>coeff variação synchronized</t>
+  </si>
+  <si>
+    <t>Coeff var locks</t>
+  </si>
+  <si>
+    <t>thread</t>
   </si>
 </sst>
 </file>
@@ -4601,10 +4626,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AT219"/>
+  <dimension ref="A1:BH219"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AD148" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="AT168" sqref="AT168"/>
+    <sheetView tabSelected="1" topLeftCell="AZ148" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="BJ165" sqref="BJ165"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="18.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4804,6 +4829,9 @@
       </c>
     </row>
     <row r="8" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>51.68</v>
+      </c>
       <c r="C8">
         <v>397.8</v>
       </c>
@@ -5100,6 +5128,9 @@
       </c>
     </row>
     <row r="12" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>376.8</v>
+      </c>
       <c r="C12">
         <v>402.4</v>
       </c>
@@ -5174,6 +5205,9 @@
       </c>
     </row>
     <row r="13" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>575.6</v>
+      </c>
       <c r="C13">
         <v>405</v>
       </c>
@@ -5248,6 +5282,9 @@
       </c>
     </row>
     <row r="14" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>382.2</v>
+      </c>
       <c r="C14">
         <v>396</v>
       </c>
@@ -5322,6 +5359,10 @@
       </c>
     </row>
     <row r="15" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <f>(A13/A12+A13/A14)/2</f>
+        <v>1.516809320494489</v>
+      </c>
       <c r="C15">
         <v>401</v>
       </c>
@@ -5469,7 +5510,7 @@
         <v>2.6</v>
       </c>
     </row>
-    <row r="17" spans="3:46" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:46" x14ac:dyDescent="0.25">
       <c r="C17">
         <v>402</v>
       </c>
@@ -5543,7 +5584,7 @@
         <v>1.9</v>
       </c>
     </row>
-    <row r="18" spans="3:46" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:46" x14ac:dyDescent="0.25">
       <c r="C18">
         <v>398.2</v>
       </c>
@@ -5629,7 +5670,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="19" spans="3:46" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:46" x14ac:dyDescent="0.25">
       <c r="C19">
         <v>400.2</v>
       </c>
@@ -5722,7 +5763,7 @@
         <v>6.921970514203523E-3</v>
       </c>
     </row>
-    <row r="20" spans="3:46" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:46" x14ac:dyDescent="0.25">
       <c r="C20">
         <v>400</v>
       </c>
@@ -5803,7 +5844,7 @@
         <v>6.9444444444444449E-3</v>
       </c>
       <c r="AQ20" s="1">
-        <f t="shared" ref="AQ20:AS20" si="1">W37/Q37</f>
+        <f t="shared" ref="AQ20:AR20" si="1">W37/Q37</f>
         <v>6.1018747789175808E-3</v>
       </c>
       <c r="AR20" s="1">
@@ -5815,7 +5856,11 @@
         <v>0.45691075199999998</v>
       </c>
     </row>
-    <row r="21" spans="3:46" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <f>(A8+A82+A156)/3</f>
+        <v>48.066666666666663</v>
+      </c>
       <c r="C21">
         <v>359.8</v>
       </c>
@@ -5908,7 +5953,7 @@
         <v>6.7677314564158087E-3</v>
       </c>
     </row>
-    <row r="22" spans="3:46" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:46" x14ac:dyDescent="0.25">
       <c r="C22">
         <v>248</v>
       </c>
@@ -5982,7 +6027,7 @@
         <v>1.4</v>
       </c>
     </row>
-    <row r="23" spans="3:46" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:46" x14ac:dyDescent="0.25">
       <c r="C23">
         <v>309.2</v>
       </c>
@@ -6056,7 +6101,7 @@
         <v>3.6</v>
       </c>
     </row>
-    <row r="24" spans="3:46" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:46" x14ac:dyDescent="0.25">
       <c r="C24">
         <v>307.39999999999998</v>
       </c>
@@ -6130,7 +6175,7 @@
         <v>2.2000000000000002</v>
       </c>
     </row>
-    <row r="25" spans="3:46" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:46" x14ac:dyDescent="0.25">
       <c r="C25">
         <v>383.2</v>
       </c>
@@ -6204,7 +6249,7 @@
         <v>5.2</v>
       </c>
     </row>
-    <row r="26" spans="3:46" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:46" x14ac:dyDescent="0.25">
       <c r="C26">
         <v>371</v>
       </c>
@@ -6278,7 +6323,7 @@
         <v>4.3</v>
       </c>
     </row>
-    <row r="27" spans="3:46" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:46" x14ac:dyDescent="0.25">
       <c r="C27">
         <v>380.2</v>
       </c>
@@ -6352,7 +6397,7 @@
         <v>5.9</v>
       </c>
     </row>
-    <row r="28" spans="3:46" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:46" x14ac:dyDescent="0.25">
       <c r="C28">
         <v>367.8</v>
       </c>
@@ -6426,7 +6471,7 @@
         <v>3.8</v>
       </c>
     </row>
-    <row r="29" spans="3:46" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:46" x14ac:dyDescent="0.25">
       <c r="C29">
         <v>375.8</v>
       </c>
@@ -6500,7 +6545,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="30" spans="3:46" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:46" x14ac:dyDescent="0.25">
       <c r="C30">
         <v>377</v>
       </c>
@@ -6574,7 +6619,7 @@
         <v>3.4</v>
       </c>
     </row>
-    <row r="31" spans="3:46" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:46" x14ac:dyDescent="0.25">
       <c r="C31">
         <v>372.8</v>
       </c>
@@ -6648,7 +6693,7 @@
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="32" spans="3:46" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:46" x14ac:dyDescent="0.25">
       <c r="C32">
         <v>378.4</v>
       </c>
@@ -9985,7 +10030,7 @@
         <v>5.9</v>
       </c>
     </row>
-    <row r="81" spans="3:46" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:46" x14ac:dyDescent="0.25">
       <c r="C81">
         <v>162</v>
       </c>
@@ -10071,7 +10116,10 @@
         <v>24</v>
       </c>
     </row>
-    <row r="82" spans="3:46" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A82">
+        <v>52.4</v>
+      </c>
       <c r="C82">
         <v>160.30000000000001</v>
       </c>
@@ -10164,7 +10212,7 @@
         <v>2.496798975672215E-2</v>
       </c>
     </row>
-    <row r="83" spans="3:46" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:46" x14ac:dyDescent="0.25">
       <c r="C83">
         <v>176.8</v>
       </c>
@@ -10245,7 +10293,7 @@
         <v>2.3609115171422706E-2</v>
       </c>
       <c r="AQ83" s="1">
-        <f t="shared" ref="AQ83:AS83" si="50">W110/Q110</f>
+        <f t="shared" ref="AQ83:AR83" si="50">W110/Q110</f>
         <v>2.271779908295123E-2</v>
       </c>
       <c r="AR83" s="1">
@@ -10257,7 +10305,7 @@
         <v>0.28330132600000002</v>
       </c>
     </row>
-    <row r="84" spans="3:46" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:46" x14ac:dyDescent="0.25">
       <c r="C84">
         <v>166.8</v>
       </c>
@@ -10350,7 +10398,10 @@
         <v>2.3240800516462237E-2</v>
       </c>
     </row>
-    <row r="85" spans="3:46" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A85">
+        <v>159.1</v>
+      </c>
       <c r="C85">
         <v>154.6</v>
       </c>
@@ -10424,7 +10475,10 @@
         <v>6.5</v>
       </c>
     </row>
-    <row r="86" spans="3:46" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A86">
+        <v>241.03</v>
+      </c>
       <c r="C86">
         <v>160.30000000000001</v>
       </c>
@@ -10498,7 +10552,10 @@
         <v>5.0999999999999996</v>
       </c>
     </row>
-    <row r="87" spans="3:46" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A87">
+        <v>157.22999999999999</v>
+      </c>
       <c r="C87">
         <v>167.8</v>
       </c>
@@ -10572,7 +10629,11 @@
         <v>5.8</v>
       </c>
     </row>
-    <row r="88" spans="3:46" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A88">
+        <f>(A86/A85+A86/A87)/2</f>
+        <v>1.5239681561994898</v>
+      </c>
       <c r="C88">
         <v>163.5</v>
       </c>
@@ -10646,7 +10707,7 @@
         <v>5.3</v>
       </c>
     </row>
-    <row r="89" spans="3:46" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:46" x14ac:dyDescent="0.25">
       <c r="C89">
         <v>160.5</v>
       </c>
@@ -10720,7 +10781,7 @@
         <v>6.7</v>
       </c>
     </row>
-    <row r="90" spans="3:46" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:46" x14ac:dyDescent="0.25">
       <c r="C90">
         <v>156.4</v>
       </c>
@@ -10794,7 +10855,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="91" spans="3:46" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:46" x14ac:dyDescent="0.25">
       <c r="C91">
         <v>165.5</v>
       </c>
@@ -10868,7 +10929,7 @@
         <v>3.8</v>
       </c>
     </row>
-    <row r="92" spans="3:46" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:46" x14ac:dyDescent="0.25">
       <c r="C92">
         <v>164.8</v>
       </c>
@@ -10942,7 +11003,7 @@
         <v>6.5</v>
       </c>
     </row>
-    <row r="93" spans="3:46" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:46" x14ac:dyDescent="0.25">
       <c r="C93">
         <v>158.9</v>
       </c>
@@ -11016,7 +11077,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="94" spans="3:46" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:46" x14ac:dyDescent="0.25">
       <c r="C94">
         <v>161.4</v>
       </c>
@@ -11090,7 +11151,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="95" spans="3:46" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:46" x14ac:dyDescent="0.25">
       <c r="C95">
         <v>169.8</v>
       </c>
@@ -11164,7 +11225,7 @@
         <v>4.5999999999999996</v>
       </c>
     </row>
-    <row r="96" spans="3:46" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:46" x14ac:dyDescent="0.25">
       <c r="C96">
         <v>158.1</v>
       </c>
@@ -14746,7 +14807,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="145" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:60" x14ac:dyDescent="0.25">
       <c r="B145" t="s">
         <v>19</v>
       </c>
@@ -14862,7 +14923,7 @@
         <v>242.5</v>
       </c>
     </row>
-    <row r="146" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:60" x14ac:dyDescent="0.25">
       <c r="B146" t="s">
         <v>11</v>
       </c>
@@ -14978,17 +15039,17 @@
         <v>5.884444444444445</v>
       </c>
     </row>
-    <row r="148" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="149" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="150" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>12</v>
       </c>
@@ -14998,8 +15059,11 @@
       <c r="AA150" t="s">
         <v>14</v>
       </c>
+      <c r="AZ150" t="s">
+        <v>30</v>
+      </c>
     </row>
-    <row r="151" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:60" x14ac:dyDescent="0.25">
       <c r="B151" t="s">
         <v>3</v>
       </c>
@@ -15018,8 +15082,26 @@
       <c r="AH151" t="s">
         <v>4</v>
       </c>
+      <c r="AU151" t="s">
+        <v>29</v>
+      </c>
+      <c r="AZ151" t="s">
+        <v>25</v>
+      </c>
+      <c r="BA151" t="s">
+        <v>26</v>
+      </c>
+      <c r="BB151" t="s">
+        <v>27</v>
+      </c>
+      <c r="BC151" t="s">
+        <v>28</v>
+      </c>
+      <c r="BE151" t="s">
+        <v>31</v>
+      </c>
     </row>
-    <row r="152" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:60" x14ac:dyDescent="0.25">
       <c r="C152" t="s">
         <v>5</v>
       </c>
@@ -15092,8 +15174,48 @@
       <c r="AL152" t="s">
         <v>8</v>
       </c>
+      <c r="AU152" t="s">
+        <v>25</v>
+      </c>
+      <c r="AV152" t="s">
+        <v>26</v>
+      </c>
+      <c r="AW152" t="s">
+        <v>27</v>
+      </c>
+      <c r="AX152" t="s">
+        <v>28</v>
+      </c>
+      <c r="AZ152">
+        <f>V153/P153</f>
+        <v>0.19305856832971802</v>
+      </c>
+      <c r="BA152">
+        <f t="shared" ref="BA152:BC167" si="100">W153/Q153</f>
+        <v>0.22058823529411764</v>
+      </c>
+      <c r="BB152">
+        <f t="shared" si="100"/>
+        <v>0.1370558375634518</v>
+      </c>
+      <c r="BC152">
+        <f>Y153/S153</f>
+        <v>0.17045715598437858</v>
+      </c>
+      <c r="BE152" t="s">
+        <v>32</v>
+      </c>
+      <c r="BF152" t="s">
+        <v>26</v>
+      </c>
+      <c r="BG152" t="s">
+        <v>27</v>
+      </c>
+      <c r="BH152" t="s">
+        <v>28</v>
+      </c>
     </row>
-    <row r="153" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:60" x14ac:dyDescent="0.25">
       <c r="C153">
         <v>34</v>
       </c>
@@ -15166,8 +15288,56 @@
       <c r="AL153">
         <v>11.8</v>
       </c>
+      <c r="AU153">
+        <f>I153/C153</f>
+        <v>0.25</v>
+      </c>
+      <c r="AV153">
+        <f t="shared" ref="AV153:AX153" si="101">J153/D153</f>
+        <v>0.27700831024930744</v>
+      </c>
+      <c r="AW153">
+        <f t="shared" si="101"/>
+        <v>0.16728624535315986</v>
+      </c>
+      <c r="AX153">
+        <f t="shared" si="101"/>
+        <v>0.23408624229979466</v>
+      </c>
+      <c r="AZ153">
+        <f t="shared" ref="AZ153:AZ182" si="102">V154/P154</f>
+        <v>0.25</v>
+      </c>
+      <c r="BA153">
+        <f t="shared" si="100"/>
+        <v>0.2413793103448276</v>
+      </c>
+      <c r="BB153">
+        <f t="shared" si="100"/>
+        <v>0.11750000000000001</v>
+      </c>
+      <c r="BC153">
+        <f t="shared" si="100"/>
+        <v>0.1802870359387973</v>
+      </c>
+      <c r="BE153">
+        <f>AI153/AC153</f>
+        <v>0.75357142857142867</v>
+      </c>
+      <c r="BF153">
+        <f t="shared" ref="BF153:BH153" si="103">AJ153/AD153</f>
+        <v>0.33819241982507292</v>
+      </c>
+      <c r="BG153">
+        <f t="shared" si="103"/>
+        <v>0.14388489208633093</v>
+      </c>
+      <c r="BH153">
+        <f t="shared" si="103"/>
+        <v>0.25106382978723407</v>
+      </c>
     </row>
-    <row r="154" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:60" x14ac:dyDescent="0.25">
       <c r="C154">
         <v>32.700000000000003</v>
       </c>
@@ -15252,8 +15422,56 @@
       <c r="AS154" t="s">
         <v>24</v>
       </c>
+      <c r="AU154">
+        <f t="shared" ref="AU154:AU183" si="104">I154/C154</f>
+        <v>0.53822629969418956</v>
+      </c>
+      <c r="AV154">
+        <f t="shared" ref="AV154:AV183" si="105">J154/D154</f>
+        <v>0.60843373493975894</v>
+      </c>
+      <c r="AW154">
+        <f t="shared" ref="AW154:AW183" si="106">K154/E154</f>
+        <v>0.12631578947368421</v>
+      </c>
+      <c r="AX154">
+        <f t="shared" ref="AX154:AX183" si="107">L154/F154</f>
+        <v>0.2151898734177215</v>
+      </c>
+      <c r="AZ154">
+        <f t="shared" si="102"/>
+        <v>0.27536231884057977</v>
+      </c>
+      <c r="BA154">
+        <f t="shared" si="100"/>
+        <v>0.20993227990970659</v>
+      </c>
+      <c r="BB154">
+        <f t="shared" si="100"/>
+        <v>0.10144927536231885</v>
+      </c>
+      <c r="BC154">
+        <f t="shared" si="100"/>
+        <v>0.17375804967801287</v>
+      </c>
+      <c r="BE154">
+        <f t="shared" ref="BE154:BE181" si="108">AI154/AC154</f>
+        <v>0.34482758620689657</v>
+      </c>
+      <c r="BF154">
+        <f t="shared" ref="BF154:BF181" si="109">AJ154/AD154</f>
+        <v>0.45125348189415043</v>
+      </c>
+      <c r="BG154">
+        <f t="shared" ref="BG154:BG181" si="110">AK154/AE154</f>
+        <v>0.16546762589928055</v>
+      </c>
+      <c r="BH154">
+        <f t="shared" ref="BH154:BH181" si="111">AL154/AF154</f>
+        <v>0.50418410041841011</v>
+      </c>
     </row>
-    <row r="155" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:60" x14ac:dyDescent="0.25">
       <c r="C155">
         <v>35.200000000000003</v>
       </c>
@@ -15334,19 +15552,70 @@
         <v>0.32647058823529418</v>
       </c>
       <c r="AQ155" s="1">
-        <f t="shared" ref="AQ155:AS155" si="100">J183/D183</f>
+        <f t="shared" ref="AQ155:AS155" si="112">J183/D183</f>
         <v>0.35435435435435442</v>
       </c>
       <c r="AR155" s="1">
+        <f t="shared" si="112"/>
+        <v>0.15053763440860216</v>
+      </c>
+      <c r="AS155" s="1">
+        <f t="shared" si="112"/>
+        <v>0.28820512820512822</v>
+      </c>
+      <c r="AU155">
+        <f t="shared" si="104"/>
+        <v>0.29545454545454541</v>
+      </c>
+      <c r="AV155">
+        <f t="shared" si="105"/>
+        <v>0.37091988130563797</v>
+      </c>
+      <c r="AW155">
+        <f t="shared" si="106"/>
+        <v>0.12142857142857143</v>
+      </c>
+      <c r="AX155">
+        <f t="shared" si="107"/>
+        <v>0.48502994011976047</v>
+      </c>
+      <c r="AZ155">
+        <f t="shared" si="102"/>
+        <v>0.14775160599571735</v>
+      </c>
+      <c r="BA155">
         <f t="shared" si="100"/>
-        <v>0.15053763440860216</v>
-      </c>
-      <c r="AS155" s="1">
+        <v>0.48712871287128717</v>
+      </c>
+      <c r="BB155">
         <f t="shared" si="100"/>
-        <v>0.28820512820512822</v>
+        <v>9.7560975609756101E-2</v>
+      </c>
+      <c r="BC155">
+        <f t="shared" si="100"/>
+        <v>0.20857971014492754</v>
+      </c>
+      <c r="BE155">
+        <f t="shared" si="108"/>
+        <v>0.31594202898550727</v>
+      </c>
+      <c r="BF155">
+        <f t="shared" si="109"/>
+        <v>0.3372781065088758</v>
+      </c>
+      <c r="BG155">
+        <f t="shared" si="110"/>
+        <v>0.14878892733564014</v>
+      </c>
+      <c r="BH155">
+        <f t="shared" si="111"/>
+        <v>0.24890829694323147</v>
       </c>
     </row>
-    <row r="156" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:60" x14ac:dyDescent="0.25">
+      <c r="A156">
+        <v>40.119999999999997</v>
+      </c>
       <c r="C156">
         <v>29.8</v>
       </c>
@@ -15427,19 +15696,67 @@
         <v>0.23548387096774193</v>
       </c>
       <c r="AQ156" s="1">
-        <f t="shared" ref="AQ156:AS156" si="101">W183/Q183</f>
+        <f t="shared" ref="AQ156:AR156" si="113">W183/Q183</f>
         <v>0.2289416846652268</v>
       </c>
       <c r="AR156" s="1">
-        <f t="shared" si="101"/>
+        <f t="shared" si="113"/>
         <v>0.12576312576312576</v>
       </c>
       <c r="AS156" s="1">
         <f>Y183/S183</f>
         <v>0.17855466916940399</v>
       </c>
+      <c r="AU156">
+        <f t="shared" si="104"/>
+        <v>0.37919463087248323</v>
+      </c>
+      <c r="AV156">
+        <f t="shared" si="105"/>
+        <v>0.25141242937853109</v>
+      </c>
+      <c r="AW156">
+        <f t="shared" si="106"/>
+        <v>0.15671641791044777</v>
+      </c>
+      <c r="AX156">
+        <f t="shared" si="107"/>
+        <v>0.29531568228105903</v>
+      </c>
+      <c r="AZ156">
+        <f t="shared" si="102"/>
+        <v>0.31171548117154813</v>
+      </c>
+      <c r="BA156">
+        <f t="shared" si="100"/>
+        <v>0.20129870129870131</v>
+      </c>
+      <c r="BB156">
+        <f t="shared" si="100"/>
+        <v>0.12844036697247704</v>
+      </c>
+      <c r="BC156">
+        <f t="shared" si="100"/>
+        <v>0.17944189332391383</v>
+      </c>
+      <c r="BE156">
+        <f t="shared" si="108"/>
+        <v>0.32463768115942027</v>
+      </c>
+      <c r="BF156">
+        <f t="shared" si="109"/>
+        <v>0.29850746268656714</v>
+      </c>
+      <c r="BG156">
+        <f t="shared" si="110"/>
+        <v>0.15120274914089349</v>
+      </c>
+      <c r="BH156">
+        <f t="shared" si="111"/>
+        <v>0.25</v>
+      </c>
     </row>
-    <row r="157" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:60" x14ac:dyDescent="0.25">
       <c r="C157">
         <v>35.6</v>
       </c>
@@ -15520,19 +15837,67 @@
         <v>0.34699853587115664</v>
       </c>
       <c r="AQ157" s="1">
-        <f t="shared" ref="AQ157:AS157" si="102">AJ183/AD183</f>
+        <f t="shared" ref="AQ157:AS157" si="114">AJ183/AD183</f>
         <v>0.3476968796433878</v>
       </c>
       <c r="AR157" s="1">
+        <f t="shared" si="114"/>
+        <v>0.15053763440860216</v>
+      </c>
+      <c r="AS157" s="1">
+        <f t="shared" si="114"/>
+        <v>0.27074235807860264</v>
+      </c>
+      <c r="AU157">
+        <f t="shared" si="104"/>
+        <v>0.49719101123595499</v>
+      </c>
+      <c r="AV157">
+        <f t="shared" si="105"/>
+        <v>0.36467236467236469</v>
+      </c>
+      <c r="AW157">
+        <f t="shared" si="106"/>
+        <v>0.14675767918088736</v>
+      </c>
+      <c r="AX157">
+        <f t="shared" si="107"/>
+        <v>0.31726907630522094</v>
+      </c>
+      <c r="AZ157">
         <f t="shared" si="102"/>
-        <v>0.15053763440860216</v>
-      </c>
-      <c r="AS157" s="1">
-        <f t="shared" si="102"/>
-        <v>0.27074235807860264</v>
+        <v>0.90234375</v>
+      </c>
+      <c r="BA157">
+        <f t="shared" si="100"/>
+        <v>0.35892116182572614</v>
+      </c>
+      <c r="BB157">
+        <f t="shared" si="100"/>
+        <v>0.12990196078431374</v>
+      </c>
+      <c r="BC157">
+        <f t="shared" si="100"/>
+        <v>0.19436424529391386</v>
+      </c>
+      <c r="BE157">
+        <f t="shared" si="108"/>
+        <v>0.26512968299711809</v>
+      </c>
+      <c r="BF157">
+        <f t="shared" si="109"/>
+        <v>0.43465909090909088</v>
+      </c>
+      <c r="BG157">
+        <f t="shared" si="110"/>
+        <v>0.13357400722021662</v>
+      </c>
+      <c r="BH157">
+        <f t="shared" si="111"/>
+        <v>0.23725055432372502</v>
       </c>
     </row>
-    <row r="158" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:60" x14ac:dyDescent="0.25">
       <c r="C158">
         <v>34.299999999999997</v>
       </c>
@@ -15605,8 +15970,56 @@
       <c r="AL158">
         <v>10.8</v>
       </c>
+      <c r="AU158">
+        <f t="shared" si="104"/>
+        <v>0.29737609329446063</v>
+      </c>
+      <c r="AV158">
+        <f t="shared" si="105"/>
+        <v>0.71186440677966101</v>
+      </c>
+      <c r="AW158">
+        <f t="shared" si="106"/>
+        <v>0.13310580204778155</v>
+      </c>
+      <c r="AX158">
+        <f t="shared" si="107"/>
+        <v>0.26205450733752617</v>
+      </c>
+      <c r="AZ158">
+        <f t="shared" si="102"/>
+        <v>0.23590814196242174</v>
+      </c>
+      <c r="BA158">
+        <f t="shared" si="100"/>
+        <v>0.22357723577235772</v>
+      </c>
+      <c r="BB158">
+        <f t="shared" si="100"/>
+        <v>0.21219512195121951</v>
+      </c>
+      <c r="BC158">
+        <f t="shared" si="100"/>
+        <v>0.15942200639583087</v>
+      </c>
+      <c r="BE158">
+        <f t="shared" si="108"/>
+        <v>0.78134110787172018</v>
+      </c>
+      <c r="BF158">
+        <f t="shared" si="109"/>
+        <v>0.34005763688760804</v>
+      </c>
+      <c r="BG158">
+        <f t="shared" si="110"/>
+        <v>0.16176470588235295</v>
+      </c>
+      <c r="BH158">
+        <f t="shared" si="111"/>
+        <v>0.23326133909287261</v>
+      </c>
     </row>
-    <row r="159" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:60" x14ac:dyDescent="0.25">
       <c r="C159">
         <v>34.9</v>
       </c>
@@ -15679,8 +16092,56 @@
       <c r="AL159">
         <v>7.4</v>
       </c>
+      <c r="AU159">
+        <f t="shared" si="104"/>
+        <v>0.36676217765042984</v>
+      </c>
+      <c r="AV159">
+        <f t="shared" si="105"/>
+        <v>0.37388724035608306</v>
+      </c>
+      <c r="AW159">
+        <f t="shared" si="106"/>
+        <v>0.38869257950530034</v>
+      </c>
+      <c r="AX159">
+        <f t="shared" si="107"/>
+        <v>0.21627408993576014</v>
+      </c>
+      <c r="AZ159">
+        <f t="shared" si="102"/>
+        <v>0.18834080717488788</v>
+      </c>
+      <c r="BA159">
+        <f t="shared" si="100"/>
+        <v>0.20594479830148618</v>
+      </c>
+      <c r="BB159">
+        <f t="shared" si="100"/>
+        <v>0.10849056603773584</v>
+      </c>
+      <c r="BC159">
+        <f t="shared" si="100"/>
+        <v>0.18252108716026241</v>
+      </c>
+      <c r="BE159">
+        <f t="shared" si="108"/>
+        <v>0.31518624641833815</v>
+      </c>
+      <c r="BF159">
+        <f t="shared" si="109"/>
+        <v>0.20783132530120482</v>
+      </c>
+      <c r="BG159">
+        <f t="shared" si="110"/>
+        <v>0.13636363636363635</v>
+      </c>
+      <c r="BH159">
+        <f t="shared" si="111"/>
+        <v>0.16666666666666669</v>
+      </c>
     </row>
-    <row r="160" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:60" x14ac:dyDescent="0.25">
       <c r="C160">
         <v>35</v>
       </c>
@@ -15753,8 +16214,56 @@
       <c r="AL160">
         <v>13.4</v>
       </c>
+      <c r="AU160">
+        <f t="shared" si="104"/>
+        <v>0.42857142857142855</v>
+      </c>
+      <c r="AV160">
+        <f t="shared" si="105"/>
+        <v>0.32142857142857145</v>
+      </c>
+      <c r="AW160">
+        <f t="shared" si="106"/>
+        <v>0.14634146341463417</v>
+      </c>
+      <c r="AX160">
+        <f t="shared" si="107"/>
+        <v>0.31535269709543567</v>
+      </c>
+      <c r="AZ160">
+        <f t="shared" si="102"/>
+        <v>0.17303370786516856</v>
+      </c>
+      <c r="BA160">
+        <f t="shared" si="100"/>
+        <v>0.22294372294372294</v>
+      </c>
+      <c r="BB160">
+        <f t="shared" si="100"/>
+        <v>0.10739856801909309</v>
+      </c>
+      <c r="BC160">
+        <f t="shared" si="100"/>
+        <v>0.16788096459722934</v>
+      </c>
+      <c r="BE160">
+        <f t="shared" si="108"/>
+        <v>0.45689655172413796</v>
+      </c>
+      <c r="BF160">
+        <f t="shared" si="109"/>
+        <v>0.29559748427672955</v>
+      </c>
+      <c r="BG160">
+        <f t="shared" si="110"/>
+        <v>0.15593220338983049</v>
+      </c>
+      <c r="BH160">
+        <f t="shared" si="111"/>
+        <v>0.30248306997742669</v>
+      </c>
     </row>
-    <row r="161" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:60" x14ac:dyDescent="0.25">
       <c r="C161">
         <v>32.299999999999997</v>
       </c>
@@ -15827,8 +16336,56 @@
       <c r="AL161">
         <v>17.5</v>
       </c>
+      <c r="AU161">
+        <f t="shared" si="104"/>
+        <v>0.27554179566563469</v>
+      </c>
+      <c r="AV161">
+        <f t="shared" si="105"/>
+        <v>0.2385321100917431</v>
+      </c>
+      <c r="AW161">
+        <f t="shared" si="106"/>
+        <v>0.14089347079037798</v>
+      </c>
+      <c r="AX161">
+        <f t="shared" si="107"/>
+        <v>0.60424710424710426</v>
+      </c>
+      <c r="AZ161">
+        <f t="shared" si="102"/>
+        <v>0.26470588235294118</v>
+      </c>
+      <c r="BA161">
+        <f t="shared" si="100"/>
+        <v>0.23326133909287261</v>
+      </c>
+      <c r="BB161">
+        <f t="shared" si="100"/>
+        <v>0.13730569948186527</v>
+      </c>
+      <c r="BC161">
+        <f t="shared" si="100"/>
+        <v>0.17145462836297309</v>
+      </c>
+      <c r="BE161">
+        <f t="shared" si="108"/>
+        <v>0.43019943019943019</v>
+      </c>
+      <c r="BF161">
+        <f t="shared" si="109"/>
+        <v>0.30447761194029849</v>
+      </c>
+      <c r="BG161">
+        <f t="shared" si="110"/>
+        <v>0.13618677042801558</v>
+      </c>
+      <c r="BH161">
+        <f t="shared" si="111"/>
+        <v>0.37878787878787878</v>
+      </c>
     </row>
-    <row r="162" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:60" x14ac:dyDescent="0.25">
       <c r="C162">
         <v>35.299999999999997</v>
       </c>
@@ -15901,8 +16458,56 @@
       <c r="AL162">
         <v>9</v>
       </c>
+      <c r="AU162">
+        <f t="shared" si="104"/>
+        <v>0.32011331444759211</v>
+      </c>
+      <c r="AV162">
+        <f t="shared" si="105"/>
+        <v>0.55312499999999998</v>
+      </c>
+      <c r="AW162">
+        <f t="shared" si="106"/>
+        <v>0.10600706713780919</v>
+      </c>
+      <c r="AX162">
+        <f t="shared" si="107"/>
+        <v>0.24042553191489363</v>
+      </c>
+      <c r="AZ162">
+        <f t="shared" si="102"/>
+        <v>0.18834080717488788</v>
+      </c>
+      <c r="BA162">
+        <f t="shared" si="100"/>
+        <v>0.61776859504132231</v>
+      </c>
+      <c r="BB162">
+        <f t="shared" si="100"/>
+        <v>0.14320987654320988</v>
+      </c>
+      <c r="BC162">
+        <f t="shared" si="100"/>
+        <v>0.1805603201829617</v>
+      </c>
+      <c r="BE162">
+        <f t="shared" si="108"/>
+        <v>0.25076452599388377</v>
+      </c>
+      <c r="BF162">
+        <f t="shared" si="109"/>
+        <v>0.36176470588235299</v>
+      </c>
+      <c r="BG162">
+        <f t="shared" si="110"/>
+        <v>0.14482758620689656</v>
+      </c>
+      <c r="BH162">
+        <f t="shared" si="111"/>
+        <v>0.21176470588235294</v>
+      </c>
     </row>
-    <row r="163" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:60" x14ac:dyDescent="0.25">
       <c r="C163">
         <v>30.6</v>
       </c>
@@ -15975,8 +16580,56 @@
       <c r="AL163">
         <v>17.100000000000001</v>
       </c>
+      <c r="AU163">
+        <f t="shared" si="104"/>
+        <v>0.2581699346405229</v>
+      </c>
+      <c r="AV163">
+        <f t="shared" si="105"/>
+        <v>0.56156156156156156</v>
+      </c>
+      <c r="AW163">
+        <f t="shared" si="106"/>
+        <v>0.19011406844106463</v>
+      </c>
+      <c r="AX163">
+        <f t="shared" si="107"/>
+        <v>0.21604938271604937</v>
+      </c>
+      <c r="AZ163">
+        <f t="shared" si="102"/>
+        <v>0.25</v>
+      </c>
+      <c r="BA163">
+        <f t="shared" si="100"/>
+        <v>0.18471337579617833</v>
+      </c>
+      <c r="BB163">
+        <f t="shared" si="100"/>
+        <v>0.11600928074245939</v>
+      </c>
+      <c r="BC163">
+        <f t="shared" si="100"/>
+        <v>0.17055257635812546</v>
+      </c>
+      <c r="BE163">
+        <f t="shared" si="108"/>
+        <v>0.32238805970149254</v>
+      </c>
+      <c r="BF163">
+        <f t="shared" si="109"/>
+        <v>0.20588235294117646</v>
+      </c>
+      <c r="BG163">
+        <f t="shared" si="110"/>
+        <v>0.2673611111111111</v>
+      </c>
+      <c r="BH163">
+        <f t="shared" si="111"/>
+        <v>0.33661417322834652</v>
+      </c>
     </row>
-    <row r="164" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:60" x14ac:dyDescent="0.25">
       <c r="C164">
         <v>33.9</v>
       </c>
@@ -16049,8 +16702,59 @@
       <c r="AL164">
         <v>8.8000000000000007</v>
       </c>
+      <c r="AU164">
+        <f t="shared" si="104"/>
+        <v>0.26253687315634222</v>
+      </c>
+      <c r="AV164">
+        <f t="shared" si="105"/>
+        <v>0.40289855072463771</v>
+      </c>
+      <c r="AW164">
+        <f t="shared" si="106"/>
+        <v>0.11678832116788322</v>
+      </c>
+      <c r="AX164">
+        <f t="shared" si="107"/>
+        <v>0.2377049180327869</v>
+      </c>
+      <c r="AZ164">
+        <f t="shared" si="102"/>
+        <v>0.71089108910891086</v>
+      </c>
+      <c r="BA164">
+        <f t="shared" si="100"/>
+        <v>0.34115138592750532</v>
+      </c>
+      <c r="BB164">
+        <f t="shared" si="100"/>
+        <v>0.13402061855670105</v>
+      </c>
+      <c r="BC164">
+        <f t="shared" si="100"/>
+        <v>0.18946436476316952</v>
+      </c>
+      <c r="BE164">
+        <f t="shared" si="108"/>
+        <v>0.26300578034682076</v>
+      </c>
+      <c r="BF164">
+        <f t="shared" si="109"/>
+        <v>0.358433734939759</v>
+      </c>
+      <c r="BG164">
+        <f t="shared" si="110"/>
+        <v>0.15277777777777779</v>
+      </c>
+      <c r="BH164">
+        <f t="shared" si="111"/>
+        <v>0.19426048565121415</v>
+      </c>
     </row>
-    <row r="165" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:60" x14ac:dyDescent="0.25">
+      <c r="A165">
+        <v>31.73</v>
+      </c>
       <c r="C165">
         <v>30</v>
       </c>
@@ -16123,8 +16827,59 @@
       <c r="AL165">
         <v>7.6</v>
       </c>
+      <c r="AU165">
+        <f t="shared" si="104"/>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="AV165">
+        <f t="shared" si="105"/>
+        <v>0.3303834808259587</v>
+      </c>
+      <c r="AW165">
+        <f t="shared" si="106"/>
+        <v>0.18050541516245489</v>
+      </c>
+      <c r="AX165">
+        <f t="shared" si="107"/>
+        <v>0.323943661971831</v>
+      </c>
+      <c r="AZ165">
+        <f t="shared" si="102"/>
+        <v>0.24000000000000002</v>
+      </c>
+      <c r="BA165">
+        <f t="shared" si="100"/>
+        <v>0.20758928571428575</v>
+      </c>
+      <c r="BB165">
+        <f t="shared" si="100"/>
+        <v>0.15311004784688997</v>
+      </c>
+      <c r="BC165">
+        <f t="shared" si="100"/>
+        <v>0.17974624060150374</v>
+      </c>
+      <c r="BE165">
+        <f t="shared" si="108"/>
+        <v>0.3042253521126761</v>
+      </c>
+      <c r="BF165">
+        <f t="shared" si="109"/>
+        <v>0.283625730994152</v>
+      </c>
+      <c r="BG165">
+        <f t="shared" si="110"/>
+        <v>0.15916955017301038</v>
+      </c>
+      <c r="BH165">
+        <f t="shared" si="111"/>
+        <v>0.15899581589958159</v>
+      </c>
     </row>
-    <row r="166" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:60" x14ac:dyDescent="0.25">
+      <c r="A166">
+        <v>44.58</v>
+      </c>
       <c r="C166">
         <v>32.9</v>
       </c>
@@ -16197,8 +16952,59 @@
       <c r="AL166">
         <v>8.1999999999999993</v>
       </c>
+      <c r="AU166">
+        <f t="shared" si="104"/>
+        <v>0.20668693009118541</v>
+      </c>
+      <c r="AV166">
+        <f t="shared" si="105"/>
+        <v>0.3611111111111111</v>
+      </c>
+      <c r="AW166">
+        <f t="shared" si="106"/>
+        <v>0.14035087719298245</v>
+      </c>
+      <c r="AX166">
+        <f t="shared" si="107"/>
+        <v>0.35727788279773154</v>
+      </c>
+      <c r="AZ166">
+        <f t="shared" si="102"/>
+        <v>0.29629629629629628</v>
+      </c>
+      <c r="BA166">
+        <f t="shared" si="100"/>
+        <v>0.13730569948186527</v>
+      </c>
+      <c r="BB166">
+        <f t="shared" si="100"/>
+        <v>0.10594315245478035</v>
+      </c>
+      <c r="BC166">
+        <f t="shared" si="100"/>
+        <v>0.17094219174843361</v>
+      </c>
+      <c r="BE166">
+        <f t="shared" si="108"/>
+        <v>0.58875739644970415</v>
+      </c>
+      <c r="BF166">
+        <f t="shared" si="109"/>
+        <v>0.32947976878612717</v>
+      </c>
+      <c r="BG166">
+        <f t="shared" si="110"/>
+        <v>0.15693430656934307</v>
+      </c>
+      <c r="BH166">
+        <f t="shared" si="111"/>
+        <v>0.18101545253863136</v>
+      </c>
     </row>
-    <row r="167" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:60" x14ac:dyDescent="0.25">
+      <c r="A167">
+        <v>31.9</v>
+      </c>
       <c r="C167">
         <v>35.4</v>
       </c>
@@ -16271,8 +17077,60 @@
       <c r="AL167">
         <v>7.9</v>
       </c>
+      <c r="AU167">
+        <f t="shared" si="104"/>
+        <v>0.30508474576271188</v>
+      </c>
+      <c r="AV167">
+        <f t="shared" si="105"/>
+        <v>0.4414715719063545</v>
+      </c>
+      <c r="AW167">
+        <f t="shared" si="106"/>
+        <v>0.1348314606741573</v>
+      </c>
+      <c r="AX167">
+        <f t="shared" si="107"/>
+        <v>0.66160520607375273</v>
+      </c>
+      <c r="AZ167">
+        <f t="shared" si="102"/>
+        <v>0.22580645161290322</v>
+      </c>
+      <c r="BA167">
+        <f t="shared" si="100"/>
+        <v>0.19103773584905659</v>
+      </c>
+      <c r="BB167">
+        <f t="shared" si="100"/>
+        <v>0.13466334164588528</v>
+      </c>
+      <c r="BC167">
+        <f t="shared" si="100"/>
+        <v>0.16467938526762058</v>
+      </c>
+      <c r="BE167">
+        <f t="shared" si="108"/>
+        <v>0.35029940119760478</v>
+      </c>
+      <c r="BF167">
+        <f t="shared" si="109"/>
+        <v>0.40762463343108502</v>
+      </c>
+      <c r="BG167">
+        <f t="shared" si="110"/>
+        <v>0.13758389261744966</v>
+      </c>
+      <c r="BH167">
+        <f t="shared" si="111"/>
+        <v>0.17995444191343965</v>
+      </c>
     </row>
-    <row r="168" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:60" x14ac:dyDescent="0.25">
+      <c r="A168">
+        <f>(A166/A165+A166/A167)/2</f>
+        <v>1.4012358388321524</v>
+      </c>
       <c r="C168">
         <v>32.4</v>
       </c>
@@ -16345,8 +17203,56 @@
       <c r="AL168">
         <v>37.6</v>
       </c>
+      <c r="AU168">
+        <f t="shared" si="104"/>
+        <v>0.24691358024691359</v>
+      </c>
+      <c r="AV168">
+        <f t="shared" si="105"/>
+        <v>0.33116883116883111</v>
+      </c>
+      <c r="AW168">
+        <f t="shared" si="106"/>
+        <v>0.16731517509727625</v>
+      </c>
+      <c r="AX168">
+        <f t="shared" si="107"/>
+        <v>0.29376257545271628</v>
+      </c>
+      <c r="AZ168">
+        <f t="shared" si="102"/>
+        <v>0.19313304721030042</v>
+      </c>
+      <c r="BA168">
+        <f t="shared" ref="BA168:BA182" si="115">W169/Q169</f>
+        <v>0.20302375809935208</v>
+      </c>
+      <c r="BB168">
+        <f t="shared" ref="BB168:BC182" si="116">X169/R169</f>
+        <v>0.13947368421052631</v>
+      </c>
+      <c r="BC168">
+        <f t="shared" si="116"/>
+        <v>0.24736129905277404</v>
+      </c>
+      <c r="BE168">
+        <f t="shared" si="108"/>
+        <v>0.38943894389438943</v>
+      </c>
+      <c r="BF168">
+        <f t="shared" si="109"/>
+        <v>0.32075471698113206</v>
+      </c>
+      <c r="BG168">
+        <f t="shared" si="110"/>
+        <v>0.14391143911439114</v>
+      </c>
+      <c r="BH168">
+        <f t="shared" si="111"/>
+        <v>0.85454545454545461</v>
+      </c>
     </row>
-    <row r="169" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:60" x14ac:dyDescent="0.25">
       <c r="C169">
         <v>32.299999999999997</v>
       </c>
@@ -16419,8 +17325,56 @@
       <c r="AL169">
         <v>13.9</v>
       </c>
+      <c r="AU169">
+        <f t="shared" si="104"/>
+        <v>0.44582043343653255</v>
+      </c>
+      <c r="AV169">
+        <f t="shared" si="105"/>
+        <v>0.25377643504531722</v>
+      </c>
+      <c r="AW169">
+        <f t="shared" si="106"/>
+        <v>0.22614840989399293</v>
+      </c>
+      <c r="AX169">
+        <f t="shared" si="107"/>
+        <v>0.30472103004291845</v>
+      </c>
+      <c r="AZ169">
+        <f t="shared" si="102"/>
+        <v>0.21086956521739128</v>
+      </c>
+      <c r="BA169">
+        <f t="shared" si="115"/>
+        <v>0.21806167400881057</v>
+      </c>
+      <c r="BB169">
+        <f t="shared" si="116"/>
+        <v>0.10563380281690141</v>
+      </c>
+      <c r="BC169">
+        <f t="shared" si="116"/>
+        <v>0.18536251709986318</v>
+      </c>
+      <c r="BE169">
+        <f t="shared" si="108"/>
+        <v>0.28398791540785501</v>
+      </c>
+      <c r="BF169">
+        <f t="shared" si="109"/>
+        <v>0.36391437308868502</v>
+      </c>
+      <c r="BG169">
+        <f t="shared" si="110"/>
+        <v>0.44747081712062259</v>
+      </c>
+      <c r="BH169">
+        <f t="shared" si="111"/>
+        <v>0.30549450549450552</v>
+      </c>
     </row>
-    <row r="170" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:60" x14ac:dyDescent="0.25">
       <c r="C170">
         <v>34.200000000000003</v>
       </c>
@@ -16493,8 +17447,56 @@
       <c r="AL170">
         <v>56.1</v>
       </c>
+      <c r="AU170">
+        <f t="shared" si="104"/>
+        <v>0.30409356725146197</v>
+      </c>
+      <c r="AV170">
+        <f t="shared" si="105"/>
+        <v>0.34023668639053256</v>
+      </c>
+      <c r="AW170">
+        <f t="shared" si="106"/>
+        <v>0.22183098591549297</v>
+      </c>
+      <c r="AX170">
+        <f t="shared" si="107"/>
+        <v>0.28451882845188287</v>
+      </c>
+      <c r="AZ170">
+        <f t="shared" si="102"/>
+        <v>0.24611973392461195</v>
+      </c>
+      <c r="BA170">
+        <f t="shared" si="115"/>
+        <v>0.29175946547884185</v>
+      </c>
+      <c r="BB170">
+        <f t="shared" si="116"/>
+        <v>0.12200956937799043</v>
+      </c>
+      <c r="BC170">
+        <f t="shared" si="116"/>
+        <v>0.18164284093487634</v>
+      </c>
+      <c r="BE170">
+        <f t="shared" si="108"/>
+        <v>0.35207100591715978</v>
+      </c>
+      <c r="BF170">
+        <f t="shared" si="109"/>
+        <v>0.42073170731707321</v>
+      </c>
+      <c r="BG170">
+        <f t="shared" si="110"/>
+        <v>0.15671641791044777</v>
+      </c>
+      <c r="BH170">
+        <f t="shared" si="111"/>
+        <v>1.0369685767097967</v>
+      </c>
     </row>
-    <row r="171" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:60" x14ac:dyDescent="0.25">
       <c r="C171">
         <v>33.700000000000003</v>
       </c>
@@ -16567,8 +17569,56 @@
       <c r="AL171">
         <v>23.7</v>
       </c>
+      <c r="AU171">
+        <f t="shared" si="104"/>
+        <v>0.39169139465875363</v>
+      </c>
+      <c r="AV171">
+        <f t="shared" si="105"/>
+        <v>0.37278106508875741</v>
+      </c>
+      <c r="AW171">
+        <f t="shared" si="106"/>
+        <v>0.17037037037037037</v>
+      </c>
+      <c r="AX171">
+        <f t="shared" si="107"/>
+        <v>0.2537313432835821</v>
+      </c>
+      <c r="AZ171">
+        <f t="shared" si="102"/>
+        <v>0.20915032679738563</v>
+      </c>
+      <c r="BA171">
+        <f t="shared" si="115"/>
+        <v>0.23340471092077086</v>
+      </c>
+      <c r="BB171">
+        <f t="shared" si="116"/>
+        <v>0.12530120481927712</v>
+      </c>
+      <c r="BC171">
+        <f t="shared" si="116"/>
+        <v>0.18064744801512289</v>
+      </c>
+      <c r="BE171">
+        <f t="shared" si="108"/>
+        <v>0.42011834319526631</v>
+      </c>
+      <c r="BF171">
+        <f t="shared" si="109"/>
+        <v>0.40821917808219177</v>
+      </c>
+      <c r="BG171">
+        <f t="shared" si="110"/>
+        <v>0.14232209737827714</v>
+      </c>
+      <c r="BH171">
+        <f t="shared" si="111"/>
+        <v>0.47878787878787876</v>
+      </c>
     </row>
-    <row r="172" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:60" x14ac:dyDescent="0.25">
       <c r="C172">
         <v>35.700000000000003</v>
       </c>
@@ -16641,8 +17691,56 @@
       <c r="AL172">
         <v>16.399999999999999</v>
       </c>
+      <c r="AU172">
+        <f t="shared" si="104"/>
+        <v>0.30532212885154059</v>
+      </c>
+      <c r="AV172">
+        <f t="shared" si="105"/>
+        <v>0.44350282485875708</v>
+      </c>
+      <c r="AW172">
+        <f t="shared" si="106"/>
+        <v>0.13909774436090225</v>
+      </c>
+      <c r="AX172">
+        <f t="shared" si="107"/>
+        <v>0.34347826086956523</v>
+      </c>
+      <c r="AZ172">
+        <f t="shared" si="102"/>
+        <v>0.18103448275862069</v>
+      </c>
+      <c r="BA172">
+        <f t="shared" si="115"/>
+        <v>0.22678185745140389</v>
+      </c>
+      <c r="BB172">
+        <f t="shared" si="116"/>
+        <v>0.22556390977443611</v>
+      </c>
+      <c r="BC172">
+        <f t="shared" si="116"/>
+        <v>0.16026396417629035</v>
+      </c>
+      <c r="BE172">
+        <f t="shared" si="108"/>
+        <v>0.43401759530791789</v>
+      </c>
+      <c r="BF172">
+        <f t="shared" si="109"/>
+        <v>0.47838616714697407</v>
+      </c>
+      <c r="BG172">
+        <f t="shared" si="110"/>
+        <v>0.32452830188679244</v>
+      </c>
+      <c r="BH172">
+        <f t="shared" si="111"/>
+        <v>0.35344827586206895</v>
+      </c>
     </row>
-    <row r="173" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:60" x14ac:dyDescent="0.25">
       <c r="C173">
         <v>34.5</v>
       </c>
@@ -16715,8 +17813,56 @@
       <c r="AL173">
         <v>10.6</v>
       </c>
+      <c r="AU173">
+        <f t="shared" si="104"/>
+        <v>0.38550724637681161</v>
+      </c>
+      <c r="AV173">
+        <f t="shared" si="105"/>
+        <v>0.38601823708206684</v>
+      </c>
+      <c r="AW173">
+        <f t="shared" si="106"/>
+        <v>0.29136690647482011</v>
+      </c>
+      <c r="AX173">
+        <f t="shared" si="107"/>
+        <v>0.33805668016194329</v>
+      </c>
+      <c r="AZ173">
+        <f t="shared" si="102"/>
+        <v>0.43013100436681223</v>
+      </c>
+      <c r="BA173">
+        <f t="shared" si="115"/>
+        <v>0.21321961620469085</v>
+      </c>
+      <c r="BB173">
+        <f t="shared" si="116"/>
+        <v>0.10268948655256724</v>
+      </c>
+      <c r="BC173">
+        <f t="shared" si="116"/>
+        <v>0.16342965419232591</v>
+      </c>
+      <c r="BE173">
+        <f t="shared" si="108"/>
+        <v>0.32853025936599423</v>
+      </c>
+      <c r="BF173">
+        <f t="shared" si="109"/>
+        <v>0.30153846153846153</v>
+      </c>
+      <c r="BG173">
+        <f t="shared" si="110"/>
+        <v>0.12167300380228137</v>
+      </c>
+      <c r="BH173">
+        <f t="shared" si="111"/>
+        <v>0.2264957264957265</v>
+      </c>
     </row>
-    <row r="174" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:60" x14ac:dyDescent="0.25">
       <c r="C174">
         <v>34</v>
       </c>
@@ -16789,8 +17935,56 @@
       <c r="AL174">
         <v>17.2</v>
       </c>
+      <c r="AU174">
+        <f t="shared" si="104"/>
+        <v>0.39999999999999997</v>
+      </c>
+      <c r="AV174">
+        <f t="shared" si="105"/>
+        <v>0.24590163934426229</v>
+      </c>
+      <c r="AW174">
+        <f t="shared" si="106"/>
+        <v>0.15034965034965034</v>
+      </c>
+      <c r="AX174">
+        <f t="shared" si="107"/>
+        <v>0.28719008264462814</v>
+      </c>
+      <c r="AZ174">
+        <f t="shared" si="102"/>
+        <v>0.22784810126582281</v>
+      </c>
+      <c r="BA174">
+        <f t="shared" si="115"/>
+        <v>0.29782608695652174</v>
+      </c>
+      <c r="BB174">
+        <f t="shared" si="116"/>
+        <v>0.10319410319410319</v>
+      </c>
+      <c r="BC174">
+        <f t="shared" si="116"/>
+        <v>0.17049255969546662</v>
+      </c>
+      <c r="BE174">
+        <f t="shared" si="108"/>
+        <v>0.43939393939393939</v>
+      </c>
+      <c r="BF174">
+        <f t="shared" si="109"/>
+        <v>0.38554216867469876</v>
+      </c>
+      <c r="BG174">
+        <f t="shared" si="110"/>
+        <v>0.14909090909090908</v>
+      </c>
+      <c r="BH174">
+        <f t="shared" si="111"/>
+        <v>0.32209737827715357</v>
+      </c>
     </row>
-    <row r="175" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:60" x14ac:dyDescent="0.25">
       <c r="C175">
         <v>31.5</v>
       </c>
@@ -16863,8 +18057,56 @@
       <c r="AL175">
         <v>47.5</v>
       </c>
+      <c r="AU175">
+        <f t="shared" si="104"/>
+        <v>0.29206349206349203</v>
+      </c>
+      <c r="AV175">
+        <f t="shared" si="105"/>
+        <v>0.27409638554216864</v>
+      </c>
+      <c r="AW175">
+        <f t="shared" si="106"/>
+        <v>0.14634146341463417</v>
+      </c>
+      <c r="AX175">
+        <f t="shared" si="107"/>
+        <v>0.25109170305676859</v>
+      </c>
+      <c r="AZ175">
+        <f t="shared" si="102"/>
+        <v>0.26569037656903766</v>
+      </c>
+      <c r="BA175">
+        <f t="shared" si="115"/>
+        <v>0.20995670995670992</v>
+      </c>
+      <c r="BB175">
+        <f t="shared" si="116"/>
+        <v>0.13098236775818639</v>
+      </c>
+      <c r="BC175">
+        <f t="shared" si="116"/>
+        <v>0.17464622641509434</v>
+      </c>
+      <c r="BE175">
+        <f t="shared" si="108"/>
+        <v>0.39154929577464792</v>
+      </c>
+      <c r="BF175">
+        <f t="shared" si="109"/>
+        <v>0.18241042345276873</v>
+      </c>
+      <c r="BG175">
+        <f t="shared" si="110"/>
+        <v>0.11678832116788322</v>
+      </c>
+      <c r="BH175">
+        <f t="shared" si="111"/>
+        <v>0.99789915966386555</v>
+      </c>
     </row>
-    <row r="176" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:60" x14ac:dyDescent="0.25">
       <c r="C176">
         <v>33.5</v>
       </c>
@@ -16937,8 +18179,56 @@
       <c r="AL176">
         <v>32.299999999999997</v>
       </c>
+      <c r="AU176">
+        <f t="shared" si="104"/>
+        <v>0.35820895522388058</v>
+      </c>
+      <c r="AV176">
+        <f t="shared" si="105"/>
+        <v>0.33429394812680113</v>
+      </c>
+      <c r="AW176">
+        <f t="shared" si="106"/>
+        <v>0.15613382899628253</v>
+      </c>
+      <c r="AX176">
+        <f t="shared" si="107"/>
+        <v>0.19262295081967215</v>
+      </c>
+      <c r="AZ176">
+        <f t="shared" si="102"/>
+        <v>0.18279569892473119</v>
+      </c>
+      <c r="BA176">
+        <f t="shared" si="115"/>
+        <v>0.36739130434782608</v>
+      </c>
+      <c r="BB176">
+        <f t="shared" si="116"/>
+        <v>0.15571776155717762</v>
+      </c>
+      <c r="BC176">
+        <f t="shared" si="116"/>
+        <v>0.17955316411276173</v>
+      </c>
+      <c r="BE176">
+        <f t="shared" si="108"/>
+        <v>0.42690058479532161</v>
+      </c>
+      <c r="BF176">
+        <f t="shared" si="109"/>
+        <v>0.30835734870317</v>
+      </c>
+      <c r="BG176">
+        <f t="shared" si="110"/>
+        <v>0.15</v>
+      </c>
+      <c r="BH176">
+        <f t="shared" si="111"/>
+        <v>0.68432203389830504</v>
+      </c>
     </row>
-    <row r="177" spans="2:38" x14ac:dyDescent="0.25">
+    <row r="177" spans="2:60" x14ac:dyDescent="0.25">
       <c r="C177">
         <v>34.799999999999997</v>
       </c>
@@ -17011,8 +18301,56 @@
       <c r="AL177">
         <v>8.1</v>
       </c>
+      <c r="AU177">
+        <f t="shared" si="104"/>
+        <v>0.26724137931034486</v>
+      </c>
+      <c r="AV177">
+        <f t="shared" si="105"/>
+        <v>0.23493975903614456</v>
+      </c>
+      <c r="AW177">
+        <f t="shared" si="106"/>
+        <v>0.23954372623574144</v>
+      </c>
+      <c r="AX177">
+        <f t="shared" si="107"/>
+        <v>0.28947368421052633</v>
+      </c>
+      <c r="AZ177">
+        <f t="shared" si="102"/>
+        <v>0.2263736263736264</v>
+      </c>
+      <c r="BA177">
+        <f t="shared" si="115"/>
+        <v>0.22689075630252101</v>
+      </c>
+      <c r="BB177">
+        <f t="shared" si="116"/>
+        <v>0.13488372093023254</v>
+      </c>
+      <c r="BC177">
+        <f t="shared" si="116"/>
+        <v>0.16622691292875991</v>
+      </c>
+      <c r="BE177">
+        <f t="shared" si="108"/>
+        <v>0.35755813953488375</v>
+      </c>
+      <c r="BF177">
+        <f t="shared" si="109"/>
+        <v>0.34943181818181818</v>
+      </c>
+      <c r="BG177">
+        <f t="shared" si="110"/>
+        <v>0.13194444444444445</v>
+      </c>
+      <c r="BH177">
+        <f t="shared" si="111"/>
+        <v>0.17724288840262581</v>
+      </c>
     </row>
-    <row r="178" spans="2:38" x14ac:dyDescent="0.25">
+    <row r="178" spans="2:60" x14ac:dyDescent="0.25">
       <c r="C178">
         <v>36.6</v>
       </c>
@@ -17085,8 +18423,56 @@
       <c r="AL178">
         <v>11.5</v>
       </c>
+      <c r="AU178">
+        <f t="shared" si="104"/>
+        <v>0.34426229508196721</v>
+      </c>
+      <c r="AV178">
+        <f t="shared" si="105"/>
+        <v>0.35735735735735741</v>
+      </c>
+      <c r="AW178">
+        <f t="shared" si="106"/>
+        <v>0.12857142857142859</v>
+      </c>
+      <c r="AX178">
+        <f t="shared" si="107"/>
+        <v>0.33265720081135902</v>
+      </c>
+      <c r="AZ178">
+        <f t="shared" si="102"/>
+        <v>0.17659574468085107</v>
+      </c>
+      <c r="BA178">
+        <f t="shared" si="115"/>
+        <v>0.21132897603485837</v>
+      </c>
+      <c r="BB178">
+        <f t="shared" si="116"/>
+        <v>7.8048780487804878E-2</v>
+      </c>
+      <c r="BC178">
+        <f t="shared" si="116"/>
+        <v>0.19477744807121661</v>
+      </c>
+      <c r="BE178">
+        <f t="shared" si="108"/>
+        <v>0.35612535612535612</v>
+      </c>
+      <c r="BF178">
+        <f t="shared" si="109"/>
+        <v>0.27444794952681384</v>
+      </c>
+      <c r="BG178">
+        <f t="shared" si="110"/>
+        <v>0.15224913494809691</v>
+      </c>
+      <c r="BH178">
+        <f t="shared" si="111"/>
+        <v>0.2494577006507592</v>
+      </c>
     </row>
-    <row r="179" spans="2:38" x14ac:dyDescent="0.25">
+    <row r="179" spans="2:60" x14ac:dyDescent="0.25">
       <c r="C179">
         <v>31.8</v>
       </c>
@@ -17159,8 +18545,56 @@
       <c r="AL179">
         <v>13.4</v>
       </c>
+      <c r="AU179">
+        <f t="shared" si="104"/>
+        <v>0.38364779874213834</v>
+      </c>
+      <c r="AV179">
+        <f t="shared" si="105"/>
+        <v>0.39455782312925169</v>
+      </c>
+      <c r="AW179">
+        <f t="shared" si="106"/>
+        <v>0.13235294117647059</v>
+      </c>
+      <c r="AX179">
+        <f t="shared" si="107"/>
+        <v>0.20146520146520147</v>
+      </c>
+      <c r="AZ179">
+        <f t="shared" si="102"/>
+        <v>0.21710526315789475</v>
+      </c>
+      <c r="BA179">
+        <f t="shared" si="115"/>
+        <v>0.25842696629213485</v>
+      </c>
+      <c r="BB179">
+        <f t="shared" si="116"/>
+        <v>0.10869565217391304</v>
+      </c>
+      <c r="BC179">
+        <f t="shared" si="116"/>
+        <v>0.18900629229490679</v>
+      </c>
+      <c r="BE179">
+        <f t="shared" si="108"/>
+        <v>0.37900874635568516</v>
+      </c>
+      <c r="BF179">
+        <f t="shared" si="109"/>
+        <v>0.4228395061728395</v>
+      </c>
+      <c r="BG179">
+        <f t="shared" si="110"/>
+        <v>0.14878892733564014</v>
+      </c>
+      <c r="BH179">
+        <f t="shared" si="111"/>
+        <v>0.29257641921397382</v>
+      </c>
     </row>
-    <row r="180" spans="2:38" x14ac:dyDescent="0.25">
+    <row r="180" spans="2:60" x14ac:dyDescent="0.25">
       <c r="C180">
         <v>32.6</v>
       </c>
@@ -17233,8 +18667,56 @@
       <c r="AL180">
         <v>23.7</v>
       </c>
+      <c r="AU180">
+        <f t="shared" si="104"/>
+        <v>0.57668711656441718</v>
+      </c>
+      <c r="AV180">
+        <f t="shared" si="105"/>
+        <v>0.68401486988847582</v>
+      </c>
+      <c r="AW180">
+        <f t="shared" si="106"/>
+        <v>0.13879003558718861</v>
+      </c>
+      <c r="AX180">
+        <f t="shared" si="107"/>
+        <v>0.25869565217391305</v>
+      </c>
+      <c r="AZ180">
+        <f t="shared" si="102"/>
+        <v>0.26588235294117651</v>
+      </c>
+      <c r="BA180">
+        <f t="shared" si="115"/>
+        <v>0.23478260869565218</v>
+      </c>
+      <c r="BB180">
+        <f t="shared" si="116"/>
+        <v>0.11838790931989925</v>
+      </c>
+      <c r="BC180">
+        <f t="shared" si="116"/>
+        <v>0.17633410672853828</v>
+      </c>
+      <c r="BE180">
+        <f t="shared" si="108"/>
+        <v>0.3</v>
+      </c>
+      <c r="BF180">
+        <f t="shared" si="109"/>
+        <v>0.29261363636363635</v>
+      </c>
+      <c r="BG180">
+        <f t="shared" si="110"/>
+        <v>0.15878378378378377</v>
+      </c>
+      <c r="BH180">
+        <f t="shared" si="111"/>
+        <v>0.53258426966292138</v>
+      </c>
     </row>
-    <row r="181" spans="2:38" x14ac:dyDescent="0.25">
+    <row r="181" spans="2:60" x14ac:dyDescent="0.25">
       <c r="C181">
         <v>34.1</v>
       </c>
@@ -17307,8 +18789,56 @@
       <c r="AL181">
         <v>9.8000000000000007</v>
       </c>
+      <c r="AU181">
+        <f t="shared" si="104"/>
+        <v>0.25806451612903225</v>
+      </c>
+      <c r="AV181">
+        <f t="shared" si="105"/>
+        <v>0.69732937685459939</v>
+      </c>
+      <c r="AW181">
+        <f t="shared" si="106"/>
+        <v>0.12318840579710144</v>
+      </c>
+      <c r="AX181">
+        <f t="shared" si="107"/>
+        <v>0.3380281690140845</v>
+      </c>
+      <c r="AZ181">
+        <f t="shared" si="102"/>
+        <v>0.33622559652928413</v>
+      </c>
+      <c r="BA181">
+        <f t="shared" si="115"/>
+        <v>0.22863247863247863</v>
+      </c>
+      <c r="BB181">
+        <f t="shared" si="116"/>
+        <v>0.12655086848635236</v>
+      </c>
+      <c r="BC181">
+        <f t="shared" si="116"/>
+        <v>0.17349340866290019</v>
+      </c>
+      <c r="BE181">
+        <f t="shared" si="108"/>
+        <v>0.36283185840707965</v>
+      </c>
+      <c r="BF181">
+        <f t="shared" si="109"/>
+        <v>0.41284403669724767</v>
+      </c>
+      <c r="BG181">
+        <f t="shared" si="110"/>
+        <v>0.13405797101449277</v>
+      </c>
+      <c r="BH181">
+        <f t="shared" si="111"/>
+        <v>0.2232346241457859</v>
+      </c>
     </row>
-    <row r="182" spans="2:38" x14ac:dyDescent="0.25">
+    <row r="182" spans="2:60" x14ac:dyDescent="0.25">
       <c r="C182">
         <v>34.200000000000003</v>
       </c>
@@ -17381,8 +18911,40 @@
       <c r="AL182">
         <v>13</v>
       </c>
+      <c r="AU182">
+        <f t="shared" si="104"/>
+        <v>0.3888888888888889</v>
+      </c>
+      <c r="AV182">
+        <f t="shared" si="105"/>
+        <v>0.25477707006369427</v>
+      </c>
+      <c r="AW182">
+        <f t="shared" si="106"/>
+        <v>0.14598540145985403</v>
+      </c>
+      <c r="AX182">
+        <f t="shared" si="107"/>
+        <v>0.26587301587301587</v>
+      </c>
+      <c r="BE182">
+        <f t="shared" ref="BE182" si="117">AI182/AC182</f>
+        <v>0.29051987767584098</v>
+      </c>
+      <c r="BF182">
+        <f t="shared" ref="BF182" si="118">AJ182/AD182</f>
+        <v>0.34705882352941181</v>
+      </c>
+      <c r="BG182">
+        <f t="shared" ref="BG182" si="119">AK182/AE182</f>
+        <v>0.13427561837455829</v>
+      </c>
+      <c r="BH182">
+        <f t="shared" ref="BH182" si="120">AL182/AF182</f>
+        <v>0.28697571743929362</v>
+      </c>
     </row>
-    <row r="183" spans="2:38" x14ac:dyDescent="0.25">
+    <row r="183" spans="2:60" x14ac:dyDescent="0.25">
       <c r="B183" t="s">
         <v>19</v>
       </c>
@@ -17391,15 +18953,15 @@
         <v>34</v>
       </c>
       <c r="D183">
-        <f t="shared" ref="D183" si="103">MEDIAN(D153:D182)</f>
+        <f t="shared" ref="D183" si="121">MEDIAN(D153:D182)</f>
         <v>33.299999999999997</v>
       </c>
       <c r="E183">
-        <f t="shared" ref="E183" si="104">MEDIAN(E153:E182)</f>
+        <f t="shared" ref="E183" si="122">MEDIAN(E153:E182)</f>
         <v>27.9</v>
       </c>
       <c r="F183">
-        <f t="shared" ref="F183" si="105">MEDIAN(F153:F182)</f>
+        <f t="shared" ref="F183" si="123">MEDIAN(F153:F182)</f>
         <v>48.75</v>
       </c>
       <c r="H183" t="s">
@@ -17410,15 +18972,15 @@
         <v>11.100000000000001</v>
       </c>
       <c r="J183">
-        <f t="shared" ref="J183" si="106">MEDIAN(J153:J182)</f>
+        <f t="shared" ref="J183" si="124">MEDIAN(J153:J182)</f>
         <v>11.8</v>
       </c>
       <c r="K183">
-        <f t="shared" ref="K183" si="107">MEDIAN(K153:K182)</f>
+        <f t="shared" ref="K183" si="125">MEDIAN(K153:K182)</f>
         <v>4.2</v>
       </c>
       <c r="L183">
-        <f t="shared" ref="L183" si="108">MEDIAN(L153:L182)</f>
+        <f t="shared" ref="L183" si="126">MEDIAN(L153:L182)</f>
         <v>14.05</v>
       </c>
       <c r="O183" t="s">
@@ -17429,15 +18991,15 @@
         <v>46.5</v>
       </c>
       <c r="Q183">
-        <f t="shared" ref="Q183" si="109">MEDIAN(Q153:Q182)</f>
+        <f t="shared" ref="Q183" si="127">MEDIAN(Q153:Q182)</f>
         <v>46.3</v>
       </c>
       <c r="R183">
-        <f t="shared" ref="R183" si="110">MEDIAN(R153:R182)</f>
+        <f t="shared" ref="R183" si="128">MEDIAN(R153:R182)</f>
         <v>40.950000000000003</v>
       </c>
       <c r="S183">
-        <f t="shared" ref="S183" si="111">MEDIAN(S153:S182)</f>
+        <f t="shared" ref="S183" si="129">MEDIAN(S153:S182)</f>
         <v>852.40000000000009</v>
       </c>
       <c r="U183" t="s">
@@ -17448,15 +19010,15 @@
         <v>10.95</v>
       </c>
       <c r="W183">
-        <f t="shared" ref="W183" si="112">MEDIAN(W153:W182)</f>
+        <f t="shared" ref="W183" si="130">MEDIAN(W153:W182)</f>
         <v>10.6</v>
       </c>
       <c r="X183">
-        <f t="shared" ref="X183" si="113">MEDIAN(X153:X182)</f>
+        <f t="shared" ref="X183" si="131">MEDIAN(X153:X182)</f>
         <v>5.15</v>
       </c>
       <c r="Y183">
-        <f t="shared" ref="Y183" si="114">MEDIAN(Y153:Y182)</f>
+        <f t="shared" ref="Y183" si="132">MEDIAN(Y153:Y182)</f>
         <v>152.19999999999999</v>
       </c>
       <c r="AB183" t="s">
@@ -17467,15 +19029,15 @@
         <v>34.150000000000006</v>
       </c>
       <c r="AD183">
-        <f t="shared" ref="AD183" si="115">MEDIAN(AD153:AD182)</f>
+        <f t="shared" ref="AD183" si="133">MEDIAN(AD153:AD182)</f>
         <v>33.65</v>
       </c>
       <c r="AE183">
-        <f t="shared" ref="AE183" si="116">MEDIAN(AE153:AE182)</f>
+        <f t="shared" ref="AE183" si="134">MEDIAN(AE153:AE182)</f>
         <v>27.9</v>
       </c>
       <c r="AF183">
-        <f t="shared" ref="AF183" si="117">MEDIAN(AF153:AF182)</f>
+        <f t="shared" ref="AF183" si="135">MEDIAN(AF153:AF182)</f>
         <v>45.8</v>
       </c>
       <c r="AH183" t="s">
@@ -17486,19 +19048,19 @@
         <v>11.850000000000001</v>
       </c>
       <c r="AJ183">
-        <f t="shared" ref="AJ183" si="118">MEDIAN(AJ153:AJ182)</f>
+        <f t="shared" ref="AJ183" si="136">MEDIAN(AJ153:AJ182)</f>
         <v>11.7</v>
       </c>
       <c r="AK183">
-        <f t="shared" ref="AK183" si="119">MEDIAN(AK153:AK182)</f>
+        <f t="shared" ref="AK183" si="137">MEDIAN(AK153:AK182)</f>
         <v>4.2</v>
       </c>
       <c r="AL183">
-        <f t="shared" ref="AL183" si="120">MEDIAN(AL153:AL182)</f>
+        <f t="shared" ref="AL183" si="138">MEDIAN(AL153:AL182)</f>
         <v>12.4</v>
       </c>
     </row>
-    <row r="184" spans="2:38" x14ac:dyDescent="0.25">
+    <row r="184" spans="2:60" x14ac:dyDescent="0.25">
       <c r="B184" t="s">
         <v>11</v>
       </c>
@@ -17507,15 +19069,15 @@
         <v>1.3813333333333333</v>
       </c>
       <c r="D184">
-        <f t="shared" ref="D184:F184" si="121">AVEDEV(D153:D182)</f>
+        <f t="shared" ref="D184:F184" si="139">AVEDEV(D153:D182)</f>
         <v>1.42888888888889</v>
       </c>
       <c r="E184">
-        <f t="shared" si="121"/>
+        <f t="shared" si="139"/>
         <v>0.7968888888888892</v>
       </c>
       <c r="F184">
-        <f t="shared" si="121"/>
+        <f t="shared" si="139"/>
         <v>1.5199999999999996</v>
       </c>
       <c r="H184" t="s">
@@ -17526,15 +19088,15 @@
         <v>2.3771111111111112</v>
       </c>
       <c r="J184">
-        <f t="shared" ref="J184:L184" si="122">AVEDEV(J153:J182)</f>
+        <f t="shared" ref="J184:L184" si="140">AVEDEV(J153:J182)</f>
         <v>3.3460000000000005</v>
       </c>
       <c r="K184">
-        <f t="shared" si="122"/>
+        <f t="shared" si="140"/>
         <v>1.0617777777777773</v>
       </c>
       <c r="L184">
-        <f t="shared" si="122"/>
+        <f t="shared" si="140"/>
         <v>3.5297777777777761</v>
       </c>
       <c r="O184" t="s">
@@ -17545,15 +19107,15 @@
         <v>1.4213333333333316</v>
       </c>
       <c r="Q184">
-        <f t="shared" ref="Q184:S184" si="123">AVEDEV(Q153:Q182)</f>
+        <f t="shared" ref="Q184:S184" si="141">AVEDEV(Q153:Q182)</f>
         <v>1.3742222222222225</v>
       </c>
       <c r="R184">
-        <f t="shared" si="123"/>
+        <f t="shared" si="141"/>
         <v>1.0884444444444434</v>
       </c>
       <c r="S184">
-        <f t="shared" si="123"/>
+        <f t="shared" si="141"/>
         <v>22.360888888888901</v>
       </c>
       <c r="U184" t="s">
@@ -17564,15 +19126,15 @@
         <v>4.6302222222222218</v>
       </c>
       <c r="W184">
-        <f t="shared" ref="W184:Y184" si="124">AVEDEV(W153:W182)</f>
+        <f t="shared" ref="W184:Y184" si="142">AVEDEV(W153:W182)</f>
         <v>3.1728888888888886</v>
       </c>
       <c r="X184">
-        <f t="shared" si="124"/>
+        <f t="shared" si="142"/>
         <v>0.78400000000000003</v>
       </c>
       <c r="Y184">
-        <f t="shared" si="124"/>
+        <f t="shared" si="142"/>
         <v>9.3493333333333322</v>
       </c>
       <c r="AB184" t="s">
@@ -17583,15 +19145,15 @@
         <v>1.0955555555555554</v>
       </c>
       <c r="AD184">
-        <f t="shared" ref="AD184:AF184" si="125">AVEDEV(AD153:AD182)</f>
+        <f t="shared" ref="AD184:AF184" si="143">AVEDEV(AD153:AD182)</f>
         <v>1.1600000000000001</v>
       </c>
       <c r="AE184">
-        <f t="shared" si="125"/>
+        <f t="shared" si="143"/>
         <v>0.95666666666666678</v>
       </c>
       <c r="AF184">
-        <f t="shared" si="125"/>
+        <f t="shared" si="143"/>
         <v>1.8333333333333321</v>
       </c>
       <c r="AH184" t="s">
@@ -17602,19 +19164,25 @@
         <v>2.7591111111111113</v>
       </c>
       <c r="AJ184">
-        <f t="shared" ref="AJ184:AL184" si="126">AVEDEV(AJ153:AJ182)</f>
+        <f t="shared" ref="AJ184:AL184" si="144">AVEDEV(AJ153:AJ182)</f>
         <v>2.0235555555555558</v>
       </c>
       <c r="AK184">
-        <f t="shared" si="126"/>
+        <f t="shared" si="144"/>
         <v>0.93911111111111134</v>
       </c>
       <c r="AL184">
-        <f t="shared" si="126"/>
+        <f t="shared" si="144"/>
         <v>8.4133333333333322</v>
       </c>
     </row>
-    <row r="186" spans="2:38" x14ac:dyDescent="0.25">
+    <row r="185" spans="2:60" x14ac:dyDescent="0.25">
+      <c r="BB185">
+        <f>_xlfn.T.TEST(BB152:BB181,BC152:BC181,2,3)</f>
+        <v>2.0078116238996245E-10</v>
+      </c>
+    </row>
+    <row r="186" spans="2:60" x14ac:dyDescent="0.25">
       <c r="B186" t="s">
         <v>16</v>
       </c>
@@ -17633,8 +19201,16 @@
       <c r="AH186" t="s">
         <v>17</v>
       </c>
+      <c r="AW186">
+        <f>_xlfn.T.TEST(AW153:AW182,AX153:AX182,2,3)</f>
+        <v>8.8056161961189635E-8</v>
+      </c>
+      <c r="BG186">
+        <f>_xlfn.T.TEST(BG153:BG182,BH153:BH182,2,3)</f>
+        <v>1.1792983347908818E-4</v>
+      </c>
     </row>
-    <row r="187" spans="2:38" x14ac:dyDescent="0.25">
+    <row r="187" spans="2:60" x14ac:dyDescent="0.25">
       <c r="C187" t="s">
         <v>5</v>
       </c>
@@ -17708,7 +19284,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="188" spans="2:38" x14ac:dyDescent="0.25">
+    <row r="188" spans="2:60" x14ac:dyDescent="0.25">
       <c r="C188">
         <v>22</v>
       </c>
@@ -17782,7 +19358,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="189" spans="2:38" x14ac:dyDescent="0.25">
+    <row r="189" spans="2:60" x14ac:dyDescent="0.25">
       <c r="C189">
         <v>19</v>
       </c>
@@ -17856,7 +19432,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="190" spans="2:38" x14ac:dyDescent="0.25">
+    <row r="190" spans="2:60" x14ac:dyDescent="0.25">
       <c r="C190">
         <v>24</v>
       </c>
@@ -17930,7 +19506,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="191" spans="2:38" x14ac:dyDescent="0.25">
+    <row r="191" spans="2:60" x14ac:dyDescent="0.25">
       <c r="C191">
         <v>20</v>
       </c>
@@ -18004,7 +19580,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="192" spans="2:38" x14ac:dyDescent="0.25">
+    <row r="192" spans="2:60" x14ac:dyDescent="0.25">
       <c r="C192">
         <v>20</v>
       </c>
@@ -19937,15 +21513,15 @@
         <v>20</v>
       </c>
       <c r="D218">
-        <f t="shared" ref="D218" si="127">MEDIAN(D188:D217)</f>
+        <f t="shared" ref="D218" si="145">MEDIAN(D188:D217)</f>
         <v>20</v>
       </c>
       <c r="E218">
-        <f t="shared" ref="E218" si="128">MEDIAN(E188:E217)</f>
+        <f t="shared" ref="E218" si="146">MEDIAN(E188:E217)</f>
         <v>18.5</v>
       </c>
       <c r="F218">
-        <f t="shared" ref="F218" si="129">MEDIAN(F188:F217)</f>
+        <f t="shared" ref="F218" si="147">MEDIAN(F188:F217)</f>
         <v>32</v>
       </c>
       <c r="H218" t="s">
@@ -19956,15 +21532,15 @@
         <v>70.5</v>
       </c>
       <c r="J218">
-        <f t="shared" ref="J218" si="130">MEDIAN(J188:J217)</f>
+        <f t="shared" ref="J218" si="148">MEDIAN(J188:J217)</f>
         <v>74.5</v>
       </c>
       <c r="K218">
-        <f t="shared" ref="K218" si="131">MEDIAN(K188:K217)</f>
+        <f t="shared" ref="K218" si="149">MEDIAN(K188:K217)</f>
         <v>37</v>
       </c>
       <c r="L218">
-        <f t="shared" ref="L218" si="132">MEDIAN(L188:L217)</f>
+        <f t="shared" ref="L218" si="150">MEDIAN(L188:L217)</f>
         <v>101</v>
       </c>
       <c r="O218" t="s">
@@ -19975,15 +21551,15 @@
         <v>32</v>
       </c>
       <c r="Q218">
-        <f t="shared" ref="Q218" si="133">MEDIAN(Q188:Q217)</f>
+        <f t="shared" ref="Q218" si="151">MEDIAN(Q188:Q217)</f>
         <v>30.5</v>
       </c>
       <c r="R218">
-        <f t="shared" ref="R218" si="134">MEDIAN(R188:R217)</f>
+        <f t="shared" ref="R218" si="152">MEDIAN(R188:R217)</f>
         <v>30.5</v>
       </c>
       <c r="S218">
-        <f t="shared" ref="S218" si="135">MEDIAN(S188:S217)</f>
+        <f t="shared" ref="S218" si="153">MEDIAN(S188:S217)</f>
         <v>115.5</v>
       </c>
       <c r="U218" t="s">
@@ -19994,15 +21570,15 @@
         <v>85</v>
       </c>
       <c r="W218">
-        <f t="shared" ref="W218" si="136">MEDIAN(W188:W217)</f>
+        <f t="shared" ref="W218" si="154">MEDIAN(W188:W217)</f>
         <v>83</v>
       </c>
       <c r="X218">
-        <f t="shared" ref="X218" si="137">MEDIAN(X188:X217)</f>
+        <f t="shared" ref="X218" si="155">MEDIAN(X188:X217)</f>
         <v>54</v>
       </c>
       <c r="Y218">
-        <f t="shared" ref="Y218" si="138">MEDIAN(Y188:Y217)</f>
+        <f t="shared" ref="Y218" si="156">MEDIAN(Y188:Y217)</f>
         <v>1228.5</v>
       </c>
       <c r="AB218" t="s">
@@ -20013,15 +21589,15 @@
         <v>20</v>
       </c>
       <c r="AD218">
-        <f t="shared" ref="AD218" si="139">MEDIAN(AD188:AD217)</f>
+        <f t="shared" ref="AD218" si="157">MEDIAN(AD188:AD217)</f>
         <v>21</v>
       </c>
       <c r="AE218">
-        <f t="shared" ref="AE218" si="140">MEDIAN(AE188:AE217)</f>
+        <f t="shared" ref="AE218" si="158">MEDIAN(AE188:AE217)</f>
         <v>19</v>
       </c>
       <c r="AF218">
-        <f t="shared" ref="AF218" si="141">MEDIAN(AF188:AF217)</f>
+        <f t="shared" ref="AF218" si="159">MEDIAN(AF188:AF217)</f>
         <v>30</v>
       </c>
       <c r="AH218" t="s">
@@ -20032,15 +21608,15 @@
         <v>75</v>
       </c>
       <c r="AJ218">
-        <f t="shared" ref="AJ218" si="142">MEDIAN(AJ188:AJ217)</f>
+        <f t="shared" ref="AJ218" si="160">MEDIAN(AJ188:AJ217)</f>
         <v>74</v>
       </c>
       <c r="AK218">
-        <f t="shared" ref="AK218" si="143">MEDIAN(AK188:AK217)</f>
+        <f t="shared" ref="AK218" si="161">MEDIAN(AK188:AK217)</f>
         <v>39</v>
       </c>
       <c r="AL218">
-        <f t="shared" ref="AL218" si="144">MEDIAN(AL188:AL217)</f>
+        <f t="shared" ref="AL218" si="162">MEDIAN(AL188:AL217)</f>
         <v>92.5</v>
       </c>
     </row>
@@ -20053,15 +21629,15 @@
         <v>2.0888888888888881</v>
       </c>
       <c r="D219">
-        <f t="shared" ref="D219:F219" si="145">AVEDEV(D188:D217)</f>
+        <f t="shared" ref="D219:F219" si="163">AVEDEV(D188:D217)</f>
         <v>2.5688888888888894</v>
       </c>
       <c r="E219">
-        <f t="shared" si="145"/>
+        <f t="shared" si="163"/>
         <v>1.8333333333333328</v>
       </c>
       <c r="F219">
-        <f t="shared" si="145"/>
+        <f t="shared" si="163"/>
         <v>2.6088888888888886</v>
       </c>
       <c r="H219" t="s">
@@ -20072,15 +21648,15 @@
         <v>9.3777777777777782</v>
       </c>
       <c r="J219">
-        <f t="shared" ref="J219:L219" si="146">AVEDEV(J188:J217)</f>
+        <f t="shared" ref="J219:L219" si="164">AVEDEV(J188:J217)</f>
         <v>14</v>
       </c>
       <c r="K219">
-        <f t="shared" si="146"/>
+        <f t="shared" si="164"/>
         <v>4.6444444444444457</v>
       </c>
       <c r="L219">
-        <f t="shared" si="146"/>
+        <f t="shared" si="164"/>
         <v>16.146666666666665</v>
       </c>
       <c r="O219" t="s">
@@ -20091,15 +21667,15 @@
         <v>3.9288888888888893</v>
       </c>
       <c r="Q219">
-        <f t="shared" ref="Q219:S219" si="147">AVEDEV(Q188:Q217)</f>
+        <f t="shared" ref="Q219:S219" si="165">AVEDEV(Q188:Q217)</f>
         <v>3.4666666666666663</v>
       </c>
       <c r="R219">
-        <f t="shared" si="147"/>
+        <f t="shared" si="165"/>
         <v>2.7311111111111113</v>
       </c>
       <c r="S219">
-        <f t="shared" si="147"/>
+        <f t="shared" si="165"/>
         <v>8.0311111111111106</v>
       </c>
       <c r="U219" t="s">
@@ -20110,15 +21686,15 @@
         <v>13.737777777777774</v>
       </c>
       <c r="W219">
-        <f t="shared" ref="W219:Y219" si="148">AVEDEV(W188:W217)</f>
+        <f t="shared" ref="W219:Y219" si="166">AVEDEV(W188:W217)</f>
         <v>11.666666666666666</v>
       </c>
       <c r="X219">
-        <f t="shared" si="148"/>
+        <f t="shared" si="166"/>
         <v>3.373333333333334</v>
       </c>
       <c r="Y219">
-        <f t="shared" si="148"/>
+        <f t="shared" si="166"/>
         <v>97.753333333333345</v>
       </c>
       <c r="AB219" t="s">
@@ -20129,15 +21705,15 @@
         <v>2.1222222222222222</v>
       </c>
       <c r="AD219">
-        <f t="shared" ref="AD219:AF219" si="149">AVEDEV(AD188:AD217)</f>
+        <f t="shared" ref="AD219:AF219" si="167">AVEDEV(AD188:AD217)</f>
         <v>1.2222222222222223</v>
       </c>
       <c r="AE219">
-        <f t="shared" si="149"/>
+        <f t="shared" si="167"/>
         <v>1.7199999999999998</v>
       </c>
       <c r="AF219">
-        <f t="shared" si="149"/>
+        <f t="shared" si="167"/>
         <v>6.3422222222222233</v>
       </c>
       <c r="AH219" t="s">
@@ -20148,15 +21724,15 @@
         <v>11.546666666666662</v>
       </c>
       <c r="AJ219">
-        <f t="shared" ref="AJ219:AL219" si="150">AVEDEV(AJ188:AJ217)</f>
+        <f t="shared" ref="AJ219:AL219" si="168">AVEDEV(AJ188:AJ217)</f>
         <v>8.0755555555555549</v>
       </c>
       <c r="AK219">
-        <f t="shared" si="150"/>
+        <f t="shared" si="168"/>
         <v>3.819999999999999</v>
       </c>
       <c r="AL219">
-        <f t="shared" si="150"/>
+        <f t="shared" si="168"/>
         <v>29.622222222222216</v>
       </c>
     </row>
